--- a/newCards.xlsx
+++ b/newCards.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9854" uniqueCount="3575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9939" uniqueCount="3603">
   <si>
     <t>Name</t>
   </si>
@@ -10747,6 +10747,90 @@
   </si>
   <si>
     <t>Misc. others</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-09-25-16-43-37.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-09-27-06-32-27.png</t>
+  </si>
+  <si>
+    <t>Rick Porcello</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-01-12-48-37.png</t>
+  </si>
+  <si>
+    <t>Jim Schwartz</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-09-27-06-27-48.png</t>
+  </si>
+  <si>
+    <t>Benny Logan</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-09-25-16-45-21.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-01-12-57-40.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-09-27-06-33-15.png</t>
+  </si>
+  <si>
+    <t>Carson Wentz / Jordan Matthews</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-09-25-18-22-14.png</t>
+  </si>
+  <si>
+    <t>Kenny Young</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-09-25-16-48-48.png</t>
+  </si>
+  <si>
+    <t>Tim Teebow</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-09-28-19-25-03.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-09-28-19-24-04.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-09-25-18-23-36.png</t>
+  </si>
+  <si>
+    <t>Jose Fernandez</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-09-25-16-42-17.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-09-25-16-46-44.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-09-25-18-24-35.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-09-27-22-31-08.png</t>
+  </si>
+  <si>
+    <t>Kenjon Barner</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-09-27-06-28-43.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-01-12-49-42.png</t>
+  </si>
+  <si>
+    <t>Soso Jamabo</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-01-12-59-32.png</t>
   </si>
 </sst>
 </file>
@@ -11602,7 +11686,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6900" topLeftCell="A339"/>
-      <selection activeCell="A35" sqref="A35:XFD36"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>
@@ -11635,9 +11719,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F175">
-    <sortCondition ref="B2:B175"/>
-    <sortCondition ref="A2:A175"/>
+  <sortState ref="A2:F15">
+    <sortCondition ref="B2:B15"/>
+    <sortCondition ref="A2:A15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -11646,10 +11730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F653"/>
+  <dimension ref="A1:F666"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A453" workbookViewId="0">
-      <selection activeCell="A536" sqref="A536"/>
+    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
+      <selection activeCell="A531" sqref="A531:XFD531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16724,36 +16808,39 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>51</v>
+        <v>2520</v>
       </c>
       <c r="B310" t="s">
         <v>52</v>
       </c>
       <c r="C310" t="s">
-        <v>434</v>
+        <v>2530</v>
       </c>
       <c r="D310" t="s">
-        <v>2741</v>
-      </c>
-      <c r="E310" t="s">
-        <v>10</v>
+        <v>3552</v>
       </c>
       <c r="F310" t="s">
-        <v>53</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>2960</v>
+        <v>51</v>
       </c>
       <c r="B311" t="s">
         <v>52</v>
       </c>
       <c r="C311" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D311" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E311" t="s">
+        <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>3471</v>
+        <v>53</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -16764,21 +16851,15 @@
         <v>52</v>
       </c>
       <c r="C312" t="s">
-        <v>434</v>
-      </c>
-      <c r="D312" t="s">
-        <v>2590</v>
-      </c>
-      <c r="E312" t="s">
-        <v>3495</v>
+        <v>2530</v>
       </c>
       <c r="F312" t="s">
-        <v>3527</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>3556</v>
+        <v>2960</v>
       </c>
       <c r="B313" t="s">
         <v>52</v>
@@ -16787,52 +16868,52 @@
         <v>434</v>
       </c>
       <c r="D313" t="s">
-        <v>3557</v>
+        <v>2590</v>
+      </c>
+      <c r="E313" t="s">
+        <v>3495</v>
       </c>
       <c r="F313" t="s">
-        <v>3558</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>3136</v>
+        <v>3556</v>
       </c>
       <c r="B314" t="s">
         <v>52</v>
       </c>
       <c r="C314" t="s">
-        <v>2530</v>
+        <v>434</v>
       </c>
       <c r="D314" t="s">
-        <v>3137</v>
+        <v>3557</v>
       </c>
       <c r="F314" t="s">
-        <v>3138</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>3497</v>
+        <v>3136</v>
       </c>
       <c r="B315" t="s">
         <v>52</v>
       </c>
       <c r="C315" t="s">
-        <v>434</v>
+        <v>2530</v>
       </c>
       <c r="D315" t="s">
-        <v>3198</v>
-      </c>
-      <c r="E315" t="s">
-        <v>3495</v>
+        <v>3137</v>
       </c>
       <c r="F315" t="s">
-        <v>3498</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>3377</v>
+        <v>3497</v>
       </c>
       <c r="B316" t="s">
         <v>52</v>
@@ -16841,49 +16922,52 @@
         <v>434</v>
       </c>
       <c r="D316" t="s">
-        <v>3378</v>
+        <v>3198</v>
+      </c>
+      <c r="E316" t="s">
+        <v>3495</v>
       </c>
       <c r="F316" t="s">
-        <v>3379</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B317" t="s">
+        <v>52</v>
+      </c>
+      <c r="C317" t="s">
+        <v>434</v>
+      </c>
+      <c r="D317" t="s">
+        <v>3378</v>
+      </c>
+      <c r="F317" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
         <v>3154</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B318" t="s">
         <v>3155</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C318" t="s">
         <v>2482</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D318" t="s">
         <v>3156</v>
       </c>
-      <c r="F317" t="s">
+      <c r="F318" t="s">
         <v>3157</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>3415</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C319" t="s">
-        <v>434</v>
-      </c>
-      <c r="D319" t="s">
-        <v>3233</v>
-      </c>
-      <c r="F319" t="s">
-        <v>3416</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>2573</v>
+        <v>3415</v>
       </c>
       <c r="B320" t="s">
         <v>1343</v>
@@ -16892,13 +16976,10 @@
         <v>434</v>
       </c>
       <c r="D320" t="s">
-        <v>2465</v>
-      </c>
-      <c r="E320" t="s">
-        <v>2533</v>
+        <v>3233</v>
       </c>
       <c r="F320" t="s">
-        <v>2574</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -16909,15 +16990,21 @@
         <v>1343</v>
       </c>
       <c r="C321" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D321" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E321" t="s">
+        <v>2533</v>
       </c>
       <c r="F321" t="s">
-        <v>3037</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>2994</v>
+        <v>2573</v>
       </c>
       <c r="B322" t="s">
         <v>1343</v>
@@ -16926,24 +17013,21 @@
         <v>2530</v>
       </c>
       <c r="F322" t="s">
-        <v>2995</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>2935</v>
+        <v>2994</v>
       </c>
       <c r="B323" t="s">
         <v>1343</v>
       </c>
       <c r="C323" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D323" t="s">
-        <v>3072</v>
+        <v>2530</v>
       </c>
       <c r="F323" t="s">
-        <v>3073</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -16954,30 +17038,27 @@
         <v>1343</v>
       </c>
       <c r="C324" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D324" t="s">
+        <v>3072</v>
+      </c>
+      <c r="F324" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C325" t="s">
         <v>2742</v>
       </c>
-      <c r="F324" t="s">
+      <c r="F325" t="s">
         <v>3438</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>346</v>
-      </c>
-      <c r="B326" t="s">
-        <v>347</v>
-      </c>
-      <c r="C326" t="s">
-        <v>434</v>
-      </c>
-      <c r="D326" t="s">
-        <v>2741</v>
-      </c>
-      <c r="E326" t="s">
-        <v>10</v>
-      </c>
-      <c r="F326" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -16991,18 +17072,18 @@
         <v>434</v>
       </c>
       <c r="D327" t="s">
-        <v>2438</v>
+        <v>2741</v>
       </c>
       <c r="E327" t="s">
-        <v>2439</v>
+        <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>2472</v>
+        <v>348</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1695</v>
+        <v>346</v>
       </c>
       <c r="B328" t="s">
         <v>347</v>
@@ -17011,18 +17092,18 @@
         <v>434</v>
       </c>
       <c r="D328" t="s">
-        <v>423</v>
+        <v>2438</v>
       </c>
       <c r="E328" t="s">
-        <v>1317</v>
+        <v>2439</v>
       </c>
       <c r="F328" t="s">
-        <v>1696</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1345</v>
+        <v>1695</v>
       </c>
       <c r="B329" t="s">
         <v>347</v>
@@ -17031,10 +17112,13 @@
         <v>434</v>
       </c>
       <c r="D329" t="s">
-        <v>2765</v>
+        <v>423</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1317</v>
       </c>
       <c r="F329" t="s">
-        <v>2766</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -17048,32 +17132,32 @@
         <v>434</v>
       </c>
       <c r="D330" t="s">
+        <v>2765</v>
+      </c>
+      <c r="F330" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B331" t="s">
+        <v>347</v>
+      </c>
+      <c r="C331" t="s">
+        <v>434</v>
+      </c>
+      <c r="D331" t="s">
         <v>3460</v>
       </c>
-      <c r="F330" t="s">
+      <c r="F331" t="s">
         <v>3461</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>3341</v>
-      </c>
-      <c r="B332" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C332" t="s">
-        <v>434</v>
-      </c>
-      <c r="D332" t="s">
-        <v>2570</v>
-      </c>
-      <c r="F332" t="s">
-        <v>3342</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>2448</v>
+        <v>3341</v>
       </c>
       <c r="B333" t="s">
         <v>1476</v>
@@ -17082,38 +17166,41 @@
         <v>434</v>
       </c>
       <c r="D333" t="s">
-        <v>2454</v>
+        <v>2570</v>
       </c>
       <c r="F333" t="s">
-        <v>3165</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>3409</v>
+        <v>2448</v>
       </c>
       <c r="B334" t="s">
         <v>1476</v>
       </c>
       <c r="C334" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D334" t="s">
+        <v>2454</v>
       </c>
       <c r="F334" t="s">
-        <v>3410</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>3108</v>
+        <v>3409</v>
       </c>
       <c r="B335" t="s">
         <v>1476</v>
       </c>
       <c r="C335" t="s">
-        <v>2530</v>
+        <v>2742</v>
       </c>
       <c r="F335" t="s">
-        <v>3490</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -17124,69 +17211,66 @@
         <v>1476</v>
       </c>
       <c r="C336" t="s">
-        <v>434</v>
-      </c>
-      <c r="D336" t="s">
-        <v>2544</v>
+        <v>2530</v>
       </c>
       <c r="F336" t="s">
-        <v>3109</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>3551</v>
+        <v>3108</v>
       </c>
       <c r="B337" t="s">
         <v>1476</v>
       </c>
       <c r="C337" t="s">
+        <v>434</v>
+      </c>
+      <c r="D337" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F337" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C338" t="s">
         <v>2530</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D338" t="s">
         <v>3552</v>
       </c>
-      <c r="F337" t="s">
+      <c r="F338" t="s">
         <v>3553</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>3442</v>
-      </c>
-      <c r="B339" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C339" t="s">
-        <v>434</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F339" t="s">
-        <v>3443</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>3266</v>
+        <v>3442</v>
       </c>
       <c r="B340" t="s">
         <v>1316</v>
       </c>
       <c r="C340" t="s">
-        <v>2530</v>
+        <v>434</v>
       </c>
       <c r="D340" t="s">
-        <v>3404</v>
+        <v>1473</v>
       </c>
       <c r="F340" t="s">
-        <v>3405</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>3143</v>
+        <v>3266</v>
       </c>
       <c r="B341" t="s">
         <v>1316</v>
@@ -17194,27 +17278,30 @@
       <c r="C341" t="s">
         <v>2530</v>
       </c>
+      <c r="D341" t="s">
+        <v>3404</v>
+      </c>
       <c r="F341" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C342" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F342" t="s">
         <v>3183</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>3215</v>
-      </c>
-      <c r="B343" t="s">
-        <v>472</v>
-      </c>
-      <c r="C343" t="s">
-        <v>2742</v>
-      </c>
-      <c r="F343" t="s">
-        <v>3216</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>471</v>
+        <v>3215</v>
       </c>
       <c r="B344" t="s">
         <v>472</v>
@@ -17223,100 +17310,91 @@
         <v>2742</v>
       </c>
       <c r="F344" t="s">
-        <v>2780</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>471</v>
+        <v>3554</v>
       </c>
       <c r="B345" t="s">
         <v>472</v>
       </c>
       <c r="C345" t="s">
-        <v>2530</v>
+        <v>2482</v>
+      </c>
+      <c r="D345" t="s">
+        <v>2745</v>
       </c>
       <c r="F345" t="s">
-        <v>3255</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>2445</v>
+        <v>471</v>
       </c>
       <c r="B346" t="s">
         <v>472</v>
       </c>
       <c r="C346" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D346" t="s">
-        <v>3098</v>
+        <v>2742</v>
       </c>
       <c r="F346" t="s">
-        <v>3100</v>
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>471</v>
+      </c>
+      <c r="B347" t="s">
+        <v>472</v>
+      </c>
+      <c r="C347" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F347" t="s">
+        <v>3255</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>3150</v>
+        <v>2445</v>
       </c>
       <c r="B348" t="s">
-        <v>1358</v>
+        <v>472</v>
       </c>
       <c r="C348" t="s">
-        <v>434</v>
+        <v>2482</v>
       </c>
       <c r="D348" t="s">
-        <v>3233</v>
+        <v>3098</v>
       </c>
       <c r="F348" t="s">
-        <v>3247</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>2520</v>
+        <v>3150</v>
       </c>
       <c r="B350" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
       <c r="C350" t="s">
         <v>434</v>
       </c>
       <c r="D350" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E350" t="s">
-        <v>3495</v>
+        <v>3233</v>
       </c>
       <c r="F350" t="s">
-        <v>3528</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>3518</v>
-      </c>
-      <c r="B351" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C351" t="s">
-        <v>434</v>
-      </c>
-      <c r="D351" t="s">
-        <v>3385</v>
-      </c>
-      <c r="E351" t="s">
-        <v>3495</v>
-      </c>
-      <c r="F351" t="s">
-        <v>3519</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>2577</v>
+        <v>2520</v>
       </c>
       <c r="B352" t="s">
         <v>1366</v>
@@ -17325,15 +17403,18 @@
         <v>434</v>
       </c>
       <c r="D352" t="s">
-        <v>2617</v>
+        <v>2438</v>
+      </c>
+      <c r="E352" t="s">
+        <v>3495</v>
       </c>
       <c r="F352" t="s">
-        <v>2836</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>2577</v>
+        <v>3518</v>
       </c>
       <c r="B353" t="s">
         <v>1366</v>
@@ -17342,13 +17423,13 @@
         <v>434</v>
       </c>
       <c r="D353" t="s">
-        <v>2532</v>
+        <v>3385</v>
       </c>
       <c r="E353" t="s">
-        <v>2533</v>
+        <v>3495</v>
       </c>
       <c r="F353" t="s">
-        <v>2578</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -17359,13 +17440,13 @@
         <v>1366</v>
       </c>
       <c r="C354" t="s">
-        <v>2530</v>
+        <v>434</v>
       </c>
       <c r="D354" t="s">
-        <v>3167</v>
+        <v>2617</v>
       </c>
       <c r="F354" t="s">
-        <v>3280</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -17379,10 +17460,13 @@
         <v>434</v>
       </c>
       <c r="D355" t="s">
-        <v>3223</v>
+        <v>2532</v>
+      </c>
+      <c r="E355" t="s">
+        <v>2533</v>
       </c>
       <c r="F355" t="s">
-        <v>3224</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -17393,13 +17477,13 @@
         <v>1366</v>
       </c>
       <c r="C356" t="s">
-        <v>434</v>
+        <v>2530</v>
       </c>
       <c r="D356" t="s">
-        <v>2757</v>
+        <v>3167</v>
       </c>
       <c r="F356" t="s">
-        <v>3340</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -17413,10 +17497,10 @@
         <v>434</v>
       </c>
       <c r="D357" t="s">
-        <v>3446</v>
+        <v>3223</v>
       </c>
       <c r="F357" t="s">
-        <v>2836</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -17430,57 +17514,63 @@
         <v>434</v>
       </c>
       <c r="D358" t="s">
-        <v>2747</v>
+        <v>2757</v>
       </c>
       <c r="F358" t="s">
-        <v>3101</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>3476</v>
+        <v>2577</v>
       </c>
       <c r="B359" t="s">
         <v>1366</v>
       </c>
       <c r="C359" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D359" t="s">
+        <v>3446</v>
       </c>
       <c r="F359" t="s">
-        <v>3477</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>2943</v>
+        <v>2577</v>
       </c>
       <c r="B360" t="s">
         <v>1366</v>
       </c>
       <c r="C360" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D360" t="s">
+        <v>2747</v>
       </c>
       <c r="F360" t="s">
-        <v>3079</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>2522</v>
+        <v>3476</v>
       </c>
       <c r="B361" t="s">
         <v>1366</v>
       </c>
       <c r="C361" t="s">
-        <v>2750</v>
+        <v>2742</v>
       </c>
       <c r="F361" t="s">
-        <v>3089</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>2807</v>
+        <v>2943</v>
       </c>
       <c r="B362" t="s">
         <v>1366</v>
@@ -17489,216 +17579,204 @@
         <v>2530</v>
       </c>
       <c r="F362" t="s">
-        <v>2808</v>
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C363" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F363" t="s">
+        <v>3578</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>3313</v>
+        <v>2522</v>
       </c>
       <c r="B364" t="s">
-        <v>2942</v>
+        <v>1366</v>
       </c>
       <c r="C364" t="s">
-        <v>2530</v>
-      </c>
-      <c r="D364" t="s">
-        <v>3167</v>
+        <v>2750</v>
       </c>
       <c r="F364" t="s">
-        <v>3314</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>2467</v>
+        <v>2807</v>
       </c>
       <c r="B365" t="s">
-        <v>2942</v>
+        <v>1366</v>
       </c>
       <c r="C365" t="s">
-        <v>434</v>
-      </c>
-      <c r="D365">
-        <v>2014</v>
-      </c>
-      <c r="E365" t="s">
-        <v>3495</v>
+        <v>2530</v>
       </c>
       <c r="F365" t="s">
-        <v>3512</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>3384</v>
+        <v>3313</v>
       </c>
       <c r="B367" t="s">
-        <v>1326</v>
+        <v>2942</v>
       </c>
       <c r="C367" t="s">
-        <v>434</v>
+        <v>2530</v>
       </c>
       <c r="D367" t="s">
-        <v>3385</v>
+        <v>3167</v>
       </c>
       <c r="F367" t="s">
-        <v>3386</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1472</v>
+        <v>2467</v>
       </c>
       <c r="B368" t="s">
-        <v>1326</v>
+        <v>2942</v>
       </c>
       <c r="C368" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D368">
+        <v>2014</v>
+      </c>
+      <c r="E368" t="s">
+        <v>3495</v>
       </c>
       <c r="F368" t="s">
-        <v>3078</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>2845</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C369" t="s">
-        <v>2742</v>
-      </c>
-      <c r="F369" t="s">
-        <v>2743</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>2771</v>
+        <v>3384</v>
       </c>
       <c r="B370" t="s">
         <v>1326</v>
       </c>
       <c r="C370" t="s">
-        <v>2742</v>
+        <v>434</v>
       </c>
       <c r="D370" t="s">
-        <v>2772</v>
+        <v>3385</v>
       </c>
       <c r="F370" t="s">
-        <v>2773</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>2312</v>
+        <v>1472</v>
       </c>
       <c r="B371" t="s">
         <v>1326</v>
       </c>
       <c r="C371" t="s">
-        <v>434</v>
-      </c>
-      <c r="D371" t="s">
-        <v>2475</v>
-      </c>
-      <c r="E371" t="s">
-        <v>2439</v>
+        <v>2742</v>
       </c>
       <c r="F371" t="s">
-        <v>2476</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>2312</v>
+        <v>2845</v>
       </c>
       <c r="B372" t="s">
         <v>1326</v>
       </c>
       <c r="C372" t="s">
-        <v>2530</v>
+        <v>2742</v>
       </c>
       <c r="F372" t="s">
-        <v>3219</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>2312</v>
+        <v>2771</v>
       </c>
       <c r="B373" t="s">
         <v>1326</v>
       </c>
       <c r="C373" t="s">
-        <v>434</v>
+        <v>2742</v>
       </c>
       <c r="D373" t="s">
-        <v>3227</v>
+        <v>2772</v>
       </c>
       <c r="F373" t="s">
-        <v>3228</v>
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C374" t="s">
+        <v>434</v>
+      </c>
+      <c r="D374" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E374" t="s">
+        <v>2439</v>
+      </c>
+      <c r="F374" t="s">
+        <v>2476</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>2756</v>
+        <v>2312</v>
       </c>
       <c r="B375" t="s">
-        <v>1442</v>
+        <v>1326</v>
       </c>
       <c r="C375" t="s">
-        <v>434</v>
-      </c>
-      <c r="D375" t="s">
-        <v>2757</v>
+        <v>2530</v>
       </c>
       <c r="F375" t="s">
-        <v>2758</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>2593</v>
+        <v>2312</v>
       </c>
       <c r="B376" t="s">
-        <v>1442</v>
+        <v>1326</v>
       </c>
       <c r="C376" t="s">
         <v>434</v>
       </c>
       <c r="D376" t="s">
-        <v>2757</v>
+        <v>3227</v>
       </c>
       <c r="F376" t="s">
-        <v>3433</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>2593</v>
-      </c>
-      <c r="B377" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C377" t="s">
-        <v>434</v>
-      </c>
-      <c r="D377" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E377" t="s">
-        <v>3495</v>
-      </c>
-      <c r="F377" t="s">
-        <v>3511</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>2593</v>
+        <v>2756</v>
       </c>
       <c r="B378" t="s">
         <v>1442</v>
@@ -17707,15 +17785,15 @@
         <v>434</v>
       </c>
       <c r="D378" t="s">
-        <v>2747</v>
+        <v>2757</v>
       </c>
       <c r="F378" t="s">
-        <v>3018</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>3509</v>
+        <v>2593</v>
       </c>
       <c r="B379" t="s">
         <v>1442</v>
@@ -17724,18 +17802,15 @@
         <v>434</v>
       </c>
       <c r="D379" t="s">
-        <v>3385</v>
-      </c>
-      <c r="E379" t="s">
-        <v>3495</v>
+        <v>2757</v>
       </c>
       <c r="F379" t="s">
-        <v>3510</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>3002</v>
+        <v>2593</v>
       </c>
       <c r="B380" t="s">
         <v>1442</v>
@@ -17744,1427 +17819,1397 @@
         <v>434</v>
       </c>
       <c r="D380" t="s">
-        <v>3003</v>
+        <v>2438</v>
+      </c>
+      <c r="E380" t="s">
+        <v>3495</v>
       </c>
       <c r="F380" t="s">
-        <v>3004</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>3002</v>
+        <v>2593</v>
       </c>
       <c r="B381" t="s">
         <v>1442</v>
       </c>
       <c r="C381" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D381" t="s">
+        <v>2747</v>
       </c>
       <c r="F381" t="s">
-        <v>3166</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>3343</v>
+        <v>3509</v>
       </c>
       <c r="B382" t="s">
         <v>1442</v>
       </c>
       <c r="C382" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D382" t="s">
+        <v>3385</v>
+      </c>
+      <c r="E382" t="s">
+        <v>3495</v>
       </c>
       <c r="F382" t="s">
-        <v>3344</v>
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C383" t="s">
+        <v>434</v>
+      </c>
+      <c r="D383" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F383" t="s">
+        <v>3004</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>2470</v>
+        <v>3002</v>
       </c>
       <c r="B384" t="s">
-        <v>1373</v>
+        <v>1442</v>
       </c>
       <c r="C384" t="s">
-        <v>434</v>
-      </c>
-      <c r="D384" t="s">
-        <v>2535</v>
-      </c>
-      <c r="E384" t="s">
-        <v>2533</v>
+        <v>2742</v>
       </c>
       <c r="F384" t="s">
-        <v>2536</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>2470</v>
+        <v>3343</v>
       </c>
       <c r="B385" t="s">
-        <v>1373</v>
+        <v>1442</v>
       </c>
       <c r="C385" t="s">
-        <v>434</v>
-      </c>
-      <c r="D385" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E385" t="s">
-        <v>2439</v>
+        <v>2742</v>
       </c>
       <c r="F385" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>3204</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C386" t="s">
-        <v>434</v>
-      </c>
-      <c r="D386" t="s">
-        <v>3047</v>
-      </c>
-      <c r="F386" t="s">
-        <v>3205</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>2938</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C387" t="s">
-        <v>434</v>
-      </c>
-      <c r="D387" t="s">
-        <v>3038</v>
-      </c>
-      <c r="F387" t="s">
-        <v>3039</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>3025</v>
-      </c>
-      <c r="B388" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C388" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F388" t="s">
-        <v>3026</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>3025</v>
+        <v>1456</v>
       </c>
       <c r="B389" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C389" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D389" t="s">
+        <v>3552</v>
+      </c>
+      <c r="F389" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B391" t="s">
         <v>1373</v>
       </c>
-      <c r="C389" t="s">
-        <v>2742</v>
-      </c>
-      <c r="F389" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>3248</v>
-      </c>
-      <c r="B390" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C390" t="s">
-        <v>434</v>
-      </c>
-      <c r="D390" t="s">
-        <v>2454</v>
-      </c>
-      <c r="F390" t="s">
-        <v>3249</v>
+      <c r="C391" t="s">
+        <v>434</v>
+      </c>
+      <c r="D391" t="s">
+        <v>2535</v>
+      </c>
+      <c r="E391" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F391" t="s">
+        <v>2536</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>2463</v>
+        <v>2470</v>
       </c>
       <c r="B392" t="s">
-        <v>574</v>
+        <v>1373</v>
       </c>
       <c r="C392" t="s">
-        <v>3418</v>
+        <v>434</v>
       </c>
       <c r="D392" t="s">
-        <v>3419</v>
+        <v>2438</v>
+      </c>
+      <c r="E392" t="s">
+        <v>2439</v>
       </c>
       <c r="F392" t="s">
-        <v>3420</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>2463</v>
+        <v>3204</v>
       </c>
       <c r="B393" t="s">
-        <v>574</v>
+        <v>1373</v>
       </c>
       <c r="C393" t="s">
         <v>434</v>
       </c>
       <c r="D393" t="s">
-        <v>3054</v>
+        <v>3047</v>
       </c>
       <c r="F393" t="s">
-        <v>3055</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>573</v>
+        <v>2938</v>
       </c>
       <c r="B394" t="s">
-        <v>574</v>
+        <v>1373</v>
       </c>
       <c r="C394" t="s">
         <v>434</v>
       </c>
       <c r="D394" t="s">
-        <v>2570</v>
-      </c>
-      <c r="E394" t="s">
-        <v>2533</v>
+        <v>3038</v>
       </c>
       <c r="F394" t="s">
-        <v>2571</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>573</v>
+        <v>3025</v>
       </c>
       <c r="B395" t="s">
-        <v>574</v>
+        <v>1373</v>
       </c>
       <c r="C395" t="s">
-        <v>434</v>
-      </c>
-      <c r="D395" t="s">
-        <v>2465</v>
-      </c>
-      <c r="E395" t="s">
-        <v>2439</v>
+        <v>2530</v>
       </c>
       <c r="F395" t="s">
-        <v>2466</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>573</v>
+        <v>3025</v>
       </c>
       <c r="B396" t="s">
-        <v>574</v>
+        <v>1373</v>
       </c>
       <c r="C396" t="s">
-        <v>2530</v>
+        <v>2742</v>
       </c>
       <c r="F396" t="s">
-        <v>3360</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>3307</v>
+        <v>3248</v>
       </c>
       <c r="B397" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C397" t="s">
+        <v>434</v>
+      </c>
+      <c r="D397" t="s">
+        <v>2454</v>
+      </c>
+      <c r="F397" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B399" t="s">
         <v>574</v>
       </c>
-      <c r="C397" t="s">
-        <v>434</v>
-      </c>
-      <c r="D397" t="s">
-        <v>2757</v>
-      </c>
-      <c r="F397" t="s">
-        <v>3308</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>3307</v>
-      </c>
-      <c r="B398" t="s">
-        <v>574</v>
-      </c>
-      <c r="C398" t="s">
-        <v>434</v>
-      </c>
-      <c r="D398" t="s">
-        <v>2568</v>
-      </c>
-      <c r="F398" t="s">
-        <v>3359</v>
+      <c r="C399" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D399" t="s">
+        <v>3419</v>
+      </c>
+      <c r="F399" t="s">
+        <v>3420</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>2589</v>
+        <v>2463</v>
       </c>
       <c r="B400" t="s">
-        <v>1320</v>
+        <v>574</v>
       </c>
       <c r="C400" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D400" t="s">
+        <v>3054</v>
       </c>
       <c r="F400" t="s">
-        <v>3127</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>2589</v>
+        <v>573</v>
       </c>
       <c r="B401" t="s">
-        <v>1320</v>
+        <v>574</v>
       </c>
       <c r="C401" t="s">
         <v>434</v>
       </c>
       <c r="D401" t="s">
-        <v>2590</v>
+        <v>2570</v>
       </c>
       <c r="E401" t="s">
         <v>2533</v>
       </c>
       <c r="F401" t="s">
-        <v>2591</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>2947</v>
+        <v>573</v>
       </c>
       <c r="B402" t="s">
-        <v>1320</v>
+        <v>574</v>
       </c>
       <c r="C402" t="s">
         <v>434</v>
       </c>
       <c r="D402" t="s">
-        <v>3453</v>
+        <v>2465</v>
+      </c>
+      <c r="E402" t="s">
+        <v>2439</v>
       </c>
       <c r="F402" t="s">
-        <v>3454</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>3411</v>
+        <v>573</v>
       </c>
       <c r="B403" t="s">
-        <v>1320</v>
+        <v>574</v>
       </c>
       <c r="C403" t="s">
-        <v>2742</v>
+        <v>2530</v>
       </c>
       <c r="F403" t="s">
-        <v>3412</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>3220</v>
+        <v>3307</v>
       </c>
       <c r="B404" t="s">
-        <v>1320</v>
+        <v>574</v>
       </c>
       <c r="C404" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D404" t="s">
+        <v>2757</v>
       </c>
       <c r="F404" t="s">
-        <v>3221</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>2609</v>
+        <v>3307</v>
       </c>
       <c r="B405" t="s">
-        <v>1320</v>
+        <v>574</v>
       </c>
       <c r="C405" t="s">
-        <v>2530</v>
-      </c>
-      <c r="E405" t="s">
-        <v>3495</v>
+        <v>434</v>
+      </c>
+      <c r="D405" t="s">
+        <v>2568</v>
       </c>
       <c r="F405" t="s">
-        <v>3535</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>2312</v>
-      </c>
-      <c r="B406" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C406" t="s">
-        <v>434</v>
-      </c>
-      <c r="D406" t="s">
-        <v>2455</v>
-      </c>
-      <c r="E406" t="s">
-        <v>2439</v>
-      </c>
-      <c r="F406" t="s">
-        <v>2456</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1639</v>
+        <v>2589</v>
       </c>
       <c r="B407" t="s">
         <v>1320</v>
       </c>
       <c r="C407" t="s">
-        <v>434</v>
-      </c>
-      <c r="D407" t="s">
-        <v>3524</v>
-      </c>
-      <c r="E407" t="s">
-        <v>3495</v>
+        <v>2530</v>
       </c>
       <c r="F407" t="s">
-        <v>3525</v>
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C408" t="s">
+        <v>434</v>
+      </c>
+      <c r="D408" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E408" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F408" t="s">
+        <v>2591</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>2832</v>
+        <v>2947</v>
       </c>
       <c r="B409" t="s">
-        <v>2600</v>
+        <v>1320</v>
       </c>
       <c r="C409" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D409" t="s">
+        <v>3453</v>
       </c>
       <c r="F409" t="s">
-        <v>2833</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>3272</v>
+        <v>3411</v>
       </c>
       <c r="B410" t="s">
-        <v>2600</v>
+        <v>1320</v>
       </c>
       <c r="C410" t="s">
-        <v>434</v>
-      </c>
-      <c r="D410" t="s">
-        <v>3273</v>
+        <v>2742</v>
       </c>
       <c r="F410" t="s">
-        <v>3274</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>2599</v>
+        <v>3220</v>
       </c>
       <c r="B411" t="s">
-        <v>2600</v>
+        <v>1320</v>
       </c>
       <c r="C411" t="s">
-        <v>434</v>
-      </c>
-      <c r="D411" t="s">
-        <v>3304</v>
+        <v>2530</v>
       </c>
       <c r="F411" t="s">
-        <v>3305</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>2762</v>
+        <v>2609</v>
       </c>
       <c r="B412" t="s">
-        <v>2600</v>
+        <v>1320</v>
       </c>
       <c r="C412" t="s">
-        <v>434</v>
-      </c>
-      <c r="D412" t="s">
-        <v>2763</v>
+        <v>2530</v>
+      </c>
+      <c r="E412" t="s">
+        <v>3495</v>
       </c>
       <c r="F412" t="s">
-        <v>2764</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>3184</v>
+        <v>2312</v>
       </c>
       <c r="B413" t="s">
-        <v>2600</v>
+        <v>1320</v>
       </c>
       <c r="C413" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D413" t="s">
+        <v>2455</v>
+      </c>
+      <c r="E413" t="s">
+        <v>2439</v>
       </c>
       <c r="F413" t="s">
-        <v>3185</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>3402</v>
+        <v>1639</v>
       </c>
       <c r="B414" t="s">
-        <v>2600</v>
+        <v>1320</v>
       </c>
       <c r="C414" t="s">
         <v>434</v>
       </c>
       <c r="D414" t="s">
-        <v>3273</v>
+        <v>3524</v>
+      </c>
+      <c r="E414" t="s">
+        <v>3495</v>
       </c>
       <c r="F414" t="s">
-        <v>3403</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>3108</v>
+        <v>3589</v>
       </c>
       <c r="B415" t="s">
-        <v>2600</v>
+        <v>1320</v>
       </c>
       <c r="C415" t="s">
-        <v>434</v>
-      </c>
-      <c r="D415" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E415" t="s">
-        <v>3495</v>
+        <v>2530</v>
       </c>
       <c r="F415" t="s">
-        <v>3534</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>2795</v>
+        <v>2832</v>
       </c>
       <c r="B417" t="s">
-        <v>1363</v>
+        <v>2600</v>
       </c>
       <c r="C417" t="s">
-        <v>434</v>
-      </c>
-      <c r="D417" t="s">
-        <v>2796</v>
+        <v>2530</v>
       </c>
       <c r="F417" t="s">
-        <v>2797</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>2453</v>
+        <v>3272</v>
       </c>
       <c r="B418" t="s">
-        <v>1363</v>
+        <v>2600</v>
       </c>
       <c r="C418" t="s">
         <v>434</v>
       </c>
       <c r="D418" t="s">
-        <v>2454</v>
-      </c>
-      <c r="E418" t="s">
-        <v>2533</v>
+        <v>3273</v>
       </c>
       <c r="F418" t="s">
-        <v>2592</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>2453</v>
+        <v>2599</v>
       </c>
       <c r="B419" t="s">
-        <v>1363</v>
+        <v>2600</v>
       </c>
       <c r="C419" t="s">
         <v>434</v>
       </c>
       <c r="D419" t="s">
-        <v>2532</v>
-      </c>
-      <c r="E419" t="s">
-        <v>2533</v>
+        <v>3304</v>
       </c>
       <c r="F419" t="s">
-        <v>2534</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>3352</v>
+        <v>2762</v>
       </c>
       <c r="B420" t="s">
-        <v>1363</v>
+        <v>2600</v>
       </c>
       <c r="C420" t="s">
         <v>434</v>
       </c>
       <c r="D420" t="s">
-        <v>2454</v>
+        <v>2763</v>
       </c>
       <c r="F420" t="s">
-        <v>3475</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>3352</v>
+        <v>3593</v>
       </c>
       <c r="B421" t="s">
-        <v>1363</v>
+        <v>2600</v>
       </c>
       <c r="C421" t="s">
-        <v>434</v>
-      </c>
-      <c r="D421" t="s">
-        <v>3066</v>
+        <v>2482</v>
+      </c>
+      <c r="D421">
+        <v>2014</v>
       </c>
       <c r="F421" t="s">
-        <v>3353</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>2767</v>
+        <v>3593</v>
       </c>
       <c r="B422" t="s">
-        <v>1363</v>
+        <v>2600</v>
       </c>
       <c r="C422" t="s">
-        <v>434</v>
+        <v>2530</v>
       </c>
       <c r="D422" t="s">
-        <v>2768</v>
+        <v>3552</v>
       </c>
       <c r="F422" t="s">
-        <v>2769</v>
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B423" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C423" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F423" t="s">
+        <v>3185</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>3031</v>
+        <v>3402</v>
       </c>
       <c r="B424" t="s">
-        <v>1351</v>
+        <v>2600</v>
       </c>
       <c r="C424" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D424" t="s">
+        <v>3273</v>
       </c>
       <c r="F424" t="s">
-        <v>3032</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>3327</v>
+        <v>3108</v>
       </c>
       <c r="B425" t="s">
-        <v>1351</v>
+        <v>2600</v>
       </c>
       <c r="C425" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D425" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E425" t="s">
+        <v>3495</v>
       </c>
       <c r="F425" t="s">
-        <v>3328</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>2642</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C426" t="s">
-        <v>434</v>
-      </c>
-      <c r="D426" t="s">
-        <v>3484</v>
-      </c>
-      <c r="F426" t="s">
-        <v>3485</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>2642</v>
+        <v>2795</v>
       </c>
       <c r="B427" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="C427" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D427" t="s">
+        <v>2796</v>
       </c>
       <c r="F427" t="s">
-        <v>3290</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>3520</v>
+        <v>2453</v>
       </c>
       <c r="B428" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="C428" t="s">
         <v>434</v>
       </c>
       <c r="D428" t="s">
-        <v>3521</v>
+        <v>2454</v>
       </c>
       <c r="E428" t="s">
-        <v>3495</v>
+        <v>2533</v>
       </c>
       <c r="F428" t="s">
-        <v>3522</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>3056</v>
+        <v>2453</v>
       </c>
       <c r="B429" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="C429" t="s">
         <v>434</v>
       </c>
       <c r="D429" t="s">
-        <v>3011</v>
+        <v>2532</v>
+      </c>
+      <c r="E429" t="s">
+        <v>2533</v>
       </c>
       <c r="F429" t="s">
-        <v>3057</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>3516</v>
+        <v>3352</v>
       </c>
       <c r="B430" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="C430" t="s">
         <v>434</v>
       </c>
       <c r="D430" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E430" t="s">
-        <v>3495</v>
+        <v>2454</v>
       </c>
       <c r="F430" t="s">
-        <v>3517</v>
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C431" t="s">
+        <v>434</v>
+      </c>
+      <c r="D431" t="s">
+        <v>3066</v>
+      </c>
+      <c r="F431" t="s">
+        <v>3353</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>3536</v>
+        <v>2767</v>
       </c>
       <c r="B432" t="s">
-        <v>33</v>
+        <v>1363</v>
       </c>
       <c r="C432" t="s">
         <v>434</v>
       </c>
       <c r="D432" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E432" t="s">
-        <v>3495</v>
+        <v>2768</v>
       </c>
       <c r="F432" t="s">
-        <v>3537</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>3211</v>
-      </c>
-      <c r="B433" t="s">
-        <v>33</v>
-      </c>
-      <c r="C433" t="s">
-        <v>2742</v>
-      </c>
-      <c r="F433" t="s">
-        <v>3212</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>2834</v>
+        <v>3031</v>
       </c>
       <c r="B434" t="s">
-        <v>33</v>
+        <v>1351</v>
       </c>
       <c r="C434" t="s">
-        <v>2530</v>
+        <v>2742</v>
       </c>
       <c r="F434" t="s">
-        <v>2835</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>2830</v>
+        <v>3327</v>
       </c>
       <c r="B435" t="s">
-        <v>33</v>
+        <v>1351</v>
       </c>
       <c r="C435" t="s">
         <v>2530</v>
       </c>
       <c r="F435" t="s">
-        <v>2831</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>2595</v>
+        <v>2642</v>
       </c>
       <c r="B436" t="s">
-        <v>33</v>
+        <v>1351</v>
       </c>
       <c r="C436" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D436" t="s">
+        <v>3484</v>
       </c>
       <c r="F436" t="s">
-        <v>3422</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>2811</v>
+        <v>2642</v>
       </c>
       <c r="B437" t="s">
-        <v>33</v>
+        <v>1351</v>
       </c>
       <c r="C437" t="s">
-        <v>2530</v>
+        <v>2742</v>
       </c>
       <c r="F437" t="s">
-        <v>2812</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>2840</v>
+        <v>3520</v>
       </c>
       <c r="B438" t="s">
-        <v>33</v>
+        <v>1351</v>
       </c>
       <c r="C438" t="s">
         <v>434</v>
       </c>
       <c r="D438" t="s">
-        <v>2841</v>
+        <v>3521</v>
+      </c>
+      <c r="E438" t="s">
+        <v>3495</v>
       </c>
       <c r="F438" t="s">
-        <v>2842</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>3370</v>
+        <v>3056</v>
       </c>
       <c r="B439" t="s">
-        <v>33</v>
+        <v>1351</v>
       </c>
       <c r="C439" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D439" t="s">
-        <v>3371</v>
+        <v>3011</v>
       </c>
       <c r="F439" t="s">
-        <v>3372</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
-        <v>3232</v>
-      </c>
-      <c r="B441" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C441" t="s">
-        <v>434</v>
-      </c>
-      <c r="D441" t="s">
-        <v>3233</v>
-      </c>
-      <c r="F441" t="s">
-        <v>3234</v>
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C440" t="s">
+        <v>434</v>
+      </c>
+      <c r="D440" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E440" t="s">
+        <v>3495</v>
+      </c>
+      <c r="F440" t="s">
+        <v>3517</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>3472</v>
+        <v>3536</v>
       </c>
       <c r="B442" t="s">
-        <v>1338</v>
+        <v>33</v>
       </c>
       <c r="C442" t="s">
         <v>434</v>
       </c>
       <c r="D442" t="s">
-        <v>2568</v>
+        <v>2438</v>
+      </c>
+      <c r="E442" t="s">
+        <v>3495</v>
       </c>
       <c r="F442" t="s">
-        <v>3473</v>
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B443" t="s">
+        <v>33</v>
+      </c>
+      <c r="C443" t="s">
+        <v>2742</v>
+      </c>
+      <c r="F443" t="s">
+        <v>3212</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>2744</v>
+        <v>2834</v>
       </c>
       <c r="B444" t="s">
-        <v>1323</v>
+        <v>33</v>
       </c>
       <c r="C444" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D444" t="s">
-        <v>2745</v>
+        <v>2530</v>
       </c>
       <c r="F444" t="s">
-        <v>2746</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>2782</v>
+        <v>2830</v>
       </c>
       <c r="B445" t="s">
-        <v>1323</v>
+        <v>33</v>
       </c>
       <c r="C445" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D445" t="s">
-        <v>2745</v>
+        <v>2530</v>
       </c>
       <c r="F445" t="s">
-        <v>2783</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>3432</v>
+        <v>2595</v>
       </c>
       <c r="B446" t="s">
-        <v>1323</v>
+        <v>33</v>
       </c>
       <c r="C446" t="s">
-        <v>2530</v>
+        <v>2742</v>
       </c>
       <c r="F446" t="s">
-        <v>2829</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>2605</v>
+        <v>2811</v>
       </c>
       <c r="B447" t="s">
-        <v>1323</v>
+        <v>33</v>
       </c>
       <c r="C447" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D447" t="s">
-        <v>3200</v>
+        <v>2530</v>
       </c>
       <c r="F447" t="s">
-        <v>2774</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>3466</v>
+        <v>2840</v>
       </c>
       <c r="B448" t="s">
-        <v>1323</v>
+        <v>33</v>
       </c>
       <c r="C448" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D448" t="s">
+        <v>2841</v>
       </c>
       <c r="F448" t="s">
-        <v>3467</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>2605</v>
+        <v>2840</v>
       </c>
       <c r="B449" t="s">
-        <v>1323</v>
+        <v>33</v>
       </c>
       <c r="C449" t="s">
-        <v>434</v>
+        <v>2530</v>
       </c>
       <c r="D449" t="s">
-        <v>2992</v>
+        <v>3552</v>
       </c>
       <c r="F449" t="s">
-        <v>3320</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>3062</v>
+        <v>3370</v>
       </c>
       <c r="B450" t="s">
-        <v>1323</v>
+        <v>33</v>
       </c>
       <c r="C450" t="s">
-        <v>434</v>
+        <v>2482</v>
       </c>
       <c r="D450" t="s">
-        <v>3189</v>
+        <v>3371</v>
       </c>
       <c r="F450" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
-        <v>3062</v>
-      </c>
-      <c r="B451" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C451" t="s">
-        <v>434</v>
-      </c>
-      <c r="D451" t="s">
-        <v>3038</v>
-      </c>
-      <c r="F451" t="s">
-        <v>3397</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>3062</v>
+        <v>3232</v>
       </c>
       <c r="B452" t="s">
-        <v>1323</v>
+        <v>1338</v>
       </c>
       <c r="C452" t="s">
         <v>434</v>
       </c>
       <c r="D452" t="s">
-        <v>2763</v>
+        <v>3233</v>
       </c>
       <c r="F452" t="s">
-        <v>3063</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>3062</v>
+        <v>3472</v>
       </c>
       <c r="B453" t="s">
-        <v>1323</v>
+        <v>1338</v>
       </c>
       <c r="C453" t="s">
         <v>434</v>
       </c>
       <c r="D453" t="s">
-        <v>3560</v>
+        <v>2568</v>
       </c>
       <c r="F453" t="s">
-        <v>3561</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B454" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C454" t="s">
-        <v>434</v>
-      </c>
-      <c r="D454" t="s">
-        <v>423</v>
-      </c>
-      <c r="E454" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F454" t="s">
-        <v>1455</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>2976</v>
+        <v>2744</v>
       </c>
       <c r="B455" t="s">
         <v>1323</v>
       </c>
       <c r="C455" t="s">
-        <v>434</v>
+        <v>2482</v>
       </c>
       <c r="D455" t="s">
-        <v>2568</v>
+        <v>2745</v>
       </c>
       <c r="F455" t="s">
-        <v>3366</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>2976</v>
+        <v>2782</v>
       </c>
       <c r="B456" t="s">
         <v>1323</v>
       </c>
       <c r="C456" t="s">
-        <v>2750</v>
+        <v>2482</v>
+      </c>
+      <c r="D456" t="s">
+        <v>2745</v>
       </c>
       <c r="F456" t="s">
-        <v>3040</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>2543</v>
+        <v>3432</v>
       </c>
       <c r="B457" t="s">
         <v>1323</v>
       </c>
       <c r="C457" t="s">
-        <v>434</v>
-      </c>
-      <c r="D457" t="s">
-        <v>2544</v>
-      </c>
-      <c r="E457" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="F457" t="s">
-        <v>2545</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>2638</v>
+        <v>2605</v>
       </c>
       <c r="B458" t="s">
         <v>1323</v>
       </c>
       <c r="C458" t="s">
-        <v>2530</v>
+        <v>2482</v>
+      </c>
+      <c r="D458" t="s">
+        <v>3200</v>
       </c>
       <c r="F458" t="s">
-        <v>2803</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>2437</v>
+        <v>3466</v>
       </c>
       <c r="B459" t="s">
         <v>1323</v>
       </c>
       <c r="C459" t="s">
-        <v>434</v>
-      </c>
-      <c r="D459" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E459" t="s">
-        <v>2439</v>
+        <v>2530</v>
       </c>
       <c r="F459" t="s">
-        <v>2440</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>3564</v>
+        <v>2605</v>
       </c>
       <c r="B460" t="s">
         <v>1323</v>
       </c>
       <c r="C460" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D460" t="s">
+        <v>2992</v>
       </c>
       <c r="F460" t="s">
-        <v>3565</v>
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C461" t="s">
+        <v>434</v>
+      </c>
+      <c r="D461" t="s">
+        <v>3189</v>
+      </c>
+      <c r="F461" t="s">
+        <v>3335</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>2448</v>
+        <v>3062</v>
       </c>
       <c r="B462" t="s">
-        <v>2449</v>
+        <v>1323</v>
       </c>
       <c r="C462" t="s">
         <v>434</v>
       </c>
       <c r="D462" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E462" t="s">
-        <v>2439</v>
+        <v>3038</v>
       </c>
       <c r="F462" t="s">
-        <v>2450</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>3393</v>
+        <v>3062</v>
       </c>
       <c r="B463" t="s">
-        <v>2449</v>
+        <v>1323</v>
       </c>
       <c r="C463" t="s">
-        <v>2530</v>
+        <v>434</v>
       </c>
       <c r="D463" t="s">
-        <v>3299</v>
+        <v>2763</v>
       </c>
       <c r="F463" t="s">
-        <v>3394</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>2556</v>
+        <v>3062</v>
       </c>
       <c r="B464" t="s">
-        <v>2449</v>
+        <v>1323</v>
       </c>
       <c r="C464" t="s">
         <v>434</v>
       </c>
       <c r="D464" t="s">
-        <v>2544</v>
-      </c>
-      <c r="E464" t="s">
-        <v>2533</v>
+        <v>3560</v>
       </c>
       <c r="F464" t="s">
-        <v>2557</v>
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C465" t="s">
+        <v>434</v>
+      </c>
+      <c r="D465" t="s">
+        <v>423</v>
+      </c>
+      <c r="E465" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F465" t="s">
+        <v>1455</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>3530</v>
+        <v>2976</v>
       </c>
       <c r="B466" t="s">
-        <v>341</v>
+        <v>1323</v>
       </c>
       <c r="C466" t="s">
-        <v>2530</v>
-      </c>
-      <c r="E466" t="s">
-        <v>3495</v>
+        <v>434</v>
+      </c>
+      <c r="D466" t="s">
+        <v>2568</v>
       </c>
       <c r="F466" t="s">
-        <v>3531</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>2524</v>
+        <v>2976</v>
       </c>
       <c r="B467" t="s">
-        <v>341</v>
+        <v>1323</v>
       </c>
       <c r="C467" t="s">
-        <v>2530</v>
+        <v>2750</v>
       </c>
       <c r="F467" t="s">
-        <v>3373</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1337</v>
+        <v>2543</v>
       </c>
       <c r="B468" t="s">
-        <v>341</v>
+        <v>1323</v>
       </c>
       <c r="C468" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D468" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E468" t="s">
+        <v>2533</v>
       </c>
       <c r="F468" t="s">
-        <v>3474</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>2584</v>
+        <v>2638</v>
       </c>
       <c r="B469" t="s">
-        <v>341</v>
+        <v>1323</v>
       </c>
       <c r="C469" t="s">
-        <v>434</v>
-      </c>
-      <c r="D469" t="s">
-        <v>2800</v>
+        <v>2530</v>
       </c>
       <c r="F469" t="s">
-        <v>2801</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>2584</v>
+        <v>2437</v>
       </c>
       <c r="B470" t="s">
-        <v>341</v>
+        <v>1323</v>
       </c>
       <c r="C470" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D470" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E470" t="s">
+        <v>2439</v>
       </c>
       <c r="F470" t="s">
-        <v>3024</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>2584</v>
+        <v>3564</v>
       </c>
       <c r="B471" t="s">
-        <v>341</v>
+        <v>1323</v>
       </c>
       <c r="C471" t="s">
         <v>2530</v>
       </c>
       <c r="F471" t="s">
-        <v>3172</v>
-      </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
-        <v>2584</v>
-      </c>
-      <c r="B472" t="s">
-        <v>341</v>
-      </c>
-      <c r="C472" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F472" t="s">
-        <v>3291</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>2584</v>
+        <v>2448</v>
       </c>
       <c r="B473" t="s">
-        <v>341</v>
+        <v>2449</v>
       </c>
       <c r="C473" t="s">
         <v>434</v>
       </c>
       <c r="D473" t="s">
-        <v>2800</v>
+        <v>2438</v>
+      </c>
+      <c r="E473" t="s">
+        <v>2439</v>
       </c>
       <c r="F473" t="s">
-        <v>2801</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>3374</v>
+        <v>3393</v>
       </c>
       <c r="B474" t="s">
-        <v>341</v>
+        <v>2449</v>
       </c>
       <c r="C474" t="s">
-        <v>434</v>
+        <v>2530</v>
       </c>
       <c r="D474" t="s">
-        <v>3375</v>
+        <v>3299</v>
       </c>
       <c r="F474" t="s">
-        <v>3376</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>3096</v>
+        <v>2556</v>
       </c>
       <c r="B475" t="s">
-        <v>341</v>
+        <v>2449</v>
       </c>
       <c r="C475" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D475" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E475" t="s">
+        <v>2533</v>
       </c>
       <c r="F475" t="s">
-        <v>3097</v>
-      </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
-        <v>3245</v>
-      </c>
-      <c r="B476" t="s">
-        <v>341</v>
-      </c>
-      <c r="C476" t="s">
-        <v>434</v>
-      </c>
-      <c r="D476" t="s">
-        <v>2590</v>
-      </c>
-      <c r="F476" t="s">
-        <v>3246</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>3469</v>
+        <v>3530</v>
       </c>
       <c r="B477" t="s">
         <v>341</v>
@@ -19172,47 +19217,44 @@
       <c r="C477" t="s">
         <v>2530</v>
       </c>
+      <c r="E477" t="s">
+        <v>3495</v>
+      </c>
       <c r="F477" t="s">
-        <v>3470</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>3395</v>
+        <v>2524</v>
       </c>
       <c r="B478" t="s">
         <v>341</v>
       </c>
       <c r="C478" t="s">
-        <v>434</v>
-      </c>
-      <c r="D478" t="s">
-        <v>3233</v>
+        <v>2530</v>
       </c>
       <c r="F478" t="s">
-        <v>3396</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>2759</v>
+        <v>1337</v>
       </c>
       <c r="B479" t="s">
         <v>341</v>
       </c>
       <c r="C479" t="s">
-        <v>434</v>
-      </c>
-      <c r="D479" t="s">
-        <v>2747</v>
+        <v>2530</v>
       </c>
       <c r="F479" t="s">
-        <v>2760</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>2459</v>
+        <v>2584</v>
       </c>
       <c r="B480" t="s">
         <v>341</v>
@@ -19221,32 +19263,29 @@
         <v>434</v>
       </c>
       <c r="D480" t="s">
-        <v>2568</v>
-      </c>
-      <c r="E480" t="s">
-        <v>2533</v>
+        <v>2800</v>
       </c>
       <c r="F480" t="s">
-        <v>2569</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>2459</v>
+        <v>2584</v>
       </c>
       <c r="B481" t="s">
         <v>341</v>
       </c>
       <c r="C481" t="s">
-        <v>2742</v>
+        <v>2530</v>
       </c>
       <c r="F481" t="s">
-        <v>2809</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>2459</v>
+        <v>2584</v>
       </c>
       <c r="B482" t="s">
         <v>341</v>
@@ -19254,95 +19293,92 @@
       <c r="C482" t="s">
         <v>2530</v>
       </c>
-      <c r="E482" t="s">
-        <v>3495</v>
-      </c>
       <c r="F482" t="s">
-        <v>3533</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>2459</v>
+        <v>2584</v>
       </c>
       <c r="B483" t="s">
         <v>341</v>
       </c>
       <c r="C483" t="s">
-        <v>434</v>
-      </c>
-      <c r="D483" t="s">
-        <v>3066</v>
+        <v>2530</v>
       </c>
       <c r="F483" t="s">
-        <v>3262</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>3014</v>
+        <v>2584</v>
       </c>
       <c r="B484" t="s">
         <v>341</v>
       </c>
       <c r="C484" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D484" t="s">
+        <v>2800</v>
       </c>
       <c r="F484" t="s">
-        <v>3015</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>3014</v>
+        <v>3374</v>
       </c>
       <c r="B485" t="s">
         <v>341</v>
       </c>
       <c r="C485" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D485" t="s">
+        <v>3375</v>
       </c>
       <c r="F485" t="s">
-        <v>3493</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>340</v>
+        <v>3096</v>
       </c>
       <c r="B486" t="s">
         <v>341</v>
       </c>
       <c r="C486" t="s">
-        <v>434</v>
-      </c>
-      <c r="D486" t="s">
-        <v>2590</v>
-      </c>
-      <c r="E486" t="s">
-        <v>10</v>
+        <v>2530</v>
       </c>
       <c r="F486" t="s">
-        <v>342</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>3082</v>
+        <v>3245</v>
       </c>
       <c r="B487" t="s">
         <v>341</v>
       </c>
       <c r="C487" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D487" t="s">
+        <v>2590</v>
       </c>
       <c r="F487" t="s">
-        <v>3468</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>3082</v>
+        <v>3245</v>
       </c>
       <c r="B488" t="s">
         <v>341</v>
@@ -19350,16 +19386,13 @@
       <c r="C488" t="s">
         <v>2530</v>
       </c>
-      <c r="E488" t="s">
-        <v>3495</v>
-      </c>
       <c r="F488" t="s">
-        <v>3515</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>3082</v>
+        <v>3469</v>
       </c>
       <c r="B489" t="s">
         <v>341</v>
@@ -19367,16 +19400,13 @@
       <c r="C489" t="s">
         <v>2530</v>
       </c>
-      <c r="E489" t="s">
-        <v>3495</v>
-      </c>
       <c r="F489" t="s">
-        <v>3529</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>3082</v>
+        <v>3395</v>
       </c>
       <c r="B490" t="s">
         <v>341</v>
@@ -19385,15 +19415,15 @@
         <v>434</v>
       </c>
       <c r="D490" t="s">
-        <v>2757</v>
+        <v>3233</v>
       </c>
       <c r="F490" t="s">
-        <v>3389</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>3082</v>
+        <v>2759</v>
       </c>
       <c r="B491" t="s">
         <v>341</v>
@@ -19402,66 +19432,66 @@
         <v>434</v>
       </c>
       <c r="D491" t="s">
-        <v>3083</v>
+        <v>2747</v>
       </c>
       <c r="F491" t="s">
-        <v>3084</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>437</v>
+        <v>2459</v>
       </c>
       <c r="B492" t="s">
         <v>341</v>
       </c>
       <c r="C492" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D492" t="s">
+        <v>2568</v>
       </c>
       <c r="E492" t="s">
-        <v>3495</v>
+        <v>2533</v>
       </c>
       <c r="F492" t="s">
-        <v>3506</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>437</v>
+        <v>2459</v>
       </c>
       <c r="B493" t="s">
         <v>341</v>
       </c>
       <c r="C493" t="s">
-        <v>434</v>
-      </c>
-      <c r="D493" t="s">
-        <v>2992</v>
+        <v>2742</v>
       </c>
       <c r="F493" t="s">
-        <v>2993</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>437</v>
+        <v>2459</v>
       </c>
       <c r="B494" t="s">
         <v>341</v>
       </c>
       <c r="C494" t="s">
-        <v>434</v>
-      </c>
-      <c r="D494" t="s">
-        <v>2747</v>
+        <v>2530</v>
+      </c>
+      <c r="E494" t="s">
+        <v>3495</v>
       </c>
       <c r="F494" t="s">
-        <v>3303</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>437</v>
+        <v>2459</v>
       </c>
       <c r="B495" t="s">
         <v>341</v>
@@ -19470,15 +19500,15 @@
         <v>434</v>
       </c>
       <c r="D495" t="s">
-        <v>2763</v>
+        <v>3066</v>
       </c>
       <c r="F495" t="s">
-        <v>3050</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>3196</v>
+        <v>3014</v>
       </c>
       <c r="B496" t="s">
         <v>341</v>
@@ -19487,12 +19517,12 @@
         <v>2530</v>
       </c>
       <c r="F496" t="s">
-        <v>3197</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1446</v>
+        <v>3014</v>
       </c>
       <c r="B497" t="s">
         <v>341</v>
@@ -19501,26 +19531,32 @@
         <v>2530</v>
       </c>
       <c r="F497" t="s">
-        <v>3319</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>3178</v>
+        <v>340</v>
       </c>
       <c r="B498" t="s">
         <v>341</v>
       </c>
       <c r="C498" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D498" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E498" t="s">
+        <v>10</v>
       </c>
       <c r="F498" t="s">
-        <v>3179</v>
+        <v>342</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>3178</v>
+        <v>340</v>
       </c>
       <c r="B499" t="s">
         <v>341</v>
@@ -19529,757 +19565,718 @@
         <v>2530</v>
       </c>
       <c r="F499" t="s">
-        <v>3258</v>
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B500" t="s">
+        <v>341</v>
+      </c>
+      <c r="C500" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F500" t="s">
+        <v>3468</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>3562</v>
+        <v>3082</v>
       </c>
       <c r="B501" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C501" t="s">
-        <v>434</v>
-      </c>
-      <c r="D501" t="s">
-        <v>3557</v>
+        <v>2530</v>
+      </c>
+      <c r="E501" t="s">
+        <v>3495</v>
       </c>
       <c r="F501" t="s">
-        <v>3563</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>2777</v>
+        <v>3082</v>
       </c>
       <c r="B502" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C502" t="s">
-        <v>434</v>
-      </c>
-      <c r="D502" t="s">
-        <v>2778</v>
+        <v>2530</v>
+      </c>
+      <c r="E502" t="s">
+        <v>3495</v>
       </c>
       <c r="F502" t="s">
-        <v>2779</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>3479</v>
+        <v>3082</v>
       </c>
       <c r="B503" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C503" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D503" t="s">
+        <v>2757</v>
       </c>
       <c r="F503" t="s">
-        <v>3480</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>2749</v>
+        <v>3082</v>
       </c>
       <c r="B504" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C504" t="s">
         <v>434</v>
       </c>
       <c r="D504" t="s">
-        <v>2750</v>
+        <v>3083</v>
       </c>
       <c r="F504" t="s">
-        <v>2751</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1785</v>
+        <v>437</v>
       </c>
       <c r="B505" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C505" t="s">
-        <v>434</v>
-      </c>
-      <c r="D505" t="s">
-        <v>2765</v>
+        <v>2530</v>
+      </c>
+      <c r="E505" t="s">
+        <v>3495</v>
       </c>
       <c r="F505" t="s">
-        <v>2810</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>3010</v>
+        <v>437</v>
       </c>
       <c r="B506" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C506" t="s">
         <v>434</v>
       </c>
       <c r="D506" t="s">
-        <v>3011</v>
+        <v>2992</v>
       </c>
       <c r="F506" t="s">
-        <v>3012</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>3390</v>
+        <v>437</v>
       </c>
       <c r="B507" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C507" t="s">
-        <v>3391</v>
+        <v>434</v>
+      </c>
+      <c r="D507" t="s">
+        <v>2747</v>
       </c>
       <c r="F507" t="s">
-        <v>3392</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1</v>
+        <v>437</v>
       </c>
       <c r="B508" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C508" t="s">
         <v>434</v>
       </c>
       <c r="D508" t="s">
-        <v>2837</v>
+        <v>2763</v>
       </c>
       <c r="F508" t="s">
-        <v>2838</v>
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B509" t="s">
+        <v>341</v>
+      </c>
+      <c r="C509" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F509" t="s">
+        <v>3197</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>3317</v>
+        <v>1446</v>
       </c>
       <c r="B510" t="s">
-        <v>1523</v>
+        <v>341</v>
       </c>
       <c r="C510" t="s">
-        <v>434</v>
-      </c>
-      <c r="D510" t="s">
-        <v>2747</v>
+        <v>2530</v>
       </c>
       <c r="F510" t="s">
-        <v>3417</v>
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B511" t="s">
+        <v>341</v>
+      </c>
+      <c r="C511" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F511" t="s">
+        <v>3179</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>2819</v>
+        <v>3178</v>
       </c>
       <c r="B512" t="s">
-        <v>1396</v>
+        <v>341</v>
       </c>
       <c r="C512" t="s">
-        <v>434</v>
-      </c>
-      <c r="D512" t="s">
-        <v>2747</v>
+        <v>2530</v>
       </c>
       <c r="F512" t="s">
-        <v>2820</v>
-      </c>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
-        <v>2804</v>
-      </c>
-      <c r="B513" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C513" t="s">
-        <v>434</v>
-      </c>
-      <c r="D513" t="s">
-        <v>2805</v>
-      </c>
-      <c r="F513" t="s">
-        <v>2806</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>3298</v>
+        <v>3562</v>
       </c>
       <c r="B514" t="s">
-        <v>1396</v>
+        <v>276</v>
       </c>
       <c r="C514" t="s">
-        <v>3299</v>
+        <v>434</v>
+      </c>
+      <c r="D514" t="s">
+        <v>3557</v>
       </c>
       <c r="F514" t="s">
-        <v>3300</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1448</v>
+        <v>2777</v>
       </c>
       <c r="B515" t="s">
-        <v>1396</v>
+        <v>276</v>
       </c>
       <c r="C515" t="s">
         <v>434</v>
       </c>
       <c r="D515" t="s">
-        <v>2763</v>
+        <v>2778</v>
       </c>
       <c r="F515" t="s">
-        <v>3203</v>
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B516" t="s">
+        <v>276</v>
+      </c>
+      <c r="C516" t="s">
+        <v>2742</v>
+      </c>
+      <c r="F516" t="s">
+        <v>3480</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>2296</v>
+        <v>2749</v>
       </c>
       <c r="B517" t="s">
-        <v>1423</v>
+        <v>276</v>
       </c>
       <c r="C517" t="s">
-        <v>2530</v>
+        <v>434</v>
       </c>
       <c r="D517" t="s">
-        <v>3552</v>
+        <v>2750</v>
       </c>
       <c r="F517" t="s">
-        <v>3559</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>3065</v>
+        <v>1785</v>
       </c>
       <c r="B518" t="s">
-        <v>1423</v>
+        <v>276</v>
       </c>
       <c r="C518" t="s">
         <v>434</v>
       </c>
       <c r="D518" t="s">
-        <v>3066</v>
+        <v>2765</v>
       </c>
       <c r="F518" t="s">
-        <v>3067</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>2537</v>
+        <v>3010</v>
       </c>
       <c r="B519" t="s">
-        <v>1423</v>
+        <v>276</v>
       </c>
       <c r="C519" t="s">
         <v>434</v>
       </c>
       <c r="D519" t="s">
-        <v>3233</v>
+        <v>3011</v>
       </c>
       <c r="F519" t="s">
-        <v>3428</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>2537</v>
+        <v>3390</v>
       </c>
       <c r="B520" t="s">
-        <v>1423</v>
+        <v>276</v>
       </c>
       <c r="C520" t="s">
-        <v>2742</v>
+        <v>3391</v>
       </c>
       <c r="F520" t="s">
-        <v>3090</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1729</v>
+        <v>1</v>
       </c>
       <c r="B521" t="s">
-        <v>1423</v>
+        <v>276</v>
       </c>
       <c r="C521" t="s">
         <v>434</v>
       </c>
       <c r="D521" t="s">
-        <v>3198</v>
+        <v>2837</v>
       </c>
       <c r="F521" t="s">
-        <v>3199</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>3133</v>
+        <v>3317</v>
       </c>
       <c r="B523" t="s">
-        <v>1389</v>
+        <v>1523</v>
       </c>
       <c r="C523" t="s">
         <v>434</v>
       </c>
       <c r="D523" t="s">
-        <v>2763</v>
+        <v>2747</v>
       </c>
       <c r="F523" t="s">
-        <v>3134</v>
-      </c>
-    </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
-        <v>2479</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C524" t="s">
-        <v>434</v>
-      </c>
-      <c r="D524" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F524" t="s">
-        <v>3231</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>2479</v>
+        <v>2819</v>
       </c>
       <c r="B525" t="s">
-        <v>1389</v>
+        <v>1396</v>
       </c>
       <c r="C525" t="s">
         <v>434</v>
       </c>
       <c r="D525" t="s">
-        <v>3011</v>
+        <v>2747</v>
       </c>
       <c r="F525" t="s">
-        <v>3240</v>
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C526" t="s">
+        <v>434</v>
+      </c>
+      <c r="D526" t="s">
+        <v>2805</v>
+      </c>
+      <c r="F526" t="s">
+        <v>2806</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>2636</v>
+        <v>3298</v>
       </c>
       <c r="B527" t="s">
-        <v>1346</v>
+        <v>1396</v>
       </c>
       <c r="C527" t="s">
-        <v>434</v>
-      </c>
-      <c r="D527" t="s">
-        <v>2757</v>
+        <v>3299</v>
       </c>
       <c r="F527" t="s">
-        <v>3075</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>2636</v>
+        <v>1448</v>
       </c>
       <c r="B528" t="s">
-        <v>1346</v>
+        <v>1396</v>
       </c>
       <c r="C528" t="s">
         <v>434</v>
       </c>
       <c r="D528" t="s">
-        <v>1121</v>
+        <v>2763</v>
       </c>
       <c r="F528" t="s">
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
-        <v>2636</v>
-      </c>
-      <c r="B529" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C529" t="s">
-        <v>2742</v>
-      </c>
-      <c r="F529" t="s">
-        <v>3429</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>3128</v>
+        <v>2296</v>
       </c>
       <c r="B530" t="s">
-        <v>1346</v>
+        <v>1423</v>
       </c>
       <c r="C530" t="s">
-        <v>2742</v>
+        <v>2530</v>
+      </c>
+      <c r="D530" t="s">
+        <v>3552</v>
       </c>
       <c r="F530" t="s">
-        <v>3129</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>2433</v>
+        <v>3065</v>
       </c>
       <c r="B531" t="s">
-        <v>1346</v>
+        <v>1423</v>
       </c>
       <c r="C531" t="s">
         <v>434</v>
       </c>
       <c r="D531" t="s">
-        <v>2992</v>
+        <v>3066</v>
       </c>
       <c r="F531" t="s">
-        <v>3093</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>2312</v>
+        <v>2537</v>
       </c>
       <c r="B532" t="s">
-        <v>1346</v>
+        <v>1423</v>
       </c>
       <c r="C532" t="s">
         <v>434</v>
       </c>
       <c r="D532" t="s">
-        <v>2590</v>
+        <v>3233</v>
       </c>
       <c r="F532" t="s">
-        <v>3241</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>2312</v>
+        <v>2537</v>
       </c>
       <c r="B533" t="s">
-        <v>1346</v>
+        <v>1423</v>
       </c>
       <c r="C533" t="s">
-        <v>434</v>
-      </c>
-      <c r="D533" t="s">
-        <v>2763</v>
+        <v>2742</v>
       </c>
       <c r="F533" t="s">
-        <v>2802</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>2312</v>
+        <v>1729</v>
       </c>
       <c r="B534" t="s">
-        <v>1346</v>
+        <v>1423</v>
       </c>
       <c r="C534" t="s">
         <v>434</v>
       </c>
       <c r="D534" t="s">
-        <v>2648</v>
-      </c>
-      <c r="E534" t="s">
-        <v>2439</v>
+        <v>3198</v>
       </c>
       <c r="F534" t="s">
-        <v>2441</v>
-      </c>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
-        <v>3019</v>
-      </c>
-      <c r="B535" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C535" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F535" t="s">
-        <v>3020</v>
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C536" t="s">
+        <v>434</v>
+      </c>
+      <c r="D536" t="s">
+        <v>2763</v>
+      </c>
+      <c r="F536" t="s">
+        <v>3134</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>2931</v>
+        <v>2479</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C537" t="s">
+        <v>434</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F537" t="s">
+        <v>3231</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>2636</v>
+        <v>2479</v>
       </c>
       <c r="B538" t="s">
-        <v>1346</v>
+        <v>1389</v>
       </c>
       <c r="C538" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D538" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E538" t="s">
-        <v>2932</v>
+        <v>3011</v>
       </c>
       <c r="F538" t="s">
-        <v>2864</v>
-      </c>
-    </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
-        <v>3281</v>
-      </c>
-      <c r="B539" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C539" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D539" t="s">
-        <v>2745</v>
-      </c>
-      <c r="F539" t="s">
-        <v>3282</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>2954</v>
+        <v>2636</v>
       </c>
       <c r="B540" t="s">
-        <v>2955</v>
+        <v>1346</v>
       </c>
       <c r="C540" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D540" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E540" t="s">
-        <v>2932</v>
+        <v>2757</v>
       </c>
       <c r="F540" t="s">
-        <v>2882</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>3161</v>
+        <v>2636</v>
       </c>
       <c r="B541" t="s">
-        <v>3162</v>
+        <v>1346</v>
       </c>
       <c r="C541" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D541" t="s">
-        <v>2745</v>
+        <v>1121</v>
       </c>
       <c r="F541" t="s">
-        <v>3163</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>2961</v>
+        <v>2636</v>
       </c>
       <c r="B542" t="s">
-        <v>1335</v>
+        <v>1346</v>
       </c>
       <c r="C542" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D542" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E542" t="s">
-        <v>2932</v>
+        <v>2742</v>
       </c>
       <c r="F542" t="s">
-        <v>2890</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>2972</v>
+        <v>3128</v>
       </c>
       <c r="B543" t="s">
-        <v>1335</v>
+        <v>1346</v>
       </c>
       <c r="C543" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D543" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E543" t="s">
-        <v>2932</v>
+        <v>2742</v>
       </c>
       <c r="F543" t="s">
-        <v>2912</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>3242</v>
+        <v>2433</v>
       </c>
       <c r="B544" t="s">
-        <v>1335</v>
+        <v>1346</v>
       </c>
       <c r="C544" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D544" t="s">
-        <v>2745</v>
+        <v>2992</v>
       </c>
       <c r="F544" t="s">
-        <v>3243</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>2963</v>
+        <v>2312</v>
       </c>
       <c r="B545" t="s">
-        <v>1389</v>
+        <v>1346</v>
       </c>
       <c r="C545" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D545" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E545" t="s">
-        <v>2932</v>
+        <v>2590</v>
       </c>
       <c r="F545" t="s">
-        <v>2892</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>2479</v>
+        <v>2312</v>
       </c>
       <c r="B546" t="s">
-        <v>1389</v>
+        <v>1346</v>
       </c>
       <c r="C546" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D546" t="s">
-        <v>2745</v>
+        <v>2763</v>
       </c>
       <c r="F546" t="s">
-        <v>3007</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>2962</v>
+        <v>2312</v>
       </c>
       <c r="B547" t="s">
-        <v>1389</v>
+        <v>1346</v>
       </c>
       <c r="C547" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D547" t="s">
-        <v>2745</v>
+        <v>2648</v>
       </c>
       <c r="E547" t="s">
-        <v>2932</v>
+        <v>2439</v>
       </c>
       <c r="F547" t="s">
-        <v>2891</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>2946</v>
+        <v>3019</v>
       </c>
       <c r="B548" t="s">
-        <v>1389</v>
+        <v>1346</v>
       </c>
       <c r="C548" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D548" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E548" t="s">
-        <v>2932</v>
+        <v>2530</v>
       </c>
       <c r="F548" t="s">
-        <v>2865</v>
-      </c>
-    </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
-        <v>2625</v>
-      </c>
-      <c r="B549" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C549" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D549" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E549" t="s">
-        <v>2932</v>
-      </c>
-      <c r="F549" t="s">
-        <v>2879</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>3451</v>
-      </c>
-      <c r="B550" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C550" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D550" t="s">
-        <v>2745</v>
-      </c>
-      <c r="F550" t="s">
-        <v>3452</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>2546</v>
+        <v>2636</v>
       </c>
       <c r="B551" t="s">
-        <v>1523</v>
+        <v>1346</v>
       </c>
       <c r="C551" t="s">
         <v>2482</v>
@@ -20291,15 +20288,15 @@
         <v>2932</v>
       </c>
       <c r="F551" t="s">
-        <v>2909</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>2623</v>
+        <v>3281</v>
       </c>
       <c r="B552" t="s">
-        <v>276</v>
+        <v>1346</v>
       </c>
       <c r="C552" t="s">
         <v>2482</v>
@@ -20308,15 +20305,15 @@
         <v>2745</v>
       </c>
       <c r="F552" t="s">
-        <v>3369</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>2477</v>
+        <v>2954</v>
       </c>
       <c r="B553" t="s">
-        <v>276</v>
+        <v>2955</v>
       </c>
       <c r="C553" t="s">
         <v>2482</v>
@@ -20324,16 +20321,19 @@
       <c r="D553" t="s">
         <v>2745</v>
       </c>
+      <c r="E553" t="s">
+        <v>2932</v>
+      </c>
       <c r="F553" t="s">
-        <v>3546</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>2944</v>
+        <v>3161</v>
       </c>
       <c r="B554" t="s">
-        <v>276</v>
+        <v>3162</v>
       </c>
       <c r="C554" t="s">
         <v>2482</v>
@@ -20341,19 +20341,16 @@
       <c r="D554" t="s">
         <v>2745</v>
       </c>
-      <c r="E554" t="s">
-        <v>2932</v>
-      </c>
       <c r="F554" t="s">
-        <v>2862</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>2952</v>
+        <v>2961</v>
       </c>
       <c r="B555" t="s">
-        <v>276</v>
+        <v>1335</v>
       </c>
       <c r="C555" t="s">
         <v>2482</v>
@@ -20365,15 +20362,15 @@
         <v>2932</v>
       </c>
       <c r="F555" t="s">
-        <v>2878</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>2956</v>
+        <v>2972</v>
       </c>
       <c r="B556" t="s">
-        <v>276</v>
+        <v>1335</v>
       </c>
       <c r="C556" t="s">
         <v>2482</v>
@@ -20385,15 +20382,15 @@
         <v>2932</v>
       </c>
       <c r="F556" t="s">
-        <v>2883</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>2524</v>
+        <v>3242</v>
       </c>
       <c r="B557" t="s">
-        <v>341</v>
+        <v>1335</v>
       </c>
       <c r="C557" t="s">
         <v>2482</v>
@@ -20401,19 +20398,16 @@
       <c r="D557" t="s">
         <v>2745</v>
       </c>
-      <c r="E557" t="s">
-        <v>2932</v>
-      </c>
       <c r="F557" t="s">
-        <v>2880</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>2524</v>
+        <v>2963</v>
       </c>
       <c r="B558" t="s">
-        <v>341</v>
+        <v>1389</v>
       </c>
       <c r="C558" t="s">
         <v>2482</v>
@@ -20421,16 +20415,19 @@
       <c r="D558" t="s">
         <v>2745</v>
       </c>
+      <c r="E558" t="s">
+        <v>2932</v>
+      </c>
       <c r="F558" t="s">
-        <v>3457</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>2584</v>
+        <v>2479</v>
       </c>
       <c r="B559" t="s">
-        <v>341</v>
+        <v>1389</v>
       </c>
       <c r="C559" t="s">
         <v>2482</v>
@@ -20439,15 +20436,15 @@
         <v>2745</v>
       </c>
       <c r="F559" t="s">
-        <v>3206</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>3374</v>
+        <v>2962</v>
       </c>
       <c r="B560" t="s">
-        <v>341</v>
+        <v>1389</v>
       </c>
       <c r="C560" t="s">
         <v>2482</v>
@@ -20455,16 +20452,19 @@
       <c r="D560" t="s">
         <v>2745</v>
       </c>
+      <c r="E560" t="s">
+        <v>2932</v>
+      </c>
       <c r="F560" t="s">
-        <v>3437</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>2459</v>
+        <v>2946</v>
       </c>
       <c r="B561" t="s">
-        <v>341</v>
+        <v>1389</v>
       </c>
       <c r="C561" t="s">
         <v>2482</v>
@@ -20476,15 +20476,15 @@
         <v>2932</v>
       </c>
       <c r="F561" t="s">
-        <v>2903</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>2459</v>
+        <v>2625</v>
       </c>
       <c r="B562" t="s">
-        <v>341</v>
+        <v>1423</v>
       </c>
       <c r="C562" t="s">
         <v>2482</v>
@@ -20496,15 +20496,15 @@
         <v>2932</v>
       </c>
       <c r="F562" t="s">
-        <v>2913</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>2978</v>
+        <v>3451</v>
       </c>
       <c r="B563" t="s">
-        <v>341</v>
+        <v>1423</v>
       </c>
       <c r="C563" t="s">
         <v>2482</v>
@@ -20512,19 +20512,16 @@
       <c r="D563" t="s">
         <v>2745</v>
       </c>
-      <c r="E563" t="s">
-        <v>2932</v>
-      </c>
       <c r="F563" t="s">
-        <v>2927</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>340</v>
+        <v>2546</v>
       </c>
       <c r="B564" t="s">
-        <v>341</v>
+        <v>1523</v>
       </c>
       <c r="C564" t="s">
         <v>2482</v>
@@ -20536,15 +20533,15 @@
         <v>2932</v>
       </c>
       <c r="F564" t="s">
-        <v>2876</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>437</v>
+        <v>2623</v>
       </c>
       <c r="B565" t="s">
-        <v>341</v>
+        <v>276</v>
       </c>
       <c r="C565" t="s">
         <v>2482</v>
@@ -20552,19 +20549,16 @@
       <c r="D565" t="s">
         <v>2745</v>
       </c>
-      <c r="E565" t="s">
-        <v>2932</v>
-      </c>
       <c r="F565" t="s">
-        <v>2921</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>437</v>
+        <v>2477</v>
       </c>
       <c r="B566" t="s">
-        <v>341</v>
+        <v>276</v>
       </c>
       <c r="C566" t="s">
         <v>2482</v>
@@ -20573,15 +20567,15 @@
         <v>2745</v>
       </c>
       <c r="F566" t="s">
-        <v>3436</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>2744</v>
+        <v>2944</v>
       </c>
       <c r="B567" t="s">
-        <v>1323</v>
+        <v>276</v>
       </c>
       <c r="C567" t="s">
         <v>2482</v>
@@ -20589,16 +20583,19 @@
       <c r="D567" t="s">
         <v>2745</v>
       </c>
+      <c r="E567" t="s">
+        <v>2932</v>
+      </c>
       <c r="F567" t="s">
-        <v>2746</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>2782</v>
+        <v>2952</v>
       </c>
       <c r="B568" t="s">
-        <v>1323</v>
+        <v>276</v>
       </c>
       <c r="C568" t="s">
         <v>2482</v>
@@ -20606,16 +20603,19 @@
       <c r="D568" t="s">
         <v>2745</v>
       </c>
+      <c r="E568" t="s">
+        <v>2932</v>
+      </c>
       <c r="F568" t="s">
-        <v>2783</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>2605</v>
+        <v>2956</v>
       </c>
       <c r="B569" t="s">
-        <v>1323</v>
+        <v>276</v>
       </c>
       <c r="C569" t="s">
         <v>2482</v>
@@ -20627,15 +20627,15 @@
         <v>2932</v>
       </c>
       <c r="F569" t="s">
-        <v>2856</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>2605</v>
+        <v>2524</v>
       </c>
       <c r="B570" t="s">
-        <v>1323</v>
+        <v>341</v>
       </c>
       <c r="C570" t="s">
         <v>2482</v>
@@ -20647,15 +20647,15 @@
         <v>2932</v>
       </c>
       <c r="F570" t="s">
-        <v>2898</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>2605</v>
+        <v>2524</v>
       </c>
       <c r="B571" t="s">
-        <v>1323</v>
+        <v>341</v>
       </c>
       <c r="C571" t="s">
         <v>2482</v>
@@ -20663,19 +20663,16 @@
       <c r="D571" t="s">
         <v>2745</v>
       </c>
-      <c r="E571" t="s">
-        <v>2932</v>
-      </c>
       <c r="F571" t="s">
-        <v>2925</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>2976</v>
+        <v>2584</v>
       </c>
       <c r="B572" t="s">
-        <v>1323</v>
+        <v>341</v>
       </c>
       <c r="C572" t="s">
         <v>2482</v>
@@ -20683,19 +20680,16 @@
       <c r="D572" t="s">
         <v>2745</v>
       </c>
-      <c r="E572" t="s">
-        <v>2932</v>
-      </c>
       <c r="F572" t="s">
-        <v>2924</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>2548</v>
+        <v>3374</v>
       </c>
       <c r="B573" t="s">
-        <v>1323</v>
+        <v>341</v>
       </c>
       <c r="C573" t="s">
         <v>2482</v>
@@ -20703,19 +20697,16 @@
       <c r="D573" t="s">
         <v>2745</v>
       </c>
-      <c r="E573" t="s">
-        <v>2932</v>
-      </c>
       <c r="F573" t="s">
-        <v>2919</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>2548</v>
+        <v>2459</v>
       </c>
       <c r="B574" t="s">
-        <v>1323</v>
+        <v>341</v>
       </c>
       <c r="C574" t="s">
         <v>2482</v>
@@ -20727,15 +20718,15 @@
         <v>2932</v>
       </c>
       <c r="F574" t="s">
-        <v>2923</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>2950</v>
+        <v>2459</v>
       </c>
       <c r="B575" t="s">
-        <v>1323</v>
+        <v>341</v>
       </c>
       <c r="C575" t="s">
         <v>2482</v>
@@ -20747,15 +20738,15 @@
         <v>2932</v>
       </c>
       <c r="F575" t="s">
-        <v>2873</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>3260</v>
+        <v>2978</v>
       </c>
       <c r="B576" t="s">
-        <v>1323</v>
+        <v>341</v>
       </c>
       <c r="C576" t="s">
         <v>2482</v>
@@ -20763,16 +20754,19 @@
       <c r="D576" t="s">
         <v>2745</v>
       </c>
+      <c r="E576" t="s">
+        <v>2932</v>
+      </c>
       <c r="F576" t="s">
-        <v>3261</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>2977</v>
+        <v>340</v>
       </c>
       <c r="B577" t="s">
-        <v>33</v>
+        <v>341</v>
       </c>
       <c r="C577" t="s">
         <v>2482</v>
@@ -20784,15 +20778,15 @@
         <v>2932</v>
       </c>
       <c r="F577" t="s">
-        <v>2926</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>2084</v>
+        <v>437</v>
       </c>
       <c r="B578" t="s">
-        <v>33</v>
+        <v>341</v>
       </c>
       <c r="C578" t="s">
         <v>2482</v>
@@ -20800,16 +20794,19 @@
       <c r="D578" t="s">
         <v>2745</v>
       </c>
+      <c r="E578" t="s">
+        <v>2932</v>
+      </c>
       <c r="F578" t="s">
-        <v>3407</v>
-      </c>
-    </row>
-    <row r="579" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>2969</v>
+        <v>437</v>
       </c>
       <c r="B579" t="s">
-        <v>33</v>
+        <v>341</v>
       </c>
       <c r="C579" t="s">
         <v>2482</v>
@@ -20817,19 +20814,16 @@
       <c r="D579" t="s">
         <v>2745</v>
       </c>
-      <c r="E579" t="s">
-        <v>2932</v>
-      </c>
       <c r="F579" t="s">
-        <v>2902</v>
-      </c>
-    </row>
-    <row r="580" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>3029</v>
+        <v>2744</v>
       </c>
       <c r="B580" t="s">
-        <v>1351</v>
+        <v>1323</v>
       </c>
       <c r="C580" t="s">
         <v>2482</v>
@@ -20837,17 +20831,16 @@
       <c r="D580" t="s">
         <v>2745</v>
       </c>
-      <c r="E580"/>
       <c r="F580" t="s">
-        <v>3030</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>2640</v>
+        <v>2782</v>
       </c>
       <c r="B581" t="s">
-        <v>1351</v>
+        <v>1323</v>
       </c>
       <c r="C581" t="s">
         <v>2482</v>
@@ -20855,19 +20848,16 @@
       <c r="D581" t="s">
         <v>2745</v>
       </c>
-      <c r="E581" t="s">
-        <v>2932</v>
-      </c>
       <c r="F581" t="s">
-        <v>2910</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>2642</v>
+        <v>2605</v>
       </c>
       <c r="B582" t="s">
-        <v>1351</v>
+        <v>1323</v>
       </c>
       <c r="C582" t="s">
         <v>2482</v>
@@ -20879,15 +20869,15 @@
         <v>2932</v>
       </c>
       <c r="F582" t="s">
-        <v>2875</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>3315</v>
+        <v>2605</v>
       </c>
       <c r="B583" t="s">
-        <v>1351</v>
+        <v>1323</v>
       </c>
       <c r="C583" t="s">
         <v>2482</v>
@@ -20895,16 +20885,19 @@
       <c r="D583" t="s">
         <v>2745</v>
       </c>
+      <c r="E583" t="s">
+        <v>2932</v>
+      </c>
       <c r="F583" t="s">
-        <v>3316</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>2974</v>
+        <v>2605</v>
       </c>
       <c r="B584" t="s">
-        <v>1363</v>
+        <v>1323</v>
       </c>
       <c r="C584" t="s">
         <v>2482</v>
@@ -20916,15 +20909,15 @@
         <v>2932</v>
       </c>
       <c r="F584" t="s">
-        <v>2917</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>2971</v>
+        <v>2976</v>
       </c>
       <c r="B585" t="s">
-        <v>1363</v>
+        <v>1323</v>
       </c>
       <c r="C585" t="s">
         <v>2482</v>
@@ -20936,15 +20929,15 @@
         <v>2932</v>
       </c>
       <c r="F585" t="s">
-        <v>2906</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>2453</v>
+        <v>2548</v>
       </c>
       <c r="B586" t="s">
-        <v>1363</v>
+        <v>1323</v>
       </c>
       <c r="C586" t="s">
         <v>2482</v>
@@ -20956,15 +20949,15 @@
         <v>2932</v>
       </c>
       <c r="F586" t="s">
-        <v>2853</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>2599</v>
+        <v>2548</v>
       </c>
       <c r="B587" t="s">
-        <v>2600</v>
+        <v>1323</v>
       </c>
       <c r="C587" t="s">
         <v>2482</v>
@@ -20976,15 +20969,15 @@
         <v>2932</v>
       </c>
       <c r="F587" t="s">
-        <v>2855</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>2589</v>
+        <v>2950</v>
       </c>
       <c r="B588" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="C588" t="s">
         <v>2482</v>
@@ -20996,15 +20989,15 @@
         <v>2932</v>
       </c>
       <c r="F588" t="s">
-        <v>2885</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>2589</v>
+        <v>3260</v>
       </c>
       <c r="B589" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="C589" t="s">
         <v>2482</v>
@@ -21012,19 +21005,16 @@
       <c r="D589" t="s">
         <v>2745</v>
       </c>
-      <c r="E589" t="s">
-        <v>2932</v>
-      </c>
       <c r="F589" t="s">
-        <v>2914</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>2947</v>
+        <v>2977</v>
       </c>
       <c r="B590" t="s">
-        <v>1320</v>
+        <v>33</v>
       </c>
       <c r="C590" t="s">
         <v>2482</v>
@@ -21036,15 +21026,15 @@
         <v>2932</v>
       </c>
       <c r="F590" t="s">
-        <v>2866</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>2631</v>
+        <v>2084</v>
       </c>
       <c r="B591" t="s">
-        <v>1320</v>
+        <v>33</v>
       </c>
       <c r="C591" t="s">
         <v>2482</v>
@@ -21052,19 +21042,16 @@
       <c r="D591" t="s">
         <v>2745</v>
       </c>
-      <c r="E591" t="s">
-        <v>2932</v>
-      </c>
       <c r="F591" t="s">
-        <v>2867</v>
-      </c>
-    </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>2609</v>
+        <v>2969</v>
       </c>
       <c r="B592" t="s">
-        <v>1320</v>
+        <v>33</v>
       </c>
       <c r="C592" t="s">
         <v>2482</v>
@@ -21076,35 +21063,33 @@
         <v>2932</v>
       </c>
       <c r="F592" t="s">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A593" s="3" t="s">
-        <v>2983</v>
-      </c>
-      <c r="B593" s="3" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C593" s="3" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C593" t="s">
         <v>2482</v>
       </c>
-      <c r="D593" s="3" t="s">
+      <c r="D593" t="s">
         <v>2745</v>
       </c>
-      <c r="E593" s="3" t="s">
-        <v>2932</v>
-      </c>
-      <c r="F593" s="3" t="s">
-        <v>2981</v>
+      <c r="E593"/>
+      <c r="F593" t="s">
+        <v>3030</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>2463</v>
+        <v>2640</v>
       </c>
       <c r="B594" t="s">
-        <v>574</v>
+        <v>1351</v>
       </c>
       <c r="C594" t="s">
         <v>2482</v>
@@ -21116,15 +21101,15 @@
         <v>2932</v>
       </c>
       <c r="F594" t="s">
-        <v>2868</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>2463</v>
+        <v>2642</v>
       </c>
       <c r="B595" t="s">
-        <v>574</v>
+        <v>1351</v>
       </c>
       <c r="C595" t="s">
         <v>2482</v>
@@ -21136,15 +21121,15 @@
         <v>2932</v>
       </c>
       <c r="F595" t="s">
-        <v>2869</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>2463</v>
+        <v>3315</v>
       </c>
       <c r="B596" t="s">
-        <v>574</v>
+        <v>1351</v>
       </c>
       <c r="C596" t="s">
         <v>2482</v>
@@ -21152,19 +21137,16 @@
       <c r="D596" t="s">
         <v>2745</v>
       </c>
-      <c r="E596" t="s">
-        <v>2932</v>
-      </c>
       <c r="F596" t="s">
-        <v>2930</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>2933</v>
+        <v>2974</v>
       </c>
       <c r="B597" t="s">
-        <v>574</v>
+        <v>1363</v>
       </c>
       <c r="C597" t="s">
         <v>2482</v>
@@ -21175,16 +21157,16 @@
       <c r="E597" t="s">
         <v>2932</v>
       </c>
-      <c r="F597" s="2" t="s">
-        <v>2848</v>
+      <c r="F597" t="s">
+        <v>2917</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>2951</v>
+        <v>2971</v>
       </c>
       <c r="B598" t="s">
-        <v>574</v>
+        <v>1363</v>
       </c>
       <c r="C598" t="s">
         <v>2482</v>
@@ -21196,15 +21178,15 @@
         <v>2932</v>
       </c>
       <c r="F598" t="s">
-        <v>2877</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>3068</v>
+        <v>2453</v>
       </c>
       <c r="B599" t="s">
-        <v>574</v>
+        <v>1363</v>
       </c>
       <c r="C599" t="s">
         <v>2482</v>
@@ -21212,16 +21194,19 @@
       <c r="D599" t="s">
         <v>2745</v>
       </c>
+      <c r="E599" t="s">
+        <v>2932</v>
+      </c>
       <c r="F599" t="s">
-        <v>3069</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>573</v>
+        <v>2599</v>
       </c>
       <c r="B600" t="s">
-        <v>574</v>
+        <v>2600</v>
       </c>
       <c r="C600" t="s">
         <v>2482</v>
@@ -21233,15 +21218,15 @@
         <v>2932</v>
       </c>
       <c r="F600" t="s">
-        <v>2901</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>3076</v>
+        <v>2589</v>
       </c>
       <c r="B601" t="s">
-        <v>1373</v>
+        <v>1320</v>
       </c>
       <c r="C601" t="s">
         <v>2482</v>
@@ -21249,16 +21234,19 @@
       <c r="D601" t="s">
         <v>2745</v>
       </c>
+      <c r="E601" t="s">
+        <v>2932</v>
+      </c>
       <c r="F601" t="s">
-        <v>3077</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>3076</v>
+        <v>2589</v>
       </c>
       <c r="B602" t="s">
-        <v>1373</v>
+        <v>1320</v>
       </c>
       <c r="C602" t="s">
         <v>2482</v>
@@ -21266,16 +21254,19 @@
       <c r="D602" t="s">
         <v>2745</v>
       </c>
+      <c r="E602" t="s">
+        <v>2932</v>
+      </c>
       <c r="F602" t="s">
-        <v>3160</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>2957</v>
+        <v>2947</v>
       </c>
       <c r="B603" t="s">
-        <v>1373</v>
+        <v>1320</v>
       </c>
       <c r="C603" t="s">
         <v>2482</v>
@@ -21287,15 +21278,15 @@
         <v>2932</v>
       </c>
       <c r="F603" t="s">
-        <v>2884</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>2938</v>
+        <v>2631</v>
       </c>
       <c r="B604" t="s">
-        <v>1373</v>
+        <v>1320</v>
       </c>
       <c r="C604" t="s">
         <v>2482</v>
@@ -21307,15 +21298,15 @@
         <v>2932</v>
       </c>
       <c r="F604" t="s">
-        <v>2857</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>2958</v>
+        <v>2609</v>
       </c>
       <c r="B605" t="s">
-        <v>2959</v>
+        <v>1320</v>
       </c>
       <c r="C605" t="s">
         <v>2482</v>
@@ -21327,32 +21318,35 @@
         <v>2932</v>
       </c>
       <c r="F605" t="s">
-        <v>2886</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
-        <v>3332</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C606" t="s">
+      <c r="A606" s="3" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C606" s="3" t="s">
         <v>2482</v>
       </c>
-      <c r="D606" t="s">
+      <c r="D606" s="3" t="s">
         <v>2745</v>
       </c>
-      <c r="F606" t="s">
-        <v>3333</v>
+      <c r="E606" s="3" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F606" s="3" t="s">
+        <v>2981</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>2940</v>
+        <v>2463</v>
       </c>
       <c r="B607" t="s">
-        <v>1401</v>
+        <v>574</v>
       </c>
       <c r="C607" t="s">
         <v>2482</v>
@@ -21364,15 +21358,15 @@
         <v>2932</v>
       </c>
       <c r="F607" t="s">
-        <v>2859</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>2940</v>
+        <v>2463</v>
       </c>
       <c r="B608" t="s">
-        <v>1401</v>
+        <v>574</v>
       </c>
       <c r="C608" t="s">
         <v>2482</v>
@@ -21384,15 +21378,15 @@
         <v>2932</v>
       </c>
       <c r="F608" t="s">
-        <v>2922</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>3547</v>
+        <v>2463</v>
       </c>
       <c r="B609" t="s">
-        <v>703</v>
+        <v>574</v>
       </c>
       <c r="C609" t="s">
         <v>2482</v>
@@ -21400,16 +21394,19 @@
       <c r="D609" t="s">
         <v>2745</v>
       </c>
+      <c r="E609" t="s">
+        <v>2932</v>
+      </c>
       <c r="F609" t="s">
-        <v>3548</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>2979</v>
+        <v>2933</v>
       </c>
       <c r="B610" t="s">
-        <v>703</v>
+        <v>574</v>
       </c>
       <c r="C610" t="s">
         <v>2482</v>
@@ -21420,36 +21417,36 @@
       <c r="E610" t="s">
         <v>2932</v>
       </c>
-      <c r="F610" t="s">
-        <v>2928</v>
+      <c r="F610" s="2" t="s">
+        <v>2848</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A611" s="3" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B611" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="C611" s="3" t="s">
+      <c r="A611" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B611" t="s">
+        <v>574</v>
+      </c>
+      <c r="C611" t="s">
         <v>2482</v>
       </c>
-      <c r="D611" s="3" t="s">
+      <c r="D611" t="s">
         <v>2745</v>
       </c>
-      <c r="E611" s="3" t="s">
+      <c r="E611" t="s">
         <v>2932</v>
       </c>
-      <c r="F611" s="3" t="s">
-        <v>2980</v>
+      <c r="F611" t="s">
+        <v>2877</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>2619</v>
+        <v>3068</v>
       </c>
       <c r="B612" t="s">
-        <v>703</v>
+        <v>574</v>
       </c>
       <c r="C612" t="s">
         <v>2482</v>
@@ -21457,19 +21454,16 @@
       <c r="D612" t="s">
         <v>2745</v>
       </c>
-      <c r="E612" t="s">
-        <v>2932</v>
-      </c>
       <c r="F612" t="s">
-        <v>2907</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>2593</v>
+        <v>573</v>
       </c>
       <c r="B613" t="s">
-        <v>1442</v>
+        <v>574</v>
       </c>
       <c r="C613" t="s">
         <v>2482</v>
@@ -21481,15 +21475,15 @@
         <v>2932</v>
       </c>
       <c r="F613" t="s">
-        <v>2870</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>2953</v>
+        <v>3076</v>
       </c>
       <c r="B614" t="s">
-        <v>1442</v>
+        <v>1373</v>
       </c>
       <c r="C614" t="s">
         <v>2482</v>
@@ -21497,19 +21491,16 @@
       <c r="D614" t="s">
         <v>2745</v>
       </c>
-      <c r="E614" t="s">
-        <v>2932</v>
-      </c>
       <c r="F614" t="s">
-        <v>2881</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>2964</v>
+        <v>3076</v>
       </c>
       <c r="B615" t="s">
-        <v>1442</v>
+        <v>1373</v>
       </c>
       <c r="C615" t="s">
         <v>2482</v>
@@ -21517,19 +21508,16 @@
       <c r="D615" t="s">
         <v>2745</v>
       </c>
-      <c r="E615" t="s">
-        <v>2932</v>
-      </c>
       <c r="F615" t="s">
-        <v>2893</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>2945</v>
+        <v>2957</v>
       </c>
       <c r="B616" t="s">
-        <v>1326</v>
+        <v>1373</v>
       </c>
       <c r="C616" t="s">
         <v>2482</v>
@@ -21541,15 +21529,15 @@
         <v>2932</v>
       </c>
       <c r="F616" t="s">
-        <v>2863</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>2968</v>
+        <v>2938</v>
       </c>
       <c r="B617" t="s">
-        <v>1326</v>
+        <v>1373</v>
       </c>
       <c r="C617" t="s">
         <v>2482</v>
@@ -21561,15 +21549,15 @@
         <v>2932</v>
       </c>
       <c r="F617" t="s">
-        <v>2899</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>2968</v>
+        <v>2958</v>
       </c>
       <c r="B618" t="s">
-        <v>1326</v>
+        <v>2959</v>
       </c>
       <c r="C618" t="s">
         <v>2482</v>
@@ -21581,15 +21569,15 @@
         <v>2932</v>
       </c>
       <c r="F618" t="s">
-        <v>2915</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>3426</v>
+        <v>3332</v>
       </c>
       <c r="B619" t="s">
-        <v>1326</v>
+        <v>1401</v>
       </c>
       <c r="C619" t="s">
         <v>2482</v>
@@ -21598,15 +21586,15 @@
         <v>2745</v>
       </c>
       <c r="F619" t="s">
-        <v>3427</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>3325</v>
+        <v>2940</v>
       </c>
       <c r="B620" t="s">
-        <v>1326</v>
+        <v>1401</v>
       </c>
       <c r="C620" t="s">
         <v>2482</v>
@@ -21614,16 +21602,19 @@
       <c r="D620" t="s">
         <v>2745</v>
       </c>
+      <c r="E620" t="s">
+        <v>2932</v>
+      </c>
       <c r="F620" t="s">
-        <v>3326</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="B621" t="s">
-        <v>2942</v>
+        <v>1401</v>
       </c>
       <c r="C621" t="s">
         <v>2482</v>
@@ -21635,15 +21626,15 @@
         <v>2932</v>
       </c>
       <c r="F621" t="s">
-        <v>2860</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>2984</v>
+        <v>3547</v>
       </c>
       <c r="B622" t="s">
-        <v>1366</v>
+        <v>703</v>
       </c>
       <c r="C622" t="s">
         <v>2482</v>
@@ -21651,19 +21642,16 @@
       <c r="D622" t="s">
         <v>2745</v>
       </c>
-      <c r="E622" t="s">
-        <v>2932</v>
-      </c>
       <c r="F622" t="s">
-        <v>2982</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>2577</v>
+        <v>2979</v>
       </c>
       <c r="B623" t="s">
-        <v>1366</v>
+        <v>703</v>
       </c>
       <c r="C623" t="s">
         <v>2482</v>
@@ -21675,35 +21663,35 @@
         <v>2932</v>
       </c>
       <c r="F623" t="s">
-        <v>2888</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
-        <v>2577</v>
-      </c>
-      <c r="B624" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C624" t="s">
+      <c r="A624" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C624" s="3" t="s">
         <v>2482</v>
       </c>
-      <c r="D624" t="s">
+      <c r="D624" s="3" t="s">
         <v>2745</v>
       </c>
-      <c r="E624" t="s">
+      <c r="E624" s="3" t="s">
         <v>2932</v>
       </c>
-      <c r="F624" t="s">
-        <v>2894</v>
+      <c r="F624" s="3" t="s">
+        <v>2980</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>2577</v>
+        <v>2619</v>
       </c>
       <c r="B625" t="s">
-        <v>1366</v>
+        <v>703</v>
       </c>
       <c r="C625" t="s">
         <v>2482</v>
@@ -21715,15 +21703,15 @@
         <v>2932</v>
       </c>
       <c r="F625" t="s">
-        <v>2929</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>2970</v>
+        <v>2593</v>
       </c>
       <c r="B626" t="s">
-        <v>1366</v>
+        <v>1442</v>
       </c>
       <c r="C626" t="s">
         <v>2482</v>
@@ -21735,15 +21723,15 @@
         <v>2932</v>
       </c>
       <c r="F626" t="s">
-        <v>2904</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>2943</v>
+        <v>2953</v>
       </c>
       <c r="B627" t="s">
-        <v>1366</v>
+        <v>1442</v>
       </c>
       <c r="C627" t="s">
         <v>2482</v>
@@ -21755,15 +21743,15 @@
         <v>2932</v>
       </c>
       <c r="F627" t="s">
-        <v>2861</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>3235</v>
+        <v>2964</v>
       </c>
       <c r="B628" t="s">
-        <v>1366</v>
+        <v>1442</v>
       </c>
       <c r="C628" t="s">
         <v>2482</v>
@@ -21771,16 +21759,19 @@
       <c r="D628" t="s">
         <v>2745</v>
       </c>
+      <c r="E628" t="s">
+        <v>2932</v>
+      </c>
       <c r="F628" t="s">
-        <v>3236</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="B629" t="s">
-        <v>1358</v>
+        <v>1326</v>
       </c>
       <c r="C629" t="s">
         <v>2482</v>
@@ -21792,15 +21783,15 @@
         <v>2932</v>
       </c>
       <c r="F629" t="s">
-        <v>2871</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>2965</v>
+        <v>2968</v>
       </c>
       <c r="B630" t="s">
-        <v>472</v>
+        <v>1326</v>
       </c>
       <c r="C630" t="s">
         <v>2482</v>
@@ -21812,15 +21803,15 @@
         <v>2932</v>
       </c>
       <c r="F630" t="s">
-        <v>2895</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>3554</v>
+        <v>2968</v>
       </c>
       <c r="B631" t="s">
-        <v>472</v>
+        <v>1326</v>
       </c>
       <c r="C631" t="s">
         <v>2482</v>
@@ -21828,16 +21819,19 @@
       <c r="D631" t="s">
         <v>2745</v>
       </c>
+      <c r="E631" t="s">
+        <v>2932</v>
+      </c>
       <c r="F631" t="s">
-        <v>3555</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>471</v>
+        <v>3426</v>
       </c>
       <c r="B632" t="s">
-        <v>472</v>
+        <v>1326</v>
       </c>
       <c r="C632" t="s">
         <v>2482</v>
@@ -21845,19 +21839,16 @@
       <c r="D632" t="s">
         <v>2745</v>
       </c>
-      <c r="E632" t="s">
-        <v>2932</v>
-      </c>
       <c r="F632" t="s">
-        <v>2854</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>2445</v>
+        <v>3325</v>
       </c>
       <c r="B633" t="s">
-        <v>472</v>
+        <v>1326</v>
       </c>
       <c r="C633" t="s">
         <v>2482</v>
@@ -21865,19 +21856,16 @@
       <c r="D633" t="s">
         <v>2745</v>
       </c>
-      <c r="E633" t="s">
-        <v>2932</v>
-      </c>
       <c r="F633" t="s">
-        <v>2852</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>2445</v>
+        <v>2941</v>
       </c>
       <c r="B634" t="s">
-        <v>472</v>
+        <v>2942</v>
       </c>
       <c r="C634" t="s">
         <v>2482</v>
@@ -21889,15 +21877,15 @@
         <v>2932</v>
       </c>
       <c r="F634" t="s">
-        <v>2889</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>2445</v>
+        <v>2984</v>
       </c>
       <c r="B635" t="s">
-        <v>472</v>
+        <v>1366</v>
       </c>
       <c r="C635" t="s">
         <v>2482</v>
@@ -21909,15 +21897,15 @@
         <v>2932</v>
       </c>
       <c r="F635" t="s">
-        <v>2908</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>2445</v>
+        <v>2577</v>
       </c>
       <c r="B636" t="s">
-        <v>472</v>
+        <v>1366</v>
       </c>
       <c r="C636" t="s">
         <v>2482</v>
@@ -21929,15 +21917,15 @@
         <v>2932</v>
       </c>
       <c r="F636" t="s">
-        <v>2920</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>2975</v>
+        <v>2577</v>
       </c>
       <c r="B637" t="s">
-        <v>1316</v>
+        <v>1366</v>
       </c>
       <c r="C637" t="s">
         <v>2482</v>
@@ -21949,15 +21937,15 @@
         <v>2932</v>
       </c>
       <c r="F637" t="s">
-        <v>2918</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>2967</v>
+        <v>2577</v>
       </c>
       <c r="B638" t="s">
-        <v>1316</v>
+        <v>1366</v>
       </c>
       <c r="C638" t="s">
         <v>2482</v>
@@ -21969,15 +21957,15 @@
         <v>2932</v>
       </c>
       <c r="F638" t="s">
-        <v>2897</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>2939</v>
+        <v>2970</v>
       </c>
       <c r="B639" t="s">
-        <v>1316</v>
+        <v>1366</v>
       </c>
       <c r="C639" t="s">
         <v>2482</v>
@@ -21989,15 +21977,15 @@
         <v>2932</v>
       </c>
       <c r="F639" t="s">
-        <v>2858</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>2939</v>
+        <v>2943</v>
       </c>
       <c r="B640" t="s">
-        <v>1316</v>
+        <v>1366</v>
       </c>
       <c r="C640" t="s">
         <v>2482</v>
@@ -22009,15 +21997,15 @@
         <v>2932</v>
       </c>
       <c r="F640" t="s">
-        <v>2911</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>3143</v>
+        <v>3235</v>
       </c>
       <c r="B641" t="s">
-        <v>1316</v>
+        <v>1366</v>
       </c>
       <c r="C641" t="s">
         <v>2482</v>
@@ -22026,15 +22014,15 @@
         <v>2745</v>
       </c>
       <c r="F641" t="s">
-        <v>3144</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>2973</v>
+        <v>2948</v>
       </c>
       <c r="B642" t="s">
-        <v>1476</v>
+        <v>1358</v>
       </c>
       <c r="C642" t="s">
         <v>2482</v>
@@ -22046,15 +22034,15 @@
         <v>2932</v>
       </c>
       <c r="F642" t="s">
-        <v>2916</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>3309</v>
+        <v>2965</v>
       </c>
       <c r="B643" t="s">
-        <v>1476</v>
+        <v>472</v>
       </c>
       <c r="C643" t="s">
         <v>2482</v>
@@ -22062,16 +22050,19 @@
       <c r="D643" t="s">
         <v>2745</v>
       </c>
+      <c r="E643" t="s">
+        <v>2932</v>
+      </c>
       <c r="F643" t="s">
-        <v>3310</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>3033</v>
+        <v>3554</v>
       </c>
       <c r="B644" t="s">
-        <v>3034</v>
+        <v>472</v>
       </c>
       <c r="C644" t="s">
         <v>2482</v>
@@ -22080,15 +22071,15 @@
         <v>2745</v>
       </c>
       <c r="F644" t="s">
-        <v>3035</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>2966</v>
+        <v>471</v>
       </c>
       <c r="B645" t="s">
-        <v>1343</v>
+        <v>472</v>
       </c>
       <c r="C645" t="s">
         <v>2482</v>
@@ -22100,15 +22091,15 @@
         <v>2932</v>
       </c>
       <c r="F645" t="s">
-        <v>2896</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>2573</v>
+        <v>2445</v>
       </c>
       <c r="B646" t="s">
-        <v>1343</v>
+        <v>472</v>
       </c>
       <c r="C646" t="s">
         <v>2482</v>
@@ -22120,15 +22111,15 @@
         <v>2932</v>
       </c>
       <c r="F646" t="s">
-        <v>2874</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>2573</v>
+        <v>2445</v>
       </c>
       <c r="B647" t="s">
-        <v>1343</v>
+        <v>472</v>
       </c>
       <c r="C647" t="s">
         <v>2482</v>
@@ -22140,15 +22131,15 @@
         <v>2932</v>
       </c>
       <c r="F647" t="s">
-        <v>2905</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>2935</v>
+        <v>2445</v>
       </c>
       <c r="B648" t="s">
-        <v>1343</v>
+        <v>472</v>
       </c>
       <c r="C648" t="s">
         <v>2482</v>
@@ -22160,15 +22151,15 @@
         <v>2932</v>
       </c>
       <c r="F648" t="s">
-        <v>2850</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>2934</v>
+        <v>2445</v>
       </c>
       <c r="B649" t="s">
-        <v>52</v>
+        <v>472</v>
       </c>
       <c r="C649" t="s">
         <v>2482</v>
@@ -22180,15 +22171,15 @@
         <v>2932</v>
       </c>
       <c r="F649" t="s">
-        <v>2849</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>2960</v>
+        <v>2975</v>
       </c>
       <c r="B650" t="s">
-        <v>52</v>
+        <v>1316</v>
       </c>
       <c r="C650" t="s">
         <v>2482</v>
@@ -22200,15 +22191,15 @@
         <v>2932</v>
       </c>
       <c r="F650" t="s">
-        <v>2887</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>3170</v>
+        <v>2967</v>
       </c>
       <c r="B651" t="s">
-        <v>52</v>
+        <v>1316</v>
       </c>
       <c r="C651" t="s">
         <v>2482</v>
@@ -22216,16 +22207,19 @@
       <c r="D651" t="s">
         <v>2745</v>
       </c>
+      <c r="E651" t="s">
+        <v>2932</v>
+      </c>
       <c r="F651" t="s">
-        <v>3171</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>2949</v>
+        <v>2939</v>
       </c>
       <c r="B652" t="s">
-        <v>52</v>
+        <v>1316</v>
       </c>
       <c r="C652" t="s">
         <v>2482</v>
@@ -22237,15 +22231,15 @@
         <v>2932</v>
       </c>
       <c r="F652" t="s">
-        <v>2872</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>2936</v>
+        <v>2939</v>
       </c>
       <c r="B653" t="s">
-        <v>2937</v>
+        <v>1316</v>
       </c>
       <c r="C653" t="s">
         <v>2482</v>
@@ -22257,12 +22251,260 @@
         <v>2932</v>
       </c>
       <c r="F653" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C654" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D654" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F654" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C655" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D655" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E655" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F655" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C656" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D656" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F656" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B657" t="s">
+        <v>3034</v>
+      </c>
+      <c r="C657" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D657" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F657" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C658" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D658" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E658" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F658" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C659" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D659" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E659" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F659" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C660" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D660" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E660" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F660" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C661" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D661" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E661" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F661" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B662" t="s">
+        <v>52</v>
+      </c>
+      <c r="C662" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D662" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E662" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F662" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B663" t="s">
+        <v>52</v>
+      </c>
+      <c r="C663" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D663" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E663" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F663" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B664" t="s">
+        <v>52</v>
+      </c>
+      <c r="C664" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D664" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F664" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B665" t="s">
+        <v>52</v>
+      </c>
+      <c r="C665" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D665" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E665" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F665" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B666" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C666" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D666" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E666" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F666" t="s">
         <v>2851</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A202:F302">
-    <sortCondition ref="A202:A302"/>
+  <sortState ref="A477:F512">
+    <sortCondition ref="A477:A512"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32779,10 +33021,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F777"/>
+  <dimension ref="A1:F787"/>
   <sheetViews>
-    <sheetView topLeftCell="A649" workbookViewId="0">
-      <selection activeCell="A716" sqref="A716:XFD716"/>
+    <sheetView topLeftCell="A763" workbookViewId="0">
+      <selection activeCell="B772" sqref="B772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45694,7 +45936,7 @@
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>3187</v>
+        <v>3581</v>
       </c>
       <c r="B708" t="s">
         <v>49</v>
@@ -45703,27 +45945,21 @@
         <v>2530</v>
       </c>
       <c r="F708" t="s">
-        <v>3188</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>935</v>
+        <v>3187</v>
       </c>
       <c r="B709" t="s">
         <v>49</v>
       </c>
       <c r="C709" t="s">
-        <v>8</v>
-      </c>
-      <c r="D709" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E709" t="s">
-        <v>10</v>
+        <v>2530</v>
       </c>
       <c r="F709" t="s">
-        <v>1104</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.25">
@@ -45737,13 +45973,13 @@
         <v>8</v>
       </c>
       <c r="D710" t="s">
-        <v>936</v>
+        <v>1103</v>
       </c>
       <c r="E710" t="s">
         <v>10</v>
       </c>
       <c r="F710" t="s">
-        <v>937</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.25">
@@ -45754,10 +45990,16 @@
         <v>49</v>
       </c>
       <c r="C711" t="s">
-        <v>2530</v>
+        <v>8</v>
+      </c>
+      <c r="D711" t="s">
+        <v>936</v>
+      </c>
+      <c r="E711" t="s">
+        <v>10</v>
       </c>
       <c r="F711" t="s">
-        <v>2781</v>
+        <v>937</v>
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.25">
@@ -45768,52 +46010,46 @@
         <v>49</v>
       </c>
       <c r="C712" t="s">
-        <v>8</v>
-      </c>
-      <c r="D712" t="s">
-        <v>3423</v>
+        <v>2530</v>
       </c>
       <c r="F712" t="s">
-        <v>3424</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>3229</v>
+        <v>935</v>
       </c>
       <c r="B713" t="s">
         <v>49</v>
       </c>
       <c r="C713" t="s">
-        <v>2530</v>
+        <v>8</v>
+      </c>
+      <c r="D713" t="s">
+        <v>3423</v>
       </c>
       <c r="F713" t="s">
-        <v>3230</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>564</v>
+        <v>3585</v>
       </c>
       <c r="B714" t="s">
         <v>49</v>
       </c>
       <c r="C714" t="s">
-        <v>8</v>
-      </c>
-      <c r="D714" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E714" t="s">
-        <v>10</v>
+        <v>2530</v>
       </c>
       <c r="F714" t="s">
-        <v>1180</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>3139</v>
+        <v>3229</v>
       </c>
       <c r="B715" t="s">
         <v>49</v>
@@ -45822,26 +46058,32 @@
         <v>2530</v>
       </c>
       <c r="F715" t="s">
-        <v>3140</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1014</v>
+        <v>564</v>
       </c>
       <c r="B716" t="s">
         <v>49</v>
       </c>
       <c r="C716" t="s">
-        <v>2530</v>
+        <v>8</v>
+      </c>
+      <c r="D716" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E716" t="s">
+        <v>10</v>
       </c>
       <c r="F716" t="s">
-        <v>2770</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1014</v>
+        <v>518</v>
       </c>
       <c r="B717" t="s">
         <v>49</v>
@@ -45850,12 +46092,12 @@
         <v>2530</v>
       </c>
       <c r="F717" t="s">
-        <v>3569</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1014</v>
+        <v>518</v>
       </c>
       <c r="B718" t="s">
         <v>49</v>
@@ -45864,12 +46106,12 @@
         <v>2530</v>
       </c>
       <c r="F718" t="s">
-        <v>2761</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>2775</v>
+        <v>3139</v>
       </c>
       <c r="B719" t="s">
         <v>49</v>
@@ -45878,69 +46120,54 @@
         <v>2530</v>
       </c>
       <c r="F719" t="s">
-        <v>2776</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>889</v>
+        <v>1014</v>
       </c>
       <c r="B720" t="s">
         <v>49</v>
       </c>
       <c r="C720" t="s">
-        <v>8</v>
-      </c>
-      <c r="D720" t="s">
-        <v>890</v>
-      </c>
-      <c r="E720" t="s">
-        <v>10</v>
+        <v>2530</v>
       </c>
       <c r="F720" t="s">
-        <v>891</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>889</v>
+        <v>1014</v>
       </c>
       <c r="B721" t="s">
         <v>49</v>
       </c>
       <c r="C721" t="s">
-        <v>8</v>
-      </c>
-      <c r="D721" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E721" t="s">
-        <v>10</v>
+        <v>2530</v>
       </c>
       <c r="F721" t="s">
-        <v>1038</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>889</v>
+        <v>1014</v>
       </c>
       <c r="B722" t="s">
         <v>49</v>
       </c>
       <c r="C722" t="s">
-        <v>8</v>
-      </c>
-      <c r="D722" t="s">
-        <v>3130</v>
+        <v>2530</v>
       </c>
       <c r="F722" t="s">
-        <v>3131</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>889</v>
+        <v>2775</v>
       </c>
       <c r="B723" t="s">
         <v>49</v>
@@ -45949,12 +46176,12 @@
         <v>2530</v>
       </c>
       <c r="F723" t="s">
-        <v>3408</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>405</v>
+        <v>889</v>
       </c>
       <c r="B724" t="s">
         <v>49</v>
@@ -45963,49 +46190,55 @@
         <v>8</v>
       </c>
       <c r="D724" t="s">
-        <v>722</v>
+        <v>890</v>
       </c>
       <c r="E724" t="s">
         <v>10</v>
       </c>
       <c r="F724" t="s">
-        <v>723</v>
+        <v>891</v>
       </c>
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>3543</v>
+        <v>889</v>
       </c>
       <c r="B725" t="s">
         <v>49</v>
       </c>
       <c r="C725" t="s">
-        <v>2530</v>
+        <v>8</v>
+      </c>
+      <c r="D725" t="s">
+        <v>1037</v>
       </c>
       <c r="E725" t="s">
-        <v>3539</v>
+        <v>10</v>
       </c>
       <c r="F725" t="s">
-        <v>3544</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>2670</v>
+        <v>889</v>
       </c>
       <c r="B726" t="s">
         <v>49</v>
       </c>
       <c r="C726" t="s">
-        <v>2530</v>
+        <v>8</v>
+      </c>
+      <c r="D726" t="s">
+        <v>3130</v>
       </c>
       <c r="F726" t="s">
-        <v>3368</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>3538</v>
+        <v>889</v>
       </c>
       <c r="B727" t="s">
         <v>49</v>
@@ -46013,50 +46246,47 @@
       <c r="C727" t="s">
         <v>2530</v>
       </c>
-      <c r="E727" t="s">
-        <v>3539</v>
-      </c>
       <c r="F727" t="s">
-        <v>3540</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>352</v>
+        <v>3579</v>
       </c>
       <c r="B728" t="s">
         <v>49</v>
       </c>
       <c r="C728" t="s">
-        <v>8</v>
-      </c>
-      <c r="D728" t="s">
-        <v>423</v>
-      </c>
-      <c r="E728" t="s">
-        <v>10</v>
+        <v>2530</v>
       </c>
       <c r="F728" t="s">
-        <v>424</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>2843</v>
+        <v>405</v>
       </c>
       <c r="B729" t="s">
         <v>49</v>
       </c>
       <c r="C729" t="s">
-        <v>2530</v>
+        <v>8</v>
+      </c>
+      <c r="D729" t="s">
+        <v>722</v>
+      </c>
+      <c r="E729" t="s">
+        <v>10</v>
       </c>
       <c r="F729" t="s">
-        <v>2844</v>
+        <v>723</v>
       </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>2843</v>
+        <v>1231</v>
       </c>
       <c r="B730" t="s">
         <v>49</v>
@@ -46064,16 +46294,13 @@
       <c r="C730" t="s">
         <v>2530</v>
       </c>
-      <c r="D730" t="s">
-        <v>3488</v>
-      </c>
       <c r="F730" t="s">
-        <v>3489</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>189</v>
+        <v>3543</v>
       </c>
       <c r="B731" t="s">
         <v>49</v>
@@ -46085,12 +46312,12 @@
         <v>3539</v>
       </c>
       <c r="F731" t="s">
-        <v>3541</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>189</v>
+        <v>3598</v>
       </c>
       <c r="B732" t="s">
         <v>49</v>
@@ -46098,56 +46325,44 @@
       <c r="C732" t="s">
         <v>2530</v>
       </c>
-      <c r="E732" t="s">
-        <v>3539</v>
-      </c>
       <c r="F732" t="s">
-        <v>3542</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>1078</v>
+        <v>2670</v>
       </c>
       <c r="B733" t="s">
         <v>49</v>
       </c>
       <c r="C733" t="s">
-        <v>8</v>
-      </c>
-      <c r="D733" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E733" t="s">
-        <v>10</v>
+        <v>2530</v>
       </c>
       <c r="F733" t="s">
-        <v>1152</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>669</v>
+        <v>3538</v>
       </c>
       <c r="B734" t="s">
         <v>49</v>
       </c>
       <c r="C734" t="s">
-        <v>8</v>
-      </c>
-      <c r="D734" t="s">
-        <v>670</v>
+        <v>2530</v>
       </c>
       <c r="E734" t="s">
-        <v>10</v>
+        <v>3539</v>
       </c>
       <c r="F734" t="s">
-        <v>671</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>1034</v>
+        <v>352</v>
       </c>
       <c r="B735" t="s">
         <v>49</v>
@@ -46156,38 +46371,32 @@
         <v>8</v>
       </c>
       <c r="D735" t="s">
-        <v>1035</v>
+        <v>423</v>
       </c>
       <c r="E735" t="s">
         <v>10</v>
       </c>
       <c r="F735" t="s">
-        <v>1036</v>
+        <v>424</v>
       </c>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>299</v>
+        <v>2843</v>
       </c>
       <c r="B736" t="s">
         <v>49</v>
       </c>
       <c r="C736" t="s">
-        <v>8</v>
-      </c>
-      <c r="D736" t="s">
-        <v>712</v>
-      </c>
-      <c r="E736" t="s">
-        <v>10</v>
+        <v>2530</v>
       </c>
       <c r="F736" t="s">
-        <v>713</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>299</v>
+        <v>2843</v>
       </c>
       <c r="B737" t="s">
         <v>49</v>
@@ -46195,61 +46404,107 @@
       <c r="C737" t="s">
         <v>2530</v>
       </c>
+      <c r="D737" t="s">
+        <v>3488</v>
+      </c>
       <c r="F737" t="s">
-        <v>2985</v>
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>189</v>
+      </c>
+      <c r="B738" t="s">
+        <v>49</v>
+      </c>
+      <c r="C738" t="s">
+        <v>2530</v>
+      </c>
+      <c r="E738" t="s">
+        <v>3539</v>
+      </c>
+      <c r="F738" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>189</v>
+      </c>
+      <c r="B739" t="s">
+        <v>49</v>
+      </c>
+      <c r="C739" t="s">
+        <v>2530</v>
+      </c>
+      <c r="E739" t="s">
+        <v>3539</v>
+      </c>
+      <c r="F739" t="s">
+        <v>3542</v>
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>3574</v>
+        <v>1078</v>
+      </c>
+      <c r="B740" t="s">
+        <v>49</v>
+      </c>
+      <c r="C740" t="s">
+        <v>8</v>
+      </c>
+      <c r="D740" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E740" t="s">
+        <v>10</v>
+      </c>
+      <c r="F740" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>942</v>
+        <v>441</v>
       </c>
       <c r="B741" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C741" t="s">
-        <v>8</v>
-      </c>
-      <c r="D741" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E741" t="s">
-        <v>10</v>
+        <v>2530</v>
       </c>
       <c r="F741" t="s">
-        <v>1122</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>320</v>
+        <v>669</v>
       </c>
       <c r="B742" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C742" t="s">
         <v>8</v>
       </c>
       <c r="D742" t="s">
-        <v>1063</v>
+        <v>670</v>
       </c>
       <c r="E742" t="s">
         <v>10</v>
       </c>
       <c r="F742" t="s">
-        <v>1064</v>
+        <v>671</v>
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>518</v>
+        <v>1034</v>
       </c>
       <c r="B743" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C743" t="s">
         <v>8</v>
@@ -46261,237 +46516,224 @@
         <v>10</v>
       </c>
       <c r="F743" t="s">
-        <v>1258</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>630</v>
+        <v>299</v>
       </c>
       <c r="B744" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C744" t="s">
         <v>8</v>
       </c>
       <c r="D744" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
       <c r="E744" t="s">
         <v>10</v>
       </c>
       <c r="F744" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>1276</v>
+        <v>299</v>
       </c>
       <c r="B745" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C745" t="s">
-        <v>8</v>
-      </c>
-      <c r="D745" t="s">
-        <v>2813</v>
+        <v>2530</v>
       </c>
       <c r="F745" t="s">
-        <v>2814</v>
-      </c>
-    </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A746" t="s">
-        <v>546</v>
-      </c>
-      <c r="B746" t="s">
-        <v>33</v>
-      </c>
-      <c r="C746" t="s">
-        <v>8</v>
-      </c>
-      <c r="D746" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E746" t="s">
-        <v>10</v>
-      </c>
-      <c r="F746" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A747" t="s">
-        <v>732</v>
-      </c>
-      <c r="B747" t="s">
-        <v>276</v>
-      </c>
-      <c r="C747" t="s">
-        <v>8</v>
-      </c>
-      <c r="D747" t="s">
-        <v>733</v>
-      </c>
-      <c r="E747" t="s">
-        <v>10</v>
-      </c>
-      <c r="F747" t="s">
-        <v>734</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>3070</v>
-      </c>
-      <c r="B748" t="s">
-        <v>13</v>
-      </c>
-      <c r="C748" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F748" t="s">
-        <v>3071</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>665</v>
+        <v>942</v>
       </c>
       <c r="B749" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C749" t="s">
         <v>8</v>
       </c>
       <c r="D749" t="s">
-        <v>2789</v>
+        <v>1121</v>
+      </c>
+      <c r="E749" t="s">
+        <v>10</v>
       </c>
       <c r="F749" t="s">
-        <v>2790</v>
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>320</v>
+      </c>
+      <c r="B750" t="s">
+        <v>13</v>
+      </c>
+      <c r="C750" t="s">
+        <v>8</v>
+      </c>
+      <c r="D750" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E750" t="s">
+        <v>10</v>
+      </c>
+      <c r="F750" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>518</v>
+      </c>
+      <c r="B751" t="s">
+        <v>19</v>
+      </c>
+      <c r="C751" t="s">
+        <v>8</v>
+      </c>
+      <c r="D751" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E751" t="s">
+        <v>10</v>
+      </c>
+      <c r="F751" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>630</v>
+      </c>
+      <c r="B752" t="s">
+        <v>38</v>
+      </c>
+      <c r="C752" t="s">
+        <v>8</v>
+      </c>
+      <c r="D752" t="s">
+        <v>631</v>
+      </c>
+      <c r="E752" t="s">
+        <v>10</v>
+      </c>
+      <c r="F752" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B753" t="s">
+        <v>44</v>
+      </c>
+      <c r="C753" t="s">
+        <v>8</v>
+      </c>
+      <c r="D753" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F753" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>546</v>
+      </c>
+      <c r="B754" t="s">
+        <v>33</v>
+      </c>
+      <c r="C754" t="s">
+        <v>8</v>
+      </c>
+      <c r="D754" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E754" t="s">
+        <v>10</v>
+      </c>
+      <c r="F754" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>732</v>
+      </c>
+      <c r="B755" t="s">
+        <v>276</v>
+      </c>
+      <c r="C755" t="s">
+        <v>8</v>
+      </c>
+      <c r="D755" t="s">
+        <v>733</v>
+      </c>
+      <c r="E755" t="s">
+        <v>10</v>
+      </c>
+      <c r="F755" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>2846</v>
+        <v>3070</v>
+      </c>
+      <c r="B756" t="s">
+        <v>13</v>
+      </c>
+      <c r="C756" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F756" t="s">
+        <v>3071</v>
       </c>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>3413</v>
+        <v>665</v>
       </c>
       <c r="B757" t="s">
-        <v>2785</v>
+        <v>117</v>
       </c>
       <c r="C757" t="s">
-        <v>2530</v>
+        <v>8</v>
+      </c>
+      <c r="D757" t="s">
+        <v>2789</v>
       </c>
       <c r="F757" t="s">
-        <v>3414</v>
-      </c>
-    </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A758" t="s">
-        <v>3208</v>
-      </c>
-      <c r="B758" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C758" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F758" t="s">
-        <v>3209</v>
-      </c>
-    </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A759" t="s">
-        <v>2784</v>
-      </c>
-      <c r="B759" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C759" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F759" t="s">
-        <v>2786</v>
-      </c>
-    </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A760" t="s">
-        <v>3114</v>
-      </c>
-      <c r="B760" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C760" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F760" t="s">
-        <v>3115</v>
-      </c>
-    </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A761" t="s">
-        <v>3283</v>
-      </c>
-      <c r="B761" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C761" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F761" t="s">
-        <v>3284</v>
-      </c>
-    </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A762" t="s">
-        <v>3321</v>
-      </c>
-      <c r="B762" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C762" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F762" t="s">
-        <v>3322</v>
-      </c>
-    </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A763" t="s">
-        <v>2986</v>
-      </c>
-      <c r="B763" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C763" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F763" t="s">
-        <v>2987</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>2986</v>
-      </c>
-      <c r="B764" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C764" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F764" t="s">
-        <v>3112</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>2986</v>
+        <v>3413</v>
       </c>
       <c r="B765" t="s">
         <v>2785</v>
@@ -46500,12 +46742,12 @@
         <v>2530</v>
       </c>
       <c r="F765" t="s">
-        <v>3148</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>3549</v>
+        <v>3208</v>
       </c>
       <c r="B766" t="s">
         <v>2785</v>
@@ -46514,90 +46756,230 @@
         <v>2530</v>
       </c>
       <c r="F766" t="s">
-        <v>3550</v>
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B767" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C767" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F767" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B768" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C768" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F768" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B769" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C769" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F769" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B770" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C770" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F770" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B771" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C771" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F771" t="s">
+        <v>2987</v>
       </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>2847</v>
+        <v>2986</v>
+      </c>
+      <c r="B772" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C772" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F772" t="s">
+        <v>3112</v>
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>2815</v>
+        <v>2986</v>
       </c>
       <c r="B773" t="s">
-        <v>2816</v>
+        <v>2785</v>
       </c>
       <c r="C773" t="s">
         <v>2530</v>
       </c>
-      <c r="D773" t="s">
-        <v>2817</v>
-      </c>
       <c r="F773" t="s">
-        <v>2818</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>3085</v>
+        <v>3549</v>
       </c>
       <c r="B774" t="s">
-        <v>3086</v>
+        <v>2785</v>
       </c>
       <c r="C774" t="s">
-        <v>3087</v>
+        <v>2530</v>
       </c>
       <c r="F774" t="s">
-        <v>3088</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>3105</v>
+        <v>3587</v>
       </c>
       <c r="B775" t="s">
-        <v>3106</v>
+        <v>2785</v>
+      </c>
+      <c r="C775" t="s">
+        <v>2530</v>
       </c>
       <c r="F775" t="s">
-        <v>3107</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>2821</v>
+        <v>3601</v>
       </c>
       <c r="B776" t="s">
-        <v>2822</v>
+        <v>2785</v>
       </c>
       <c r="C776" t="s">
         <v>2530</v>
       </c>
-      <c r="D776" t="s">
+      <c r="F776" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B783" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C783" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D783" t="s">
+        <v>2817</v>
+      </c>
+      <c r="F783" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B784" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C784" t="s">
+        <v>3087</v>
+      </c>
+      <c r="F784" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B785" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F785" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B786" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C786" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D786" t="s">
         <v>2823</v>
       </c>
-      <c r="F776" t="s">
+      <c r="F786" t="s">
         <v>2824</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A777" t="s">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
         <v>2791</v>
       </c>
-      <c r="B777" t="s">
+      <c r="B787" t="s">
         <v>2792</v>
       </c>
-      <c r="C777" t="s">
+      <c r="C787" t="s">
         <v>2793</v>
       </c>
-      <c r="F777" t="s">
+      <c r="F787" t="s">
         <v>2794</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A761:F772">
-    <sortCondition ref="A761:A772"/>
+  <sortState ref="A708:F745">
+    <sortCondition ref="A708:A745"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/newCards.xlsx
+++ b/newCards.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Stuff" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9939" uniqueCount="3603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10069" uniqueCount="3654">
   <si>
     <t>Name</t>
   </si>
@@ -10831,6 +10831,159 @@
   </si>
   <si>
     <t>Screenshot_2016-10-01-12-59-32.png</t>
+  </si>
+  <si>
+    <t>Jayon Brown</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-03-08-23-22.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-10-09-22-46.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-04-18-01-43.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-49-09.png</t>
+  </si>
+  <si>
+    <t>Phillies / Pirates</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-11-20-17.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-42-10.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-27-46.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-04-18-03-10.png</t>
+  </si>
+  <si>
+    <t>Cesar Hernandez</t>
+  </si>
+  <si>
+    <t>Diamond Plate</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-03-19-22-19.png</t>
+  </si>
+  <si>
+    <t>Conor Gillaspie</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-47-37.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-10-09-23-48.png</t>
+  </si>
+  <si>
+    <t>Edwin Encarnacion</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-55-51.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-53-23.png</t>
+  </si>
+  <si>
+    <t>Austin Roberts</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-40-17.png</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>76ers</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-04-18-08-45.png</t>
+  </si>
+  <si>
+    <t>Nate Iese</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-39-14.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-59-03.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-03-08-24-26.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-54-15.png</t>
+  </si>
+  <si>
+    <t>Barry Bonds</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-05-16-24-27.png</t>
+  </si>
+  <si>
+    <t>Chase Daniel</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-30-49.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-51-20.png</t>
+  </si>
+  <si>
+    <t>Kerryon Johnson</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-33-02.png</t>
+  </si>
+  <si>
+    <t>Ted Williams / Jim Rice</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-26-53.png</t>
+  </si>
+  <si>
+    <t>Indy Neidell</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-35-00.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-04-18-05-50.png</t>
+  </si>
+  <si>
+    <t>Rickie Henderson</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-24-56.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-50-15.png</t>
+  </si>
+  <si>
+    <t>Screenshot_2016-10-09-10-31-51.png</t>
+  </si>
+  <si>
+    <t>minimart.jpg</t>
+  </si>
+  <si>
+    <t>Michael Martinez</t>
+  </si>
+  <si>
+    <t>Charlie Hayes / KeBryan Hayes</t>
+  </si>
+  <si>
+    <t>College Football</t>
+  </si>
+  <si>
+    <t>NBA Basketball</t>
   </si>
 </sst>
 </file>
@@ -11686,16 +11839,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6900" topLeftCell="A339"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
       <selection pane="bottomLeft" activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -11719,9 +11872,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F15">
-    <sortCondition ref="B2:B15"/>
-    <sortCondition ref="A2:A15"/>
+  <sortState ref="A2:F33">
+    <sortCondition ref="C2:C33"/>
+    <sortCondition ref="D2:D33"/>
+    <sortCondition ref="B2:B33"/>
+    <sortCondition ref="A2:A33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -11730,15 +11885,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F666"/>
+  <dimension ref="A1:F682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="A531" sqref="A531:XFD531"/>
+    <sheetView topLeftCell="A544" workbookViewId="0">
+      <selection activeCell="B550" sqref="B550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="28.42578125" customWidth="1"/>
+    <col min="1" max="9" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -16696,51 +16851,48 @@
         <v>3425</v>
       </c>
     </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B302" t="s">
+        <v>3608</v>
+      </c>
+      <c r="C302" t="s">
+        <v>434</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F302" t="s">
+        <v>3609</v>
+      </c>
+    </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>3571</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>2562</v>
-      </c>
-      <c r="B304" t="s">
-        <v>52</v>
-      </c>
-      <c r="C304" t="s">
-        <v>434</v>
-      </c>
-      <c r="D304" t="s">
-        <v>2532</v>
-      </c>
-      <c r="E304" t="s">
-        <v>2533</v>
-      </c>
-      <c r="F304" t="s">
-        <v>2563</v>
+        <v>3613</v>
+      </c>
+      <c r="B303" t="s">
+        <v>703</v>
+      </c>
+      <c r="C303" t="s">
+        <v>434</v>
+      </c>
+      <c r="D303" t="s">
+        <v>3614</v>
+      </c>
+      <c r="F303" t="s">
+        <v>3615</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>433</v>
-      </c>
-      <c r="B305" t="s">
-        <v>52</v>
-      </c>
-      <c r="C305" t="s">
-        <v>2530</v>
-      </c>
-      <c r="D305" t="s">
-        <v>2752</v>
-      </c>
-      <c r="F305" t="s">
-        <v>2753</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>433</v>
+        <v>2562</v>
       </c>
       <c r="B306" t="s">
         <v>52</v>
@@ -16749,32 +16901,35 @@
         <v>434</v>
       </c>
       <c r="D306" t="s">
-        <v>3047</v>
+        <v>2532</v>
+      </c>
+      <c r="E306" t="s">
+        <v>2533</v>
       </c>
       <c r="F306" t="s">
-        <v>3048</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>3336</v>
+        <v>433</v>
       </c>
       <c r="B307" t="s">
         <v>52</v>
       </c>
       <c r="C307" t="s">
-        <v>434</v>
+        <v>2530</v>
       </c>
       <c r="D307" t="s">
-        <v>3066</v>
+        <v>2752</v>
       </c>
       <c r="F307" t="s">
-        <v>3337</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>3295</v>
+        <v>433</v>
       </c>
       <c r="B308" t="s">
         <v>52</v>
@@ -16783,15 +16938,15 @@
         <v>434</v>
       </c>
       <c r="D308" t="s">
-        <v>2568</v>
+        <v>3047</v>
       </c>
       <c r="F308" t="s">
-        <v>3447</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>3295</v>
+        <v>3336</v>
       </c>
       <c r="B309" t="s">
         <v>52</v>
@@ -16800,32 +16955,32 @@
         <v>434</v>
       </c>
       <c r="D309" t="s">
-        <v>3296</v>
+        <v>3066</v>
       </c>
       <c r="F309" t="s">
-        <v>3297</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>2520</v>
+        <v>3295</v>
       </c>
       <c r="B310" t="s">
         <v>52</v>
       </c>
       <c r="C310" t="s">
-        <v>2530</v>
+        <v>434</v>
       </c>
       <c r="D310" t="s">
-        <v>3552</v>
+        <v>2568</v>
       </c>
       <c r="F310" t="s">
-        <v>3600</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>51</v>
+        <v>3295</v>
       </c>
       <c r="B311" t="s">
         <v>52</v>
@@ -16834,18 +16989,15 @@
         <v>434</v>
       </c>
       <c r="D311" t="s">
-        <v>2741</v>
-      </c>
-      <c r="E311" t="s">
-        <v>10</v>
+        <v>3296</v>
       </c>
       <c r="F311" t="s">
-        <v>53</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>2960</v>
+        <v>2520</v>
       </c>
       <c r="B312" t="s">
         <v>52</v>
@@ -16853,13 +17005,16 @@
       <c r="C312" t="s">
         <v>2530</v>
       </c>
+      <c r="D312" t="s">
+        <v>3552</v>
+      </c>
       <c r="F312" t="s">
-        <v>3471</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>2960</v>
+        <v>51</v>
       </c>
       <c r="B313" t="s">
         <v>52</v>
@@ -16868,52 +17023,52 @@
         <v>434</v>
       </c>
       <c r="D313" t="s">
-        <v>2590</v>
+        <v>2741</v>
       </c>
       <c r="E313" t="s">
-        <v>3495</v>
+        <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>3527</v>
+        <v>53</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>3556</v>
+        <v>2960</v>
       </c>
       <c r="B314" t="s">
         <v>52</v>
       </c>
       <c r="C314" t="s">
-        <v>434</v>
-      </c>
-      <c r="D314" t="s">
-        <v>3557</v>
+        <v>2530</v>
       </c>
       <c r="F314" t="s">
-        <v>3558</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>3136</v>
+        <v>2960</v>
       </c>
       <c r="B315" t="s">
         <v>52</v>
       </c>
       <c r="C315" t="s">
-        <v>2530</v>
+        <v>434</v>
       </c>
       <c r="D315" t="s">
-        <v>3137</v>
+        <v>2590</v>
+      </c>
+      <c r="E315" t="s">
+        <v>3495</v>
       </c>
       <c r="F315" t="s">
-        <v>3138</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>3497</v>
+        <v>3556</v>
       </c>
       <c r="B316" t="s">
         <v>52</v>
@@ -16922,188 +17077,182 @@
         <v>434</v>
       </c>
       <c r="D316" t="s">
-        <v>3198</v>
-      </c>
-      <c r="E316" t="s">
-        <v>3495</v>
+        <v>3557</v>
       </c>
       <c r="F316" t="s">
-        <v>3498</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>3377</v>
+        <v>3136</v>
       </c>
       <c r="B317" t="s">
         <v>52</v>
       </c>
       <c r="C317" t="s">
-        <v>434</v>
+        <v>2530</v>
       </c>
       <c r="D317" t="s">
-        <v>3378</v>
+        <v>3137</v>
       </c>
       <c r="F317" t="s">
-        <v>3379</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>3154</v>
+        <v>3497</v>
       </c>
       <c r="B318" t="s">
-        <v>3155</v>
+        <v>52</v>
       </c>
       <c r="C318" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D318" t="s">
-        <v>3156</v>
+        <v>3198</v>
+      </c>
+      <c r="E318" t="s">
+        <v>3495</v>
       </c>
       <c r="F318" t="s">
-        <v>3157</v>
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B319" t="s">
+        <v>52</v>
+      </c>
+      <c r="C319" t="s">
+        <v>434</v>
+      </c>
+      <c r="D319" t="s">
+        <v>3378</v>
+      </c>
+      <c r="F319" t="s">
+        <v>3379</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>3415</v>
+        <v>3154</v>
       </c>
       <c r="B320" t="s">
-        <v>1343</v>
+        <v>3155</v>
       </c>
       <c r="C320" t="s">
-        <v>434</v>
+        <v>2482</v>
       </c>
       <c r="D320" t="s">
-        <v>3233</v>
+        <v>3156</v>
       </c>
       <c r="F320" t="s">
-        <v>3416</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>2573</v>
-      </c>
-      <c r="B321" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C321" t="s">
-        <v>434</v>
-      </c>
-      <c r="D321" t="s">
-        <v>2465</v>
-      </c>
-      <c r="E321" t="s">
-        <v>2533</v>
-      </c>
-      <c r="F321" t="s">
-        <v>2574</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>2573</v>
+        <v>3415</v>
       </c>
       <c r="B322" t="s">
         <v>1343</v>
       </c>
       <c r="C322" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D322" t="s">
+        <v>3233</v>
       </c>
       <c r="F322" t="s">
-        <v>3037</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>2994</v>
+        <v>2573</v>
       </c>
       <c r="B323" t="s">
         <v>1343</v>
       </c>
       <c r="C323" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D323" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E323" t="s">
+        <v>2533</v>
       </c>
       <c r="F323" t="s">
-        <v>2995</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>2935</v>
+        <v>2573</v>
       </c>
       <c r="B324" t="s">
         <v>1343</v>
       </c>
       <c r="C324" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D324" t="s">
-        <v>3072</v>
+        <v>2530</v>
       </c>
       <c r="F324" t="s">
-        <v>3073</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>2935</v>
+        <v>2994</v>
       </c>
       <c r="B325" t="s">
         <v>1343</v>
       </c>
       <c r="C325" t="s">
-        <v>2742</v>
+        <v>2530</v>
       </c>
       <c r="F325" t="s">
-        <v>3438</v>
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C326" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D326" t="s">
+        <v>3072</v>
+      </c>
+      <c r="F326" t="s">
+        <v>3073</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>346</v>
+        <v>2935</v>
       </c>
       <c r="B327" t="s">
-        <v>347</v>
+        <v>1343</v>
       </c>
       <c r="C327" t="s">
-        <v>434</v>
-      </c>
-      <c r="D327" t="s">
-        <v>2741</v>
-      </c>
-      <c r="E327" t="s">
-        <v>10</v>
+        <v>2742</v>
       </c>
       <c r="F327" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>346</v>
-      </c>
-      <c r="B328" t="s">
-        <v>347</v>
-      </c>
-      <c r="C328" t="s">
-        <v>434</v>
-      </c>
-      <c r="D328" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E328" t="s">
-        <v>2439</v>
-      </c>
-      <c r="F328" t="s">
-        <v>2472</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1695</v>
+        <v>346</v>
       </c>
       <c r="B329" t="s">
         <v>347</v>
@@ -17112,18 +17261,18 @@
         <v>434</v>
       </c>
       <c r="D329" t="s">
-        <v>423</v>
+        <v>2741</v>
       </c>
       <c r="E329" t="s">
-        <v>1317</v>
+        <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>1696</v>
+        <v>348</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1345</v>
+        <v>346</v>
       </c>
       <c r="B330" t="s">
         <v>347</v>
@@ -17132,15 +17281,18 @@
         <v>434</v>
       </c>
       <c r="D330" t="s">
-        <v>2765</v>
+        <v>2438</v>
+      </c>
+      <c r="E330" t="s">
+        <v>2439</v>
       </c>
       <c r="F330" t="s">
-        <v>2766</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1345</v>
+        <v>1695</v>
       </c>
       <c r="B331" t="s">
         <v>347</v>
@@ -17149,94 +17301,100 @@
         <v>434</v>
       </c>
       <c r="D331" t="s">
-        <v>3460</v>
+        <v>423</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1317</v>
       </c>
       <c r="F331" t="s">
-        <v>3461</v>
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B332" t="s">
+        <v>347</v>
+      </c>
+      <c r="C332" t="s">
+        <v>434</v>
+      </c>
+      <c r="D332" t="s">
+        <v>2765</v>
+      </c>
+      <c r="F332" t="s">
+        <v>2766</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>3341</v>
+        <v>1345</v>
       </c>
       <c r="B333" t="s">
-        <v>1476</v>
+        <v>347</v>
       </c>
       <c r="C333" t="s">
         <v>434</v>
       </c>
       <c r="D333" t="s">
-        <v>2570</v>
+        <v>3460</v>
       </c>
       <c r="F333" t="s">
-        <v>3342</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>2448</v>
-      </c>
-      <c r="B334" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C334" t="s">
-        <v>434</v>
-      </c>
-      <c r="D334" t="s">
-        <v>2454</v>
-      </c>
-      <c r="F334" t="s">
-        <v>3165</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>3409</v>
+        <v>3341</v>
       </c>
       <c r="B335" t="s">
         <v>1476</v>
       </c>
       <c r="C335" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D335" t="s">
+        <v>2570</v>
       </c>
       <c r="F335" t="s">
-        <v>3410</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>3108</v>
+        <v>2448</v>
       </c>
       <c r="B336" t="s">
         <v>1476</v>
       </c>
       <c r="C336" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D336" t="s">
+        <v>2454</v>
       </c>
       <c r="F336" t="s">
-        <v>3490</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>3108</v>
+        <v>3409</v>
       </c>
       <c r="B337" t="s">
         <v>1476</v>
       </c>
       <c r="C337" t="s">
-        <v>434</v>
-      </c>
-      <c r="D337" t="s">
-        <v>2544</v>
+        <v>2742</v>
       </c>
       <c r="F337" t="s">
-        <v>3109</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>3551</v>
+        <v>3108</v>
       </c>
       <c r="B338" t="s">
         <v>1476</v>
@@ -17244,95 +17402,95 @@
       <c r="C338" t="s">
         <v>2530</v>
       </c>
-      <c r="D338" t="s">
-        <v>3552</v>
-      </c>
       <c r="F338" t="s">
-        <v>3553</v>
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C339" t="s">
+        <v>434</v>
+      </c>
+      <c r="D339" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F339" t="s">
+        <v>3109</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>3442</v>
+        <v>3551</v>
       </c>
       <c r="B340" t="s">
-        <v>1316</v>
+        <v>1476</v>
       </c>
       <c r="C340" t="s">
-        <v>434</v>
+        <v>2530</v>
       </c>
       <c r="D340" t="s">
-        <v>1473</v>
+        <v>3552</v>
       </c>
       <c r="F340" t="s">
-        <v>3443</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>3266</v>
-      </c>
-      <c r="B341" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C341" t="s">
-        <v>2530</v>
-      </c>
-      <c r="D341" t="s">
-        <v>3404</v>
-      </c>
-      <c r="F341" t="s">
-        <v>3405</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>3143</v>
+        <v>3442</v>
       </c>
       <c r="B342" t="s">
         <v>1316</v>
       </c>
       <c r="C342" t="s">
+        <v>434</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F342" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C343" t="s">
         <v>2530</v>
       </c>
-      <c r="F342" t="s">
-        <v>3183</v>
+      <c r="D343" t="s">
+        <v>3404</v>
+      </c>
+      <c r="F343" t="s">
+        <v>3405</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>3215</v>
+        <v>3143</v>
       </c>
       <c r="B344" t="s">
-        <v>472</v>
+        <v>1316</v>
       </c>
       <c r="C344" t="s">
-        <v>2742</v>
+        <v>2530</v>
       </c>
       <c r="F344" t="s">
-        <v>3216</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>3554</v>
-      </c>
-      <c r="B345" t="s">
-        <v>472</v>
-      </c>
-      <c r="C345" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D345" t="s">
-        <v>2745</v>
-      </c>
-      <c r="F345" t="s">
-        <v>3555</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>471</v>
+        <v>3215</v>
       </c>
       <c r="B346" t="s">
         <v>472</v>
@@ -17341,117 +17499,105 @@
         <v>2742</v>
       </c>
       <c r="F346" t="s">
-        <v>2780</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>471</v>
+        <v>3554</v>
       </c>
       <c r="B347" t="s">
         <v>472</v>
       </c>
       <c r="C347" t="s">
-        <v>2530</v>
+        <v>2482</v>
+      </c>
+      <c r="D347" t="s">
+        <v>2745</v>
       </c>
       <c r="F347" t="s">
-        <v>3255</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>2445</v>
+        <v>471</v>
       </c>
       <c r="B348" t="s">
         <v>472</v>
       </c>
       <c r="C348" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D348" t="s">
-        <v>3098</v>
+        <v>2742</v>
       </c>
       <c r="F348" t="s">
-        <v>3100</v>
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>471</v>
+      </c>
+      <c r="B349" t="s">
+        <v>472</v>
+      </c>
+      <c r="C349" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F349" t="s">
+        <v>3255</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>3150</v>
+        <v>2445</v>
       </c>
       <c r="B350" t="s">
-        <v>1358</v>
+        <v>472</v>
       </c>
       <c r="C350" t="s">
-        <v>434</v>
+        <v>2482</v>
       </c>
       <c r="D350" t="s">
-        <v>3233</v>
+        <v>3098</v>
       </c>
       <c r="F350" t="s">
-        <v>3247</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>2520</v>
+        <v>3150</v>
       </c>
       <c r="B352" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
       <c r="C352" t="s">
         <v>434</v>
       </c>
       <c r="D352" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E352" t="s">
-        <v>3495</v>
+        <v>3233</v>
       </c>
       <c r="F352" t="s">
-        <v>3528</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>3518</v>
+        <v>3619</v>
       </c>
       <c r="B353" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
       <c r="C353" t="s">
-        <v>434</v>
-      </c>
-      <c r="D353" t="s">
-        <v>3385</v>
-      </c>
-      <c r="E353" t="s">
-        <v>3495</v>
+        <v>2530</v>
       </c>
       <c r="F353" t="s">
-        <v>3519</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>2577</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C354" t="s">
-        <v>434</v>
-      </c>
-      <c r="D354" t="s">
-        <v>2617</v>
-      </c>
-      <c r="F354" t="s">
-        <v>2836</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>2577</v>
+        <v>2520</v>
       </c>
       <c r="B355" t="s">
         <v>1366</v>
@@ -17460,30 +17606,33 @@
         <v>434</v>
       </c>
       <c r="D355" t="s">
-        <v>2532</v>
+        <v>2438</v>
       </c>
       <c r="E355" t="s">
-        <v>2533</v>
+        <v>3495</v>
       </c>
       <c r="F355" t="s">
-        <v>2578</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>2577</v>
+        <v>3518</v>
       </c>
       <c r="B356" t="s">
         <v>1366</v>
       </c>
       <c r="C356" t="s">
-        <v>2530</v>
+        <v>434</v>
       </c>
       <c r="D356" t="s">
-        <v>3167</v>
+        <v>3385</v>
+      </c>
+      <c r="E356" t="s">
+        <v>3495</v>
       </c>
       <c r="F356" t="s">
-        <v>3280</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -17497,10 +17646,10 @@
         <v>434</v>
       </c>
       <c r="D357" t="s">
-        <v>3223</v>
+        <v>2617</v>
       </c>
       <c r="F357" t="s">
-        <v>3224</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -17514,10 +17663,13 @@
         <v>434</v>
       </c>
       <c r="D358" t="s">
-        <v>2757</v>
+        <v>2532</v>
+      </c>
+      <c r="E358" t="s">
+        <v>2533</v>
       </c>
       <c r="F358" t="s">
-        <v>3340</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -17528,13 +17680,13 @@
         <v>1366</v>
       </c>
       <c r="C359" t="s">
-        <v>434</v>
+        <v>2530</v>
       </c>
       <c r="D359" t="s">
-        <v>3446</v>
+        <v>3167</v>
       </c>
       <c r="F359" t="s">
-        <v>2836</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -17548,71 +17700,80 @@
         <v>434</v>
       </c>
       <c r="D360" t="s">
-        <v>2747</v>
+        <v>3223</v>
       </c>
       <c r="F360" t="s">
-        <v>3101</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>3476</v>
+        <v>2577</v>
       </c>
       <c r="B361" t="s">
         <v>1366</v>
       </c>
       <c r="C361" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D361" t="s">
+        <v>2757</v>
       </c>
       <c r="F361" t="s">
-        <v>3477</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>2943</v>
+        <v>2577</v>
       </c>
       <c r="B362" t="s">
         <v>1366</v>
       </c>
       <c r="C362" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D362" t="s">
+        <v>3446</v>
       </c>
       <c r="F362" t="s">
-        <v>3079</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>3577</v>
+        <v>2577</v>
       </c>
       <c r="B363" t="s">
         <v>1366</v>
       </c>
       <c r="C363" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D363" t="s">
+        <v>2747</v>
       </c>
       <c r="F363" t="s">
-        <v>3578</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>2522</v>
+        <v>3476</v>
       </c>
       <c r="B364" t="s">
         <v>1366</v>
       </c>
       <c r="C364" t="s">
-        <v>2750</v>
+        <v>2742</v>
       </c>
       <c r="F364" t="s">
-        <v>3089</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>2807</v>
+        <v>2943</v>
       </c>
       <c r="B365" t="s">
         <v>1366</v>
@@ -17621,253 +17782,235 @@
         <v>2530</v>
       </c>
       <c r="F365" t="s">
-        <v>2808</v>
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C366" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F366" t="s">
+        <v>3578</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>3313</v>
+        <v>2522</v>
       </c>
       <c r="B367" t="s">
-        <v>2942</v>
+        <v>1366</v>
       </c>
       <c r="C367" t="s">
-        <v>2530</v>
-      </c>
-      <c r="D367" t="s">
-        <v>3167</v>
+        <v>2750</v>
       </c>
       <c r="F367" t="s">
-        <v>3314</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>2467</v>
+        <v>2807</v>
       </c>
       <c r="B368" t="s">
-        <v>2942</v>
+        <v>1366</v>
       </c>
       <c r="C368" t="s">
-        <v>434</v>
-      </c>
-      <c r="D368">
-        <v>2014</v>
-      </c>
-      <c r="E368" t="s">
-        <v>3495</v>
+        <v>2530</v>
       </c>
       <c r="F368" t="s">
-        <v>3512</v>
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C369" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F369" t="s">
+        <v>3640</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>3384</v>
+        <v>1665</v>
       </c>
       <c r="B370" t="s">
-        <v>1326</v>
+        <v>1366</v>
       </c>
       <c r="C370" t="s">
-        <v>434</v>
+        <v>2530</v>
       </c>
       <c r="D370" t="s">
-        <v>3385</v>
+        <v>3552</v>
       </c>
       <c r="F370" t="s">
-        <v>3386</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B371" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C371" t="s">
-        <v>2742</v>
-      </c>
-      <c r="F371" t="s">
-        <v>3078</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>2845</v>
+        <v>3313</v>
       </c>
       <c r="B372" t="s">
-        <v>1326</v>
+        <v>2942</v>
       </c>
       <c r="C372" t="s">
-        <v>2742</v>
+        <v>2530</v>
+      </c>
+      <c r="D372" t="s">
+        <v>3167</v>
       </c>
       <c r="F372" t="s">
-        <v>2743</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>2771</v>
+        <v>2467</v>
       </c>
       <c r="B373" t="s">
-        <v>1326</v>
+        <v>2942</v>
       </c>
       <c r="C373" t="s">
-        <v>2742</v>
-      </c>
-      <c r="D373" t="s">
-        <v>2772</v>
+        <v>434</v>
+      </c>
+      <c r="D373">
+        <v>2014</v>
+      </c>
+      <c r="E373" t="s">
+        <v>3495</v>
       </c>
       <c r="F373" t="s">
-        <v>2773</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>2312</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C374" t="s">
-        <v>434</v>
-      </c>
-      <c r="D374" t="s">
-        <v>2475</v>
-      </c>
-      <c r="E374" t="s">
-        <v>2439</v>
-      </c>
-      <c r="F374" t="s">
-        <v>2476</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>2312</v>
+        <v>3384</v>
       </c>
       <c r="B375" t="s">
         <v>1326</v>
       </c>
       <c r="C375" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D375" t="s">
+        <v>3385</v>
       </c>
       <c r="F375" t="s">
-        <v>3219</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>2312</v>
+        <v>1472</v>
       </c>
       <c r="B376" t="s">
         <v>1326</v>
       </c>
       <c r="C376" t="s">
-        <v>434</v>
-      </c>
-      <c r="D376" t="s">
-        <v>3227</v>
+        <v>2742</v>
       </c>
       <c r="F376" t="s">
-        <v>3228</v>
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C377" t="s">
+        <v>2742</v>
+      </c>
+      <c r="F377" t="s">
+        <v>2743</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>2756</v>
+        <v>2771</v>
       </c>
       <c r="B378" t="s">
-        <v>1442</v>
+        <v>1326</v>
       </c>
       <c r="C378" t="s">
-        <v>434</v>
+        <v>2742</v>
       </c>
       <c r="D378" t="s">
-        <v>2757</v>
+        <v>2772</v>
       </c>
       <c r="F378" t="s">
-        <v>2758</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>2593</v>
+        <v>2312</v>
       </c>
       <c r="B379" t="s">
-        <v>1442</v>
+        <v>1326</v>
       </c>
       <c r="C379" t="s">
         <v>434</v>
       </c>
       <c r="D379" t="s">
-        <v>2757</v>
+        <v>2475</v>
+      </c>
+      <c r="E379" t="s">
+        <v>2439</v>
       </c>
       <c r="F379" t="s">
-        <v>3433</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>2593</v>
+        <v>2312</v>
       </c>
       <c r="B380" t="s">
-        <v>1442</v>
+        <v>1326</v>
       </c>
       <c r="C380" t="s">
-        <v>434</v>
-      </c>
-      <c r="D380" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E380" t="s">
-        <v>3495</v>
+        <v>2530</v>
       </c>
       <c r="F380" t="s">
-        <v>3511</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>2593</v>
+        <v>2312</v>
       </c>
       <c r="B381" t="s">
-        <v>1442</v>
+        <v>1326</v>
       </c>
       <c r="C381" t="s">
         <v>434</v>
       </c>
       <c r="D381" t="s">
-        <v>2747</v>
+        <v>3227</v>
       </c>
       <c r="F381" t="s">
-        <v>3018</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>3509</v>
-      </c>
-      <c r="B382" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C382" t="s">
-        <v>434</v>
-      </c>
-      <c r="D382" t="s">
-        <v>3385</v>
-      </c>
-      <c r="E382" t="s">
-        <v>3495</v>
-      </c>
-      <c r="F382" t="s">
-        <v>3510</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>3002</v>
+        <v>2756</v>
       </c>
       <c r="B383" t="s">
         <v>1442</v>
@@ -17876,162 +18019,171 @@
         <v>434</v>
       </c>
       <c r="D383" t="s">
-        <v>3003</v>
+        <v>2757</v>
       </c>
       <c r="F383" t="s">
-        <v>3004</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>3002</v>
+        <v>2593</v>
       </c>
       <c r="B384" t="s">
         <v>1442</v>
       </c>
       <c r="C384" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D384" t="s">
+        <v>2757</v>
       </c>
       <c r="F384" t="s">
-        <v>3166</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>3343</v>
+        <v>2593</v>
       </c>
       <c r="B385" t="s">
         <v>1442</v>
       </c>
       <c r="C385" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D385" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E385" t="s">
+        <v>3495</v>
       </c>
       <c r="F385" t="s">
-        <v>3344</v>
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C386" t="s">
+        <v>434</v>
+      </c>
+      <c r="D386" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F386" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C387" t="s">
+        <v>434</v>
+      </c>
+      <c r="D387" t="s">
+        <v>3385</v>
+      </c>
+      <c r="E387" t="s">
+        <v>3495</v>
+      </c>
+      <c r="F387" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C388" t="s">
+        <v>434</v>
+      </c>
+      <c r="D388" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F388" t="s">
+        <v>3004</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1456</v>
+        <v>3002</v>
       </c>
       <c r="B389" t="s">
-        <v>1401</v>
+        <v>1442</v>
       </c>
       <c r="C389" t="s">
-        <v>2530</v>
-      </c>
-      <c r="D389" t="s">
-        <v>3552</v>
+        <v>2742</v>
       </c>
       <c r="F389" t="s">
-        <v>3591</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>2470</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C391" t="s">
-        <v>434</v>
-      </c>
-      <c r="D391" t="s">
-        <v>2535</v>
-      </c>
-      <c r="E391" t="s">
-        <v>2533</v>
-      </c>
-      <c r="F391" t="s">
-        <v>2536</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>2470</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C392" t="s">
-        <v>434</v>
-      </c>
-      <c r="D392" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E392" t="s">
-        <v>2439</v>
-      </c>
-      <c r="F392" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>3204</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C393" t="s">
-        <v>434</v>
-      </c>
-      <c r="D393" t="s">
-        <v>3047</v>
-      </c>
-      <c r="F393" t="s">
-        <v>3205</v>
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C390" t="s">
+        <v>2742</v>
+      </c>
+      <c r="F390" t="s">
+        <v>3344</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>2938</v>
+        <v>1456</v>
       </c>
       <c r="B394" t="s">
-        <v>1373</v>
+        <v>1401</v>
       </c>
       <c r="C394" t="s">
-        <v>434</v>
+        <v>2530</v>
       </c>
       <c r="D394" t="s">
-        <v>3038</v>
+        <v>3552</v>
       </c>
       <c r="F394" t="s">
-        <v>3039</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>3025</v>
-      </c>
-      <c r="B395" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C395" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F395" t="s">
-        <v>3026</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>3025</v>
+        <v>2470</v>
       </c>
       <c r="B396" t="s">
         <v>1373</v>
       </c>
       <c r="C396" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D396" t="s">
+        <v>2535</v>
+      </c>
+      <c r="E396" t="s">
+        <v>2533</v>
       </c>
       <c r="F396" t="s">
-        <v>3053</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>3248</v>
+        <v>2470</v>
       </c>
       <c r="B397" t="s">
         <v>1373</v>
@@ -18040,120 +18192,114 @@
         <v>434</v>
       </c>
       <c r="D397" t="s">
-        <v>2454</v>
+        <v>2438</v>
+      </c>
+      <c r="E397" t="s">
+        <v>2439</v>
       </c>
       <c r="F397" t="s">
-        <v>3249</v>
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C398" t="s">
+        <v>434</v>
+      </c>
+      <c r="D398" t="s">
+        <v>3047</v>
+      </c>
+      <c r="F398" t="s">
+        <v>3205</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>2463</v>
+        <v>2938</v>
       </c>
       <c r="B399" t="s">
-        <v>574</v>
+        <v>1373</v>
       </c>
       <c r="C399" t="s">
-        <v>3418</v>
+        <v>434</v>
       </c>
       <c r="D399" t="s">
-        <v>3419</v>
+        <v>3038</v>
       </c>
       <c r="F399" t="s">
-        <v>3420</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>2463</v>
+        <v>3025</v>
       </c>
       <c r="B400" t="s">
-        <v>574</v>
+        <v>1373</v>
       </c>
       <c r="C400" t="s">
-        <v>434</v>
-      </c>
-      <c r="D400" t="s">
-        <v>3054</v>
+        <v>2530</v>
       </c>
       <c r="F400" t="s">
-        <v>3055</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>573</v>
+        <v>3025</v>
       </c>
       <c r="B401" t="s">
-        <v>574</v>
+        <v>1373</v>
       </c>
       <c r="C401" t="s">
-        <v>434</v>
-      </c>
-      <c r="D401" t="s">
-        <v>2570</v>
-      </c>
-      <c r="E401" t="s">
-        <v>2533</v>
+        <v>2742</v>
       </c>
       <c r="F401" t="s">
-        <v>2571</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>573</v>
+        <v>3248</v>
       </c>
       <c r="B402" t="s">
-        <v>574</v>
+        <v>1373</v>
       </c>
       <c r="C402" t="s">
         <v>434</v>
       </c>
       <c r="D402" t="s">
-        <v>2465</v>
-      </c>
-      <c r="E402" t="s">
-        <v>2439</v>
+        <v>2454</v>
       </c>
       <c r="F402" t="s">
-        <v>2466</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>573</v>
-      </c>
-      <c r="B403" t="s">
-        <v>574</v>
-      </c>
-      <c r="C403" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F403" t="s">
-        <v>3360</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>3307</v>
+        <v>2463</v>
       </c>
       <c r="B404" t="s">
         <v>574</v>
       </c>
       <c r="C404" t="s">
-        <v>434</v>
+        <v>3418</v>
       </c>
       <c r="D404" t="s">
-        <v>2757</v>
+        <v>3419</v>
       </c>
       <c r="F404" t="s">
-        <v>3308</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>3307</v>
+        <v>2463</v>
       </c>
       <c r="B405" t="s">
         <v>574</v>
@@ -18162,94 +18308,103 @@
         <v>434</v>
       </c>
       <c r="D405" t="s">
-        <v>2568</v>
+        <v>3054</v>
       </c>
       <c r="F405" t="s">
-        <v>3359</v>
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>573</v>
+      </c>
+      <c r="B406" t="s">
+        <v>574</v>
+      </c>
+      <c r="C406" t="s">
+        <v>434</v>
+      </c>
+      <c r="D406" t="s">
+        <v>2570</v>
+      </c>
+      <c r="E406" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F406" t="s">
+        <v>2571</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>2589</v>
+        <v>573</v>
       </c>
       <c r="B407" t="s">
-        <v>1320</v>
+        <v>574</v>
       </c>
       <c r="C407" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D407" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E407" t="s">
+        <v>2439</v>
       </c>
       <c r="F407" t="s">
-        <v>3127</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>2589</v>
+        <v>573</v>
       </c>
       <c r="B408" t="s">
-        <v>1320</v>
+        <v>574</v>
       </c>
       <c r="C408" t="s">
-        <v>434</v>
-      </c>
-      <c r="D408" t="s">
-        <v>2590</v>
-      </c>
-      <c r="E408" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="F408" t="s">
-        <v>2591</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>2947</v>
+        <v>3307</v>
       </c>
       <c r="B409" t="s">
-        <v>1320</v>
+        <v>574</v>
       </c>
       <c r="C409" t="s">
         <v>434</v>
       </c>
       <c r="D409" t="s">
-        <v>3453</v>
+        <v>2757</v>
       </c>
       <c r="F409" t="s">
-        <v>3454</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>3411</v>
+        <v>3307</v>
       </c>
       <c r="B410" t="s">
-        <v>1320</v>
+        <v>574</v>
       </c>
       <c r="C410" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D410" t="s">
+        <v>2568</v>
       </c>
       <c r="F410" t="s">
-        <v>3412</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>3220</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C411" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F411" t="s">
-        <v>3221</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>2609</v>
+        <v>2589</v>
       </c>
       <c r="B412" t="s">
         <v>1320</v>
@@ -18257,16 +18412,13 @@
       <c r="C412" t="s">
         <v>2530</v>
       </c>
-      <c r="E412" t="s">
-        <v>3495</v>
-      </c>
       <c r="F412" t="s">
-        <v>3535</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>2312</v>
+        <v>2589</v>
       </c>
       <c r="B413" t="s">
         <v>1320</v>
@@ -18275,18 +18427,18 @@
         <v>434</v>
       </c>
       <c r="D413" t="s">
-        <v>2455</v>
+        <v>2590</v>
       </c>
       <c r="E413" t="s">
-        <v>2439</v>
+        <v>2533</v>
       </c>
       <c r="F413" t="s">
-        <v>2456</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1639</v>
+        <v>2947</v>
       </c>
       <c r="B414" t="s">
         <v>1320</v>
@@ -18295,114 +18447,114 @@
         <v>434</v>
       </c>
       <c r="D414" t="s">
-        <v>3524</v>
-      </c>
-      <c r="E414" t="s">
-        <v>3495</v>
+        <v>3453</v>
       </c>
       <c r="F414" t="s">
-        <v>3525</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>3589</v>
+        <v>3411</v>
       </c>
       <c r="B415" t="s">
         <v>1320</v>
       </c>
       <c r="C415" t="s">
+        <v>2742</v>
+      </c>
+      <c r="F415" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C416" t="s">
         <v>2530</v>
       </c>
-      <c r="F415" t="s">
-        <v>3590</v>
+      <c r="F416" t="s">
+        <v>3221</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>2832</v>
+        <v>2609</v>
       </c>
       <c r="B417" t="s">
-        <v>2600</v>
+        <v>1320</v>
       </c>
       <c r="C417" t="s">
         <v>2530</v>
       </c>
+      <c r="E417" t="s">
+        <v>3495</v>
+      </c>
       <c r="F417" t="s">
-        <v>2833</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>3272</v>
+        <v>2312</v>
       </c>
       <c r="B418" t="s">
-        <v>2600</v>
+        <v>1320</v>
       </c>
       <c r="C418" t="s">
         <v>434</v>
       </c>
       <c r="D418" t="s">
-        <v>3273</v>
+        <v>2455</v>
+      </c>
+      <c r="E418" t="s">
+        <v>2439</v>
       </c>
       <c r="F418" t="s">
-        <v>3274</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>2599</v>
+        <v>1639</v>
       </c>
       <c r="B419" t="s">
-        <v>2600</v>
+        <v>1320</v>
       </c>
       <c r="C419" t="s">
         <v>434</v>
       </c>
       <c r="D419" t="s">
-        <v>3304</v>
+        <v>3524</v>
+      </c>
+      <c r="E419" t="s">
+        <v>3495</v>
       </c>
       <c r="F419" t="s">
-        <v>3305</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>2762</v>
+        <v>3589</v>
       </c>
       <c r="B420" t="s">
-        <v>2600</v>
+        <v>1320</v>
       </c>
       <c r="C420" t="s">
-        <v>434</v>
-      </c>
-      <c r="D420" t="s">
-        <v>2763</v>
+        <v>2530</v>
       </c>
       <c r="F420" t="s">
-        <v>2764</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>3593</v>
-      </c>
-      <c r="B421" t="s">
-        <v>2600</v>
-      </c>
-      <c r="C421" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D421">
-        <v>2014</v>
-      </c>
-      <c r="F421" t="s">
-        <v>3575</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>3593</v>
+        <v>2832</v>
       </c>
       <c r="B422" t="s">
         <v>2600</v>
@@ -18410,30 +18562,30 @@
       <c r="C422" t="s">
         <v>2530</v>
       </c>
-      <c r="D422" t="s">
-        <v>3552</v>
-      </c>
       <c r="F422" t="s">
-        <v>3594</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>3184</v>
+        <v>3272</v>
       </c>
       <c r="B423" t="s">
         <v>2600</v>
       </c>
       <c r="C423" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D423" t="s">
+        <v>3273</v>
       </c>
       <c r="F423" t="s">
-        <v>3185</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>3402</v>
+        <v>2599</v>
       </c>
       <c r="B424" t="s">
         <v>2600</v>
@@ -18442,15 +18594,15 @@
         <v>434</v>
       </c>
       <c r="D424" t="s">
-        <v>3273</v>
+        <v>3304</v>
       </c>
       <c r="F424" t="s">
-        <v>3403</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>3108</v>
+        <v>2762</v>
       </c>
       <c r="B425" t="s">
         <v>2600</v>
@@ -18459,926 +18611,923 @@
         <v>434</v>
       </c>
       <c r="D425" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E425" t="s">
-        <v>3495</v>
+        <v>2763</v>
       </c>
       <c r="F425" t="s">
-        <v>3534</v>
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>3593</v>
+      </c>
+      <c r="B426" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C426" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D426">
+        <v>2014</v>
+      </c>
+      <c r="F426" t="s">
+        <v>3575</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>2795</v>
+        <v>3593</v>
       </c>
       <c r="B427" t="s">
-        <v>1363</v>
+        <v>2600</v>
       </c>
       <c r="C427" t="s">
-        <v>434</v>
+        <v>2530</v>
       </c>
       <c r="D427" t="s">
-        <v>2796</v>
+        <v>3552</v>
       </c>
       <c r="F427" t="s">
-        <v>2797</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>2453</v>
+        <v>3184</v>
       </c>
       <c r="B428" t="s">
-        <v>1363</v>
+        <v>2600</v>
       </c>
       <c r="C428" t="s">
-        <v>434</v>
-      </c>
-      <c r="D428" t="s">
-        <v>2454</v>
-      </c>
-      <c r="E428" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="F428" t="s">
-        <v>2592</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>2453</v>
+        <v>3402</v>
       </c>
       <c r="B429" t="s">
-        <v>1363</v>
+        <v>2600</v>
       </c>
       <c r="C429" t="s">
         <v>434</v>
       </c>
       <c r="D429" t="s">
-        <v>2532</v>
-      </c>
-      <c r="E429" t="s">
-        <v>2533</v>
+        <v>3273</v>
       </c>
       <c r="F429" t="s">
-        <v>2534</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>3352</v>
+        <v>3108</v>
       </c>
       <c r="B430" t="s">
-        <v>1363</v>
+        <v>2600</v>
       </c>
       <c r="C430" t="s">
         <v>434</v>
       </c>
       <c r="D430" t="s">
-        <v>2454</v>
+        <v>2438</v>
+      </c>
+      <c r="E430" t="s">
+        <v>3495</v>
       </c>
       <c r="F430" t="s">
-        <v>3475</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>3352</v>
+        <v>3632</v>
       </c>
       <c r="B431" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C431" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F431" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B433" t="s">
         <v>1363</v>
       </c>
-      <c r="C431" t="s">
-        <v>434</v>
-      </c>
-      <c r="D431" t="s">
-        <v>3066</v>
-      </c>
-      <c r="F431" t="s">
-        <v>3353</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>2767</v>
-      </c>
-      <c r="B432" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C432" t="s">
-        <v>434</v>
-      </c>
-      <c r="D432" t="s">
-        <v>2768</v>
-      </c>
-      <c r="F432" t="s">
-        <v>2769</v>
+      <c r="C433" t="s">
+        <v>434</v>
+      </c>
+      <c r="D433" t="s">
+        <v>2796</v>
+      </c>
+      <c r="F433" t="s">
+        <v>2797</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>3031</v>
+        <v>2453</v>
       </c>
       <c r="B434" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="C434" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D434" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E434" t="s">
+        <v>2533</v>
       </c>
       <c r="F434" t="s">
-        <v>3032</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>3327</v>
+        <v>2453</v>
       </c>
       <c r="B435" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="C435" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D435" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E435" t="s">
+        <v>2533</v>
       </c>
       <c r="F435" t="s">
-        <v>3328</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>2642</v>
+        <v>3352</v>
       </c>
       <c r="B436" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="C436" t="s">
         <v>434</v>
       </c>
       <c r="D436" t="s">
-        <v>3484</v>
+        <v>2454</v>
       </c>
       <c r="F436" t="s">
-        <v>3485</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>2642</v>
+        <v>3352</v>
       </c>
       <c r="B437" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="C437" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D437" t="s">
+        <v>3066</v>
       </c>
       <c r="F437" t="s">
-        <v>3290</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>3520</v>
+        <v>2767</v>
       </c>
       <c r="B438" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="C438" t="s">
         <v>434</v>
       </c>
       <c r="D438" t="s">
-        <v>3521</v>
-      </c>
-      <c r="E438" t="s">
-        <v>3495</v>
+        <v>2768</v>
       </c>
       <c r="F438" t="s">
-        <v>3522</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
-        <v>3056</v>
-      </c>
-      <c r="B439" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C439" t="s">
-        <v>434</v>
-      </c>
-      <c r="D439" t="s">
-        <v>3011</v>
-      </c>
-      <c r="F439" t="s">
-        <v>3057</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>3516</v>
+        <v>433</v>
       </c>
       <c r="B440" t="s">
         <v>1351</v>
       </c>
       <c r="C440" t="s">
-        <v>434</v>
-      </c>
-      <c r="D440" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E440" t="s">
-        <v>3495</v>
+        <v>2530</v>
       </c>
       <c r="F440" t="s">
-        <v>3517</v>
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C441" t="s">
+        <v>2742</v>
+      </c>
+      <c r="F441" t="s">
+        <v>3032</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>3536</v>
+        <v>3327</v>
       </c>
       <c r="B442" t="s">
-        <v>33</v>
+        <v>1351</v>
       </c>
       <c r="C442" t="s">
-        <v>434</v>
-      </c>
-      <c r="D442" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E442" t="s">
-        <v>3495</v>
+        <v>2530</v>
       </c>
       <c r="F442" t="s">
-        <v>3537</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>3211</v>
+        <v>2642</v>
       </c>
       <c r="B443" t="s">
-        <v>33</v>
+        <v>1351</v>
       </c>
       <c r="C443" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D443" t="s">
+        <v>3484</v>
       </c>
       <c r="F443" t="s">
-        <v>3212</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>2834</v>
+        <v>2642</v>
       </c>
       <c r="B444" t="s">
-        <v>33</v>
+        <v>1351</v>
       </c>
       <c r="C444" t="s">
-        <v>2530</v>
+        <v>2742</v>
       </c>
       <c r="F444" t="s">
-        <v>2835</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>2830</v>
+        <v>2642</v>
       </c>
       <c r="B445" t="s">
-        <v>33</v>
+        <v>1351</v>
       </c>
       <c r="C445" t="s">
         <v>2530</v>
       </c>
       <c r="F445" t="s">
-        <v>2831</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>2595</v>
+        <v>3520</v>
       </c>
       <c r="B446" t="s">
-        <v>33</v>
+        <v>1351</v>
       </c>
       <c r="C446" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D446" t="s">
+        <v>3521</v>
+      </c>
+      <c r="E446" t="s">
+        <v>3495</v>
       </c>
       <c r="F446" t="s">
-        <v>3422</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>2811</v>
+        <v>3056</v>
       </c>
       <c r="B447" t="s">
-        <v>33</v>
+        <v>1351</v>
       </c>
       <c r="C447" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D447" t="s">
+        <v>3011</v>
       </c>
       <c r="F447" t="s">
-        <v>2812</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>2840</v>
+        <v>3516</v>
       </c>
       <c r="B448" t="s">
-        <v>33</v>
+        <v>1351</v>
       </c>
       <c r="C448" t="s">
         <v>434</v>
       </c>
       <c r="D448" t="s">
-        <v>2841</v>
+        <v>2438</v>
+      </c>
+      <c r="E448" t="s">
+        <v>3495</v>
       </c>
       <c r="F448" t="s">
-        <v>2842</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>2840</v>
+        <v>3650</v>
       </c>
       <c r="B449" t="s">
-        <v>33</v>
+        <v>1351</v>
       </c>
       <c r="C449" t="s">
         <v>2530</v>
       </c>
-      <c r="D449" t="s">
-        <v>3552</v>
-      </c>
       <c r="F449" t="s">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
-        <v>3370</v>
-      </c>
-      <c r="B450" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B451" t="s">
         <v>33</v>
       </c>
-      <c r="C450" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D450" t="s">
-        <v>3371</v>
-      </c>
-      <c r="F450" t="s">
-        <v>3372</v>
+      <c r="C451" t="s">
+        <v>434</v>
+      </c>
+      <c r="D451" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E451" t="s">
+        <v>3495</v>
+      </c>
+      <c r="F451" t="s">
+        <v>3537</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>3232</v>
+        <v>3616</v>
       </c>
       <c r="B452" t="s">
-        <v>1338</v>
+        <v>33</v>
       </c>
       <c r="C452" t="s">
-        <v>434</v>
-      </c>
-      <c r="D452" t="s">
-        <v>3233</v>
+        <v>2530</v>
       </c>
       <c r="F452" t="s">
-        <v>3234</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>3472</v>
+        <v>3211</v>
       </c>
       <c r="B453" t="s">
-        <v>1338</v>
+        <v>33</v>
       </c>
       <c r="C453" t="s">
-        <v>434</v>
-      </c>
-      <c r="D453" t="s">
-        <v>2568</v>
+        <v>2742</v>
       </c>
       <c r="F453" t="s">
-        <v>3473</v>
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B454" t="s">
+        <v>33</v>
+      </c>
+      <c r="C454" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F454" t="s">
+        <v>2835</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>2744</v>
+        <v>2830</v>
       </c>
       <c r="B455" t="s">
-        <v>1323</v>
+        <v>33</v>
       </c>
       <c r="C455" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D455" t="s">
-        <v>2745</v>
+        <v>2530</v>
       </c>
       <c r="F455" t="s">
-        <v>2746</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>2782</v>
+        <v>2595</v>
       </c>
       <c r="B456" t="s">
-        <v>1323</v>
+        <v>33</v>
       </c>
       <c r="C456" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D456" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="F456" t="s">
-        <v>2783</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>3432</v>
+        <v>2595</v>
       </c>
       <c r="B457" t="s">
-        <v>1323</v>
+        <v>33</v>
       </c>
       <c r="C457" t="s">
         <v>2530</v>
       </c>
       <c r="F457" t="s">
-        <v>2829</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>2605</v>
+        <v>2811</v>
       </c>
       <c r="B458" t="s">
-        <v>1323</v>
+        <v>33</v>
       </c>
       <c r="C458" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D458" t="s">
-        <v>3200</v>
+        <v>2530</v>
       </c>
       <c r="F458" t="s">
-        <v>2774</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>3466</v>
+        <v>2840</v>
       </c>
       <c r="B459" t="s">
-        <v>1323</v>
+        <v>33</v>
       </c>
       <c r="C459" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D459" t="s">
+        <v>2841</v>
       </c>
       <c r="F459" t="s">
-        <v>3467</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>2605</v>
+        <v>2840</v>
       </c>
       <c r="B460" t="s">
-        <v>1323</v>
+        <v>33</v>
       </c>
       <c r="C460" t="s">
-        <v>434</v>
+        <v>2530</v>
       </c>
       <c r="D460" t="s">
-        <v>2992</v>
+        <v>3552</v>
       </c>
       <c r="F460" t="s">
-        <v>3320</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>3062</v>
+        <v>3370</v>
       </c>
       <c r="B461" t="s">
-        <v>1323</v>
+        <v>33</v>
       </c>
       <c r="C461" t="s">
-        <v>434</v>
+        <v>2482</v>
       </c>
       <c r="D461" t="s">
-        <v>3189</v>
+        <v>3371</v>
       </c>
       <c r="F461" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
-        <v>3062</v>
-      </c>
-      <c r="B462" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C462" t="s">
-        <v>434</v>
-      </c>
-      <c r="D462" t="s">
-        <v>3038</v>
-      </c>
-      <c r="F462" t="s">
-        <v>3397</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>3062</v>
+        <v>3232</v>
       </c>
       <c r="B463" t="s">
-        <v>1323</v>
+        <v>1338</v>
       </c>
       <c r="C463" t="s">
         <v>434</v>
       </c>
       <c r="D463" t="s">
-        <v>2763</v>
+        <v>3233</v>
       </c>
       <c r="F463" t="s">
-        <v>3063</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>3062</v>
+        <v>3472</v>
       </c>
       <c r="B464" t="s">
-        <v>1323</v>
+        <v>1338</v>
       </c>
       <c r="C464" t="s">
         <v>434</v>
       </c>
       <c r="D464" t="s">
-        <v>3560</v>
+        <v>2568</v>
       </c>
       <c r="F464" t="s">
-        <v>3561</v>
-      </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B465" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C465" t="s">
-        <v>434</v>
-      </c>
-      <c r="D465" t="s">
-        <v>423</v>
-      </c>
-      <c r="E465" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F465" t="s">
-        <v>1455</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>2976</v>
+        <v>2744</v>
       </c>
       <c r="B466" t="s">
         <v>1323</v>
       </c>
       <c r="C466" t="s">
-        <v>434</v>
+        <v>2482</v>
       </c>
       <c r="D466" t="s">
-        <v>2568</v>
+        <v>2745</v>
       </c>
       <c r="F466" t="s">
-        <v>3366</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>2976</v>
+        <v>2782</v>
       </c>
       <c r="B467" t="s">
         <v>1323</v>
       </c>
       <c r="C467" t="s">
-        <v>2750</v>
+        <v>2482</v>
+      </c>
+      <c r="D467" t="s">
+        <v>2745</v>
       </c>
       <c r="F467" t="s">
-        <v>3040</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>2543</v>
+        <v>3432</v>
       </c>
       <c r="B468" t="s">
         <v>1323</v>
       </c>
       <c r="C468" t="s">
-        <v>434</v>
-      </c>
-      <c r="D468" t="s">
-        <v>2544</v>
-      </c>
-      <c r="E468" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="F468" t="s">
-        <v>2545</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>2638</v>
+        <v>2605</v>
       </c>
       <c r="B469" t="s">
         <v>1323</v>
       </c>
       <c r="C469" t="s">
-        <v>2530</v>
+        <v>2482</v>
+      </c>
+      <c r="D469" t="s">
+        <v>3200</v>
       </c>
       <c r="F469" t="s">
-        <v>2803</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>2437</v>
+        <v>3466</v>
       </c>
       <c r="B470" t="s">
         <v>1323</v>
       </c>
       <c r="C470" t="s">
-        <v>434</v>
-      </c>
-      <c r="D470" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E470" t="s">
-        <v>2439</v>
+        <v>2530</v>
       </c>
       <c r="F470" t="s">
-        <v>2440</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>3564</v>
+        <v>2605</v>
       </c>
       <c r="B471" t="s">
         <v>1323</v>
       </c>
       <c r="C471" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D471" t="s">
+        <v>2992</v>
       </c>
       <c r="F471" t="s">
-        <v>3565</v>
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C472" t="s">
+        <v>434</v>
+      </c>
+      <c r="D472" t="s">
+        <v>3189</v>
+      </c>
+      <c r="F472" t="s">
+        <v>3335</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>2448</v>
+        <v>3062</v>
       </c>
       <c r="B473" t="s">
-        <v>2449</v>
+        <v>1323</v>
       </c>
       <c r="C473" t="s">
         <v>434</v>
       </c>
       <c r="D473" t="s">
-        <v>2438</v>
-      </c>
-      <c r="E473" t="s">
-        <v>2439</v>
+        <v>3038</v>
       </c>
       <c r="F473" t="s">
-        <v>2450</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>3393</v>
+        <v>3062</v>
       </c>
       <c r="B474" t="s">
-        <v>2449</v>
+        <v>1323</v>
       </c>
       <c r="C474" t="s">
-        <v>2530</v>
+        <v>434</v>
       </c>
       <c r="D474" t="s">
-        <v>3299</v>
+        <v>2763</v>
       </c>
       <c r="F474" t="s">
-        <v>3394</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>2556</v>
+        <v>3062</v>
       </c>
       <c r="B475" t="s">
-        <v>2449</v>
+        <v>1323</v>
       </c>
       <c r="C475" t="s">
         <v>434</v>
       </c>
       <c r="D475" t="s">
-        <v>2544</v>
-      </c>
-      <c r="E475" t="s">
-        <v>2533</v>
+        <v>3560</v>
       </c>
       <c r="F475" t="s">
-        <v>2557</v>
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C476" t="s">
+        <v>434</v>
+      </c>
+      <c r="D476" t="s">
+        <v>423</v>
+      </c>
+      <c r="E476" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F476" t="s">
+        <v>1455</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>3530</v>
+        <v>2976</v>
       </c>
       <c r="B477" t="s">
-        <v>341</v>
+        <v>1323</v>
       </c>
       <c r="C477" t="s">
-        <v>2530</v>
-      </c>
-      <c r="E477" t="s">
-        <v>3495</v>
+        <v>434</v>
+      </c>
+      <c r="D477" t="s">
+        <v>2568</v>
       </c>
       <c r="F477" t="s">
-        <v>3531</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>2524</v>
+        <v>2976</v>
       </c>
       <c r="B478" t="s">
-        <v>341</v>
+        <v>1323</v>
       </c>
       <c r="C478" t="s">
-        <v>2530</v>
+        <v>2750</v>
       </c>
       <c r="F478" t="s">
-        <v>3373</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1337</v>
+        <v>2543</v>
       </c>
       <c r="B479" t="s">
-        <v>341</v>
+        <v>1323</v>
       </c>
       <c r="C479" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D479" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E479" t="s">
+        <v>2533</v>
       </c>
       <c r="F479" t="s">
-        <v>3474</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>2584</v>
+        <v>2638</v>
       </c>
       <c r="B480" t="s">
-        <v>341</v>
+        <v>1323</v>
       </c>
       <c r="C480" t="s">
-        <v>434</v>
-      </c>
-      <c r="D480" t="s">
-        <v>2800</v>
+        <v>2530</v>
       </c>
       <c r="F480" t="s">
-        <v>2801</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>2584</v>
+        <v>2437</v>
       </c>
       <c r="B481" t="s">
-        <v>341</v>
+        <v>1323</v>
       </c>
       <c r="C481" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D481" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E481" t="s">
+        <v>2439</v>
       </c>
       <c r="F481" t="s">
-        <v>3024</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>2584</v>
+        <v>3564</v>
       </c>
       <c r="B482" t="s">
-        <v>341</v>
+        <v>1323</v>
       </c>
       <c r="C482" t="s">
         <v>2530</v>
       </c>
       <c r="F482" t="s">
-        <v>3172</v>
-      </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
-        <v>2584</v>
-      </c>
-      <c r="B483" t="s">
-        <v>341</v>
-      </c>
-      <c r="C483" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F483" t="s">
-        <v>3291</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>2584</v>
+        <v>2448</v>
       </c>
       <c r="B484" t="s">
-        <v>341</v>
+        <v>2449</v>
       </c>
       <c r="C484" t="s">
         <v>434</v>
       </c>
       <c r="D484" t="s">
-        <v>2800</v>
+        <v>2438</v>
+      </c>
+      <c r="E484" t="s">
+        <v>2439</v>
       </c>
       <c r="F484" t="s">
-        <v>2801</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>3374</v>
+        <v>3393</v>
       </c>
       <c r="B485" t="s">
-        <v>341</v>
+        <v>2449</v>
       </c>
       <c r="C485" t="s">
-        <v>434</v>
+        <v>2530</v>
       </c>
       <c r="D485" t="s">
-        <v>3375</v>
+        <v>3299</v>
       </c>
       <c r="F485" t="s">
-        <v>3376</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>3096</v>
+        <v>2556</v>
       </c>
       <c r="B486" t="s">
-        <v>341</v>
+        <v>2449</v>
       </c>
       <c r="C486" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D486" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E486" t="s">
+        <v>2533</v>
       </c>
       <c r="F486" t="s">
-        <v>3097</v>
-      </c>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
-        <v>3245</v>
-      </c>
-      <c r="B487" t="s">
-        <v>341</v>
-      </c>
-      <c r="C487" t="s">
-        <v>434</v>
-      </c>
-      <c r="D487" t="s">
-        <v>2590</v>
-      </c>
-      <c r="F487" t="s">
-        <v>3246</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>3245</v>
+        <v>3530</v>
       </c>
       <c r="B488" t="s">
         <v>341</v>
@@ -19386,13 +19535,16 @@
       <c r="C488" t="s">
         <v>2530</v>
       </c>
+      <c r="E488" t="s">
+        <v>3495</v>
+      </c>
       <c r="F488" t="s">
-        <v>3576</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>3469</v>
+        <v>2524</v>
       </c>
       <c r="B489" t="s">
         <v>341</v>
@@ -19401,29 +19553,26 @@
         <v>2530</v>
       </c>
       <c r="F489" t="s">
-        <v>3470</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>3395</v>
+        <v>1337</v>
       </c>
       <c r="B490" t="s">
         <v>341</v>
       </c>
       <c r="C490" t="s">
-        <v>434</v>
-      </c>
-      <c r="D490" t="s">
-        <v>3233</v>
+        <v>2530</v>
       </c>
       <c r="F490" t="s">
-        <v>3396</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>2759</v>
+        <v>2584</v>
       </c>
       <c r="B491" t="s">
         <v>341</v>
@@ -19432,49 +19581,43 @@
         <v>434</v>
       </c>
       <c r="D491" t="s">
-        <v>2747</v>
+        <v>2800</v>
       </c>
       <c r="F491" t="s">
-        <v>2760</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>2459</v>
+        <v>2584</v>
       </c>
       <c r="B492" t="s">
         <v>341</v>
       </c>
       <c r="C492" t="s">
-        <v>434</v>
-      </c>
-      <c r="D492" t="s">
-        <v>2568</v>
-      </c>
-      <c r="E492" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="F492" t="s">
-        <v>2569</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>2459</v>
+        <v>2584</v>
       </c>
       <c r="B493" t="s">
         <v>341</v>
       </c>
       <c r="C493" t="s">
-        <v>2742</v>
+        <v>2530</v>
       </c>
       <c r="F493" t="s">
-        <v>2809</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>2459</v>
+        <v>2584</v>
       </c>
       <c r="B494" t="s">
         <v>341</v>
@@ -19482,16 +19625,13 @@
       <c r="C494" t="s">
         <v>2530</v>
       </c>
-      <c r="E494" t="s">
-        <v>3495</v>
-      </c>
       <c r="F494" t="s">
-        <v>3533</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>2459</v>
+        <v>2584</v>
       </c>
       <c r="B495" t="s">
         <v>341</v>
@@ -19500,29 +19640,32 @@
         <v>434</v>
       </c>
       <c r="D495" t="s">
-        <v>3066</v>
+        <v>2800</v>
       </c>
       <c r="F495" t="s">
-        <v>3262</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>3014</v>
+        <v>3374</v>
       </c>
       <c r="B496" t="s">
         <v>341</v>
       </c>
       <c r="C496" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D496" t="s">
+        <v>3375</v>
       </c>
       <c r="F496" t="s">
-        <v>3015</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>3014</v>
+        <v>3096</v>
       </c>
       <c r="B497" t="s">
         <v>341</v>
@@ -19531,12 +19674,12 @@
         <v>2530</v>
       </c>
       <c r="F497" t="s">
-        <v>3493</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>340</v>
+        <v>3245</v>
       </c>
       <c r="B498" t="s">
         <v>341</v>
@@ -19547,16 +19690,13 @@
       <c r="D498" t="s">
         <v>2590</v>
       </c>
-      <c r="E498" t="s">
-        <v>10</v>
-      </c>
       <c r="F498" t="s">
-        <v>342</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>340</v>
+        <v>3245</v>
       </c>
       <c r="B499" t="s">
         <v>341</v>
@@ -19565,12 +19705,12 @@
         <v>2530</v>
       </c>
       <c r="F499" t="s">
-        <v>3597</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>3082</v>
+        <v>3469</v>
       </c>
       <c r="B500" t="s">
         <v>341</v>
@@ -19579,46 +19719,46 @@
         <v>2530</v>
       </c>
       <c r="F500" t="s">
-        <v>3468</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>3082</v>
+        <v>3395</v>
       </c>
       <c r="B501" t="s">
         <v>341</v>
       </c>
       <c r="C501" t="s">
-        <v>2530</v>
-      </c>
-      <c r="E501" t="s">
-        <v>3495</v>
+        <v>434</v>
+      </c>
+      <c r="D501" t="s">
+        <v>3233</v>
       </c>
       <c r="F501" t="s">
-        <v>3515</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>3082</v>
+        <v>2759</v>
       </c>
       <c r="B502" t="s">
         <v>341</v>
       </c>
       <c r="C502" t="s">
-        <v>2530</v>
-      </c>
-      <c r="E502" t="s">
-        <v>3495</v>
+        <v>434</v>
+      </c>
+      <c r="D502" t="s">
+        <v>2747</v>
       </c>
       <c r="F502" t="s">
-        <v>3529</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>3082</v>
+        <v>2459</v>
       </c>
       <c r="B503" t="s">
         <v>341</v>
@@ -19627,32 +19767,32 @@
         <v>434</v>
       </c>
       <c r="D503" t="s">
-        <v>2757</v>
+        <v>2568</v>
+      </c>
+      <c r="E503" t="s">
+        <v>2533</v>
       </c>
       <c r="F503" t="s">
-        <v>3389</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>3082</v>
+        <v>2459</v>
       </c>
       <c r="B504" t="s">
         <v>341</v>
       </c>
       <c r="C504" t="s">
-        <v>434</v>
-      </c>
-      <c r="D504" t="s">
-        <v>3083</v>
+        <v>2742</v>
       </c>
       <c r="F504" t="s">
-        <v>3084</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>437</v>
+        <v>2459</v>
       </c>
       <c r="B505" t="s">
         <v>341</v>
@@ -19664,12 +19804,12 @@
         <v>3495</v>
       </c>
       <c r="F505" t="s">
-        <v>3506</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>437</v>
+        <v>2459</v>
       </c>
       <c r="B506" t="s">
         <v>341</v>
@@ -19678,49 +19818,43 @@
         <v>434</v>
       </c>
       <c r="D506" t="s">
-        <v>2992</v>
+        <v>3066</v>
       </c>
       <c r="F506" t="s">
-        <v>2993</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>437</v>
+        <v>3014</v>
       </c>
       <c r="B507" t="s">
         <v>341</v>
       </c>
       <c r="C507" t="s">
-        <v>434</v>
-      </c>
-      <c r="D507" t="s">
-        <v>2747</v>
+        <v>2530</v>
       </c>
       <c r="F507" t="s">
-        <v>3303</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>437</v>
+        <v>3014</v>
       </c>
       <c r="B508" t="s">
         <v>341</v>
       </c>
       <c r="C508" t="s">
-        <v>434</v>
-      </c>
-      <c r="D508" t="s">
-        <v>2763</v>
+        <v>2530</v>
       </c>
       <c r="F508" t="s">
-        <v>3050</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>3196</v>
+        <v>2978</v>
       </c>
       <c r="B509" t="s">
         <v>341</v>
@@ -19729,26 +19863,32 @@
         <v>2530</v>
       </c>
       <c r="F509" t="s">
-        <v>3197</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1446</v>
+        <v>340</v>
       </c>
       <c r="B510" t="s">
         <v>341</v>
       </c>
       <c r="C510" t="s">
-        <v>2530</v>
+        <v>434</v>
+      </c>
+      <c r="D510" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E510" t="s">
+        <v>10</v>
       </c>
       <c r="F510" t="s">
-        <v>3319</v>
+        <v>342</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>3178</v>
+        <v>340</v>
       </c>
       <c r="B511" t="s">
         <v>341</v>
@@ -19757,12 +19897,12 @@
         <v>2530</v>
       </c>
       <c r="F511" t="s">
-        <v>3179</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>3178</v>
+        <v>3082</v>
       </c>
       <c r="B512" t="s">
         <v>341</v>
@@ -19771,811 +19911,749 @@
         <v>2530</v>
       </c>
       <c r="F512" t="s">
-        <v>3258</v>
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B513" t="s">
+        <v>341</v>
+      </c>
+      <c r="C513" t="s">
+        <v>2530</v>
+      </c>
+      <c r="E513" t="s">
+        <v>3495</v>
+      </c>
+      <c r="F513" t="s">
+        <v>3515</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>3562</v>
+        <v>3082</v>
       </c>
       <c r="B514" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C514" t="s">
-        <v>434</v>
-      </c>
-      <c r="D514" t="s">
-        <v>3557</v>
+        <v>2530</v>
+      </c>
+      <c r="E514" t="s">
+        <v>3495</v>
       </c>
       <c r="F514" t="s">
-        <v>3563</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>2777</v>
+        <v>3082</v>
       </c>
       <c r="B515" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C515" t="s">
         <v>434</v>
       </c>
       <c r="D515" t="s">
-        <v>2778</v>
+        <v>2757</v>
       </c>
       <c r="F515" t="s">
-        <v>2779</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>3479</v>
+        <v>3082</v>
       </c>
       <c r="B516" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C516" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D516" t="s">
+        <v>3083</v>
       </c>
       <c r="F516" t="s">
-        <v>3480</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>2749</v>
+        <v>437</v>
       </c>
       <c r="B517" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C517" t="s">
-        <v>434</v>
-      </c>
-      <c r="D517" t="s">
-        <v>2750</v>
+        <v>2530</v>
+      </c>
+      <c r="E517" t="s">
+        <v>3495</v>
       </c>
       <c r="F517" t="s">
-        <v>2751</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1785</v>
+        <v>437</v>
       </c>
       <c r="B518" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C518" t="s">
         <v>434</v>
       </c>
       <c r="D518" t="s">
-        <v>2765</v>
+        <v>2992</v>
       </c>
       <c r="F518" t="s">
-        <v>2810</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>3010</v>
+        <v>437</v>
       </c>
       <c r="B519" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C519" t="s">
         <v>434</v>
       </c>
       <c r="D519" t="s">
-        <v>3011</v>
+        <v>2747</v>
       </c>
       <c r="F519" t="s">
-        <v>3012</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>3390</v>
+        <v>437</v>
       </c>
       <c r="B520" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C520" t="s">
-        <v>3391</v>
+        <v>434</v>
+      </c>
+      <c r="D520" t="s">
+        <v>2763</v>
       </c>
       <c r="F520" t="s">
-        <v>3392</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1</v>
+        <v>3196</v>
       </c>
       <c r="B521" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C521" t="s">
-        <v>434</v>
-      </c>
-      <c r="D521" t="s">
-        <v>2837</v>
+        <v>2530</v>
       </c>
       <c r="F521" t="s">
-        <v>2838</v>
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B522" t="s">
+        <v>341</v>
+      </c>
+      <c r="C522" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F522" t="s">
+        <v>3319</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>3317</v>
+        <v>3178</v>
       </c>
       <c r="B523" t="s">
-        <v>1523</v>
+        <v>341</v>
       </c>
       <c r="C523" t="s">
-        <v>434</v>
-      </c>
-      <c r="D523" t="s">
-        <v>2747</v>
+        <v>2530</v>
       </c>
       <c r="F523" t="s">
-        <v>3417</v>
-      </c>
-    </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
-        <v>2819</v>
-      </c>
-      <c r="B525" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C525" t="s">
-        <v>434</v>
-      </c>
-      <c r="D525" t="s">
-        <v>2747</v>
-      </c>
-      <c r="F525" t="s">
-        <v>2820</v>
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B524" t="s">
+        <v>341</v>
+      </c>
+      <c r="C524" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F524" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>2804</v>
+        <v>3562</v>
       </c>
       <c r="B526" t="s">
-        <v>1396</v>
+        <v>276</v>
       </c>
       <c r="C526" t="s">
         <v>434</v>
       </c>
       <c r="D526" t="s">
-        <v>2805</v>
+        <v>3557</v>
       </c>
       <c r="F526" t="s">
-        <v>2806</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>3298</v>
+        <v>2777</v>
       </c>
       <c r="B527" t="s">
-        <v>1396</v>
+        <v>276</v>
       </c>
       <c r="C527" t="s">
-        <v>3299</v>
+        <v>434</v>
+      </c>
+      <c r="D527" t="s">
+        <v>2778</v>
       </c>
       <c r="F527" t="s">
-        <v>3300</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1448</v>
+        <v>3479</v>
       </c>
       <c r="B528" t="s">
-        <v>1396</v>
+        <v>276</v>
       </c>
       <c r="C528" t="s">
-        <v>434</v>
-      </c>
-      <c r="D528" t="s">
-        <v>2763</v>
+        <v>2742</v>
       </c>
       <c r="F528" t="s">
-        <v>3203</v>
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B529" t="s">
+        <v>276</v>
+      </c>
+      <c r="C529" t="s">
+        <v>434</v>
+      </c>
+      <c r="D529" t="s">
+        <v>2750</v>
+      </c>
+      <c r="F529" t="s">
+        <v>2751</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>2296</v>
+        <v>1785</v>
       </c>
       <c r="B530" t="s">
-        <v>1423</v>
+        <v>276</v>
       </c>
       <c r="C530" t="s">
-        <v>2530</v>
+        <v>434</v>
       </c>
       <c r="D530" t="s">
-        <v>3552</v>
+        <v>2765</v>
       </c>
       <c r="F530" t="s">
-        <v>3559</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>3065</v>
+        <v>3010</v>
       </c>
       <c r="B531" t="s">
-        <v>1423</v>
+        <v>276</v>
       </c>
       <c r="C531" t="s">
         <v>434</v>
       </c>
       <c r="D531" t="s">
-        <v>3066</v>
+        <v>3011</v>
       </c>
       <c r="F531" t="s">
-        <v>3067</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>2537</v>
+        <v>3390</v>
       </c>
       <c r="B532" t="s">
-        <v>1423</v>
+        <v>276</v>
       </c>
       <c r="C532" t="s">
-        <v>434</v>
-      </c>
-      <c r="D532" t="s">
-        <v>3233</v>
+        <v>3391</v>
       </c>
       <c r="F532" t="s">
-        <v>3428</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>2537</v>
+        <v>1</v>
       </c>
       <c r="B533" t="s">
-        <v>1423</v>
+        <v>276</v>
       </c>
       <c r="C533" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D533" t="s">
+        <v>2837</v>
       </c>
       <c r="F533" t="s">
-        <v>3090</v>
-      </c>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
-        <v>1729</v>
-      </c>
-      <c r="B534" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C534" t="s">
-        <v>434</v>
-      </c>
-      <c r="D534" t="s">
-        <v>3198</v>
-      </c>
-      <c r="F534" t="s">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
-        <v>3133</v>
-      </c>
-      <c r="B536" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C536" t="s">
-        <v>434</v>
-      </c>
-      <c r="D536" t="s">
-        <v>2763</v>
-      </c>
-      <c r="F536" t="s">
-        <v>3134</v>
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C535" t="s">
+        <v>434</v>
+      </c>
+      <c r="D535" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F535" t="s">
+        <v>3417</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>2479</v>
+        <v>2819</v>
       </c>
       <c r="B537" t="s">
-        <v>1389</v>
+        <v>1396</v>
       </c>
       <c r="C537" t="s">
         <v>434</v>
       </c>
       <c r="D537" t="s">
-        <v>1473</v>
+        <v>2747</v>
       </c>
       <c r="F537" t="s">
-        <v>3231</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>2479</v>
+        <v>2804</v>
       </c>
       <c r="B538" t="s">
-        <v>1389</v>
+        <v>1396</v>
       </c>
       <c r="C538" t="s">
         <v>434</v>
       </c>
       <c r="D538" t="s">
-        <v>3011</v>
+        <v>2805</v>
       </c>
       <c r="F538" t="s">
-        <v>3240</v>
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C539" t="s">
+        <v>3299</v>
+      </c>
+      <c r="F539" t="s">
+        <v>3300</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>2636</v>
+        <v>1448</v>
       </c>
       <c r="B540" t="s">
-        <v>1346</v>
+        <v>1396</v>
       </c>
       <c r="C540" t="s">
         <v>434</v>
       </c>
       <c r="D540" t="s">
-        <v>2757</v>
+        <v>2763</v>
       </c>
       <c r="F540" t="s">
-        <v>3075</v>
-      </c>
-    </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
-        <v>2636</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C541" t="s">
-        <v>434</v>
-      </c>
-      <c r="D541" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F541" t="s">
-        <v>3222</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>2636</v>
+        <v>2296</v>
       </c>
       <c r="B542" t="s">
-        <v>1346</v>
+        <v>1423</v>
       </c>
       <c r="C542" t="s">
-        <v>2742</v>
+        <v>2530</v>
+      </c>
+      <c r="D542" t="s">
+        <v>3552</v>
       </c>
       <c r="F542" t="s">
-        <v>3429</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>3128</v>
+        <v>3065</v>
       </c>
       <c r="B543" t="s">
-        <v>1346</v>
+        <v>1423</v>
       </c>
       <c r="C543" t="s">
-        <v>2742</v>
+        <v>434</v>
+      </c>
+      <c r="D543" t="s">
+        <v>3066</v>
       </c>
       <c r="F543" t="s">
-        <v>3129</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>2433</v>
+        <v>2537</v>
       </c>
       <c r="B544" t="s">
-        <v>1346</v>
+        <v>1423</v>
       </c>
       <c r="C544" t="s">
         <v>434</v>
       </c>
       <c r="D544" t="s">
-        <v>2992</v>
+        <v>3233</v>
       </c>
       <c r="F544" t="s">
-        <v>3093</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>2312</v>
+        <v>2537</v>
       </c>
       <c r="B545" t="s">
-        <v>1346</v>
+        <v>1423</v>
       </c>
       <c r="C545" t="s">
-        <v>434</v>
-      </c>
-      <c r="D545" t="s">
-        <v>2590</v>
+        <v>2742</v>
       </c>
       <c r="F545" t="s">
-        <v>3241</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>2312</v>
+        <v>1729</v>
       </c>
       <c r="B546" t="s">
-        <v>1346</v>
+        <v>1423</v>
       </c>
       <c r="C546" t="s">
         <v>434</v>
       </c>
       <c r="D546" t="s">
-        <v>2763</v>
+        <v>3198</v>
       </c>
       <c r="F546" t="s">
-        <v>2802</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>2312</v>
+        <v>3619</v>
       </c>
       <c r="B547" t="s">
-        <v>1346</v>
+        <v>1423</v>
       </c>
       <c r="C547" t="s">
-        <v>434</v>
-      </c>
-      <c r="D547" t="s">
-        <v>2648</v>
-      </c>
-      <c r="E547" t="s">
-        <v>2439</v>
+        <v>2530</v>
       </c>
       <c r="F547" t="s">
-        <v>2441</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>3019</v>
+        <v>3173</v>
       </c>
       <c r="B548" t="s">
-        <v>1346</v>
+        <v>1423</v>
       </c>
       <c r="C548" t="s">
         <v>2530</v>
       </c>
       <c r="F548" t="s">
-        <v>3020</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>2931</v>
-      </c>
-    </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
-        <v>2636</v>
-      </c>
-      <c r="B551" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C551" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D551" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E551" t="s">
-        <v>2932</v>
-      </c>
-      <c r="F551" t="s">
-        <v>2864</v>
+        <v>3645</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C550" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D550" t="s">
+        <v>3552</v>
+      </c>
+      <c r="F550" t="s">
+        <v>3646</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>3281</v>
+        <v>3133</v>
       </c>
       <c r="B552" t="s">
-        <v>1346</v>
+        <v>1389</v>
       </c>
       <c r="C552" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D552" t="s">
-        <v>2745</v>
+        <v>2763</v>
       </c>
       <c r="F552" t="s">
-        <v>3282</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>2954</v>
+        <v>2479</v>
       </c>
       <c r="B553" t="s">
-        <v>2955</v>
+        <v>1389</v>
       </c>
       <c r="C553" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D553" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E553" t="s">
-        <v>2932</v>
+        <v>1473</v>
       </c>
       <c r="F553" t="s">
-        <v>2882</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>3161</v>
+        <v>2479</v>
       </c>
       <c r="B554" t="s">
-        <v>3162</v>
+        <v>1389</v>
       </c>
       <c r="C554" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D554" t="s">
-        <v>2745</v>
+        <v>3011</v>
       </c>
       <c r="F554" t="s">
-        <v>3163</v>
-      </c>
-    </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
-        <v>2961</v>
-      </c>
-      <c r="B555" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C555" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D555" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E555" t="s">
-        <v>2932</v>
-      </c>
-      <c r="F555" t="s">
-        <v>2890</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>2972</v>
+        <v>2636</v>
       </c>
       <c r="B556" t="s">
-        <v>1335</v>
+        <v>1346</v>
       </c>
       <c r="C556" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D556" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E556" t="s">
-        <v>2932</v>
+        <v>2757</v>
       </c>
       <c r="F556" t="s">
-        <v>2912</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>3242</v>
+        <v>2636</v>
       </c>
       <c r="B557" t="s">
-        <v>1335</v>
+        <v>1346</v>
       </c>
       <c r="C557" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D557" t="s">
-        <v>2745</v>
+        <v>1121</v>
       </c>
       <c r="F557" t="s">
-        <v>3243</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>2963</v>
+        <v>2636</v>
       </c>
       <c r="B558" t="s">
-        <v>1389</v>
+        <v>1346</v>
       </c>
       <c r="C558" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D558" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E558" t="s">
-        <v>2932</v>
+        <v>2742</v>
       </c>
       <c r="F558" t="s">
-        <v>2892</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>2479</v>
+        <v>3128</v>
       </c>
       <c r="B559" t="s">
-        <v>1389</v>
+        <v>1346</v>
       </c>
       <c r="C559" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D559" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="F559" t="s">
-        <v>3007</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>2962</v>
+        <v>2433</v>
       </c>
       <c r="B560" t="s">
-        <v>1389</v>
+        <v>1346</v>
       </c>
       <c r="C560" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D560" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E560" t="s">
-        <v>2932</v>
+        <v>2992</v>
       </c>
       <c r="F560" t="s">
-        <v>2891</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>2946</v>
+        <v>2312</v>
       </c>
       <c r="B561" t="s">
-        <v>1389</v>
+        <v>1346</v>
       </c>
       <c r="C561" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D561" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E561" t="s">
-        <v>2932</v>
+        <v>2590</v>
       </c>
       <c r="F561" t="s">
-        <v>2865</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>2625</v>
+        <v>2312</v>
       </c>
       <c r="B562" t="s">
-        <v>1423</v>
+        <v>1346</v>
       </c>
       <c r="C562" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D562" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E562" t="s">
-        <v>2932</v>
+        <v>2763</v>
       </c>
       <c r="F562" t="s">
-        <v>2879</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>3451</v>
+        <v>2312</v>
       </c>
       <c r="B563" t="s">
-        <v>1423</v>
+        <v>1346</v>
       </c>
       <c r="C563" t="s">
-        <v>2482</v>
+        <v>434</v>
       </c>
       <c r="D563" t="s">
-        <v>2745</v>
+        <v>2648</v>
+      </c>
+      <c r="E563" t="s">
+        <v>2439</v>
       </c>
       <c r="F563" t="s">
-        <v>3452</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>2546</v>
+        <v>3019</v>
       </c>
       <c r="B564" t="s">
-        <v>1523</v>
+        <v>1346</v>
       </c>
       <c r="C564" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D564" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E564" t="s">
-        <v>2932</v>
+        <v>2530</v>
       </c>
       <c r="F564" t="s">
-        <v>2909</v>
-      </c>
-    </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
-        <v>2623</v>
-      </c>
-      <c r="B565" t="s">
-        <v>276</v>
-      </c>
-      <c r="C565" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D565" t="s">
-        <v>2745</v>
-      </c>
-      <c r="F565" t="s">
-        <v>3369</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>2477</v>
-      </c>
-      <c r="B566" t="s">
-        <v>276</v>
-      </c>
-      <c r="C566" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D566" t="s">
-        <v>2745</v>
-      </c>
-      <c r="F566" t="s">
-        <v>3546</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>2944</v>
+        <v>2636</v>
       </c>
       <c r="B567" t="s">
-        <v>276</v>
+        <v>1346</v>
       </c>
       <c r="C567" t="s">
         <v>2482</v>
@@ -20587,15 +20665,15 @@
         <v>2932</v>
       </c>
       <c r="F567" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>2952</v>
+        <v>3281</v>
       </c>
       <c r="B568" t="s">
-        <v>276</v>
+        <v>1346</v>
       </c>
       <c r="C568" t="s">
         <v>2482</v>
@@ -20603,19 +20681,16 @@
       <c r="D568" t="s">
         <v>2745</v>
       </c>
-      <c r="E568" t="s">
-        <v>2932</v>
-      </c>
       <c r="F568" t="s">
-        <v>2878</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="B569" t="s">
-        <v>276</v>
+        <v>2955</v>
       </c>
       <c r="C569" t="s">
         <v>2482</v>
@@ -20627,15 +20702,15 @@
         <v>2932</v>
       </c>
       <c r="F569" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>2524</v>
+        <v>3161</v>
       </c>
       <c r="B570" t="s">
-        <v>341</v>
+        <v>3162</v>
       </c>
       <c r="C570" t="s">
         <v>2482</v>
@@ -20643,19 +20718,16 @@
       <c r="D570" t="s">
         <v>2745</v>
       </c>
-      <c r="E570" t="s">
-        <v>2932</v>
-      </c>
       <c r="F570" t="s">
-        <v>2880</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>2524</v>
+        <v>2961</v>
       </c>
       <c r="B571" t="s">
-        <v>341</v>
+        <v>1335</v>
       </c>
       <c r="C571" t="s">
         <v>2482</v>
@@ -20663,16 +20735,19 @@
       <c r="D571" t="s">
         <v>2745</v>
       </c>
+      <c r="E571" t="s">
+        <v>2932</v>
+      </c>
       <c r="F571" t="s">
-        <v>3457</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>2584</v>
+        <v>2972</v>
       </c>
       <c r="B572" t="s">
-        <v>341</v>
+        <v>1335</v>
       </c>
       <c r="C572" t="s">
         <v>2482</v>
@@ -20680,16 +20755,19 @@
       <c r="D572" t="s">
         <v>2745</v>
       </c>
+      <c r="E572" t="s">
+        <v>2932</v>
+      </c>
       <c r="F572" t="s">
-        <v>3206</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>3374</v>
+        <v>3242</v>
       </c>
       <c r="B573" t="s">
-        <v>341</v>
+        <v>1335</v>
       </c>
       <c r="C573" t="s">
         <v>2482</v>
@@ -20698,15 +20776,15 @@
         <v>2745</v>
       </c>
       <c r="F573" t="s">
-        <v>3437</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>2459</v>
+        <v>2963</v>
       </c>
       <c r="B574" t="s">
-        <v>341</v>
+        <v>1389</v>
       </c>
       <c r="C574" t="s">
         <v>2482</v>
@@ -20718,15 +20796,15 @@
         <v>2932</v>
       </c>
       <c r="F574" t="s">
-        <v>2903</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>2459</v>
+        <v>2479</v>
       </c>
       <c r="B575" t="s">
-        <v>341</v>
+        <v>1389</v>
       </c>
       <c r="C575" t="s">
         <v>2482</v>
@@ -20734,19 +20812,16 @@
       <c r="D575" t="s">
         <v>2745</v>
       </c>
-      <c r="E575" t="s">
-        <v>2932</v>
-      </c>
       <c r="F575" t="s">
-        <v>2913</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>2978</v>
+        <v>2962</v>
       </c>
       <c r="B576" t="s">
-        <v>341</v>
+        <v>1389</v>
       </c>
       <c r="C576" t="s">
         <v>2482</v>
@@ -20758,15 +20833,15 @@
         <v>2932</v>
       </c>
       <c r="F576" t="s">
-        <v>2927</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>340</v>
+        <v>2946</v>
       </c>
       <c r="B577" t="s">
-        <v>341</v>
+        <v>1389</v>
       </c>
       <c r="C577" t="s">
         <v>2482</v>
@@ -20778,15 +20853,15 @@
         <v>2932</v>
       </c>
       <c r="F577" t="s">
-        <v>2876</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>437</v>
+        <v>2625</v>
       </c>
       <c r="B578" t="s">
-        <v>341</v>
+        <v>1423</v>
       </c>
       <c r="C578" t="s">
         <v>2482</v>
@@ -20798,15 +20873,15 @@
         <v>2932</v>
       </c>
       <c r="F578" t="s">
-        <v>2921</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>437</v>
+        <v>3451</v>
       </c>
       <c r="B579" t="s">
-        <v>341</v>
+        <v>1423</v>
       </c>
       <c r="C579" t="s">
         <v>2482</v>
@@ -20815,15 +20890,15 @@
         <v>2745</v>
       </c>
       <c r="F579" t="s">
-        <v>3436</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>2744</v>
+        <v>2546</v>
       </c>
       <c r="B580" t="s">
-        <v>1323</v>
+        <v>1523</v>
       </c>
       <c r="C580" t="s">
         <v>2482</v>
@@ -20831,16 +20906,19 @@
       <c r="D580" t="s">
         <v>2745</v>
       </c>
+      <c r="E580" t="s">
+        <v>2932</v>
+      </c>
       <c r="F580" t="s">
-        <v>2746</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>2782</v>
+        <v>2623</v>
       </c>
       <c r="B581" t="s">
-        <v>1323</v>
+        <v>276</v>
       </c>
       <c r="C581" t="s">
         <v>2482</v>
@@ -20849,15 +20927,15 @@
         <v>2745</v>
       </c>
       <c r="F581" t="s">
-        <v>2783</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>2605</v>
+        <v>2477</v>
       </c>
       <c r="B582" t="s">
-        <v>1323</v>
+        <v>276</v>
       </c>
       <c r="C582" t="s">
         <v>2482</v>
@@ -20865,19 +20943,16 @@
       <c r="D582" t="s">
         <v>2745</v>
       </c>
-      <c r="E582" t="s">
-        <v>2932</v>
-      </c>
       <c r="F582" t="s">
-        <v>2856</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>2605</v>
+        <v>2944</v>
       </c>
       <c r="B583" t="s">
-        <v>1323</v>
+        <v>276</v>
       </c>
       <c r="C583" t="s">
         <v>2482</v>
@@ -20889,15 +20964,15 @@
         <v>2932</v>
       </c>
       <c r="F583" t="s">
-        <v>2898</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>2605</v>
+        <v>2952</v>
       </c>
       <c r="B584" t="s">
-        <v>1323</v>
+        <v>276</v>
       </c>
       <c r="C584" t="s">
         <v>2482</v>
@@ -20909,15 +20984,15 @@
         <v>2932</v>
       </c>
       <c r="F584" t="s">
-        <v>2925</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>2976</v>
+        <v>2956</v>
       </c>
       <c r="B585" t="s">
-        <v>1323</v>
+        <v>276</v>
       </c>
       <c r="C585" t="s">
         <v>2482</v>
@@ -20929,15 +21004,15 @@
         <v>2932</v>
       </c>
       <c r="F585" t="s">
-        <v>2924</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>2548</v>
+        <v>2524</v>
       </c>
       <c r="B586" t="s">
-        <v>1323</v>
+        <v>341</v>
       </c>
       <c r="C586" t="s">
         <v>2482</v>
@@ -20949,15 +21024,15 @@
         <v>2932</v>
       </c>
       <c r="F586" t="s">
-        <v>2919</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>2548</v>
+        <v>2524</v>
       </c>
       <c r="B587" t="s">
-        <v>1323</v>
+        <v>341</v>
       </c>
       <c r="C587" t="s">
         <v>2482</v>
@@ -20965,19 +21040,16 @@
       <c r="D587" t="s">
         <v>2745</v>
       </c>
-      <c r="E587" t="s">
-        <v>2932</v>
-      </c>
       <c r="F587" t="s">
-        <v>2923</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>2950</v>
+        <v>2584</v>
       </c>
       <c r="B588" t="s">
-        <v>1323</v>
+        <v>341</v>
       </c>
       <c r="C588" t="s">
         <v>2482</v>
@@ -20985,19 +21057,16 @@
       <c r="D588" t="s">
         <v>2745</v>
       </c>
-      <c r="E588" t="s">
-        <v>2932</v>
-      </c>
       <c r="F588" t="s">
-        <v>2873</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>3260</v>
+        <v>3374</v>
       </c>
       <c r="B589" t="s">
-        <v>1323</v>
+        <v>341</v>
       </c>
       <c r="C589" t="s">
         <v>2482</v>
@@ -21006,15 +21075,15 @@
         <v>2745</v>
       </c>
       <c r="F589" t="s">
-        <v>3261</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>2977</v>
+        <v>2459</v>
       </c>
       <c r="B590" t="s">
-        <v>33</v>
+        <v>341</v>
       </c>
       <c r="C590" t="s">
         <v>2482</v>
@@ -21026,15 +21095,15 @@
         <v>2932</v>
       </c>
       <c r="F590" t="s">
-        <v>2926</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>2084</v>
+        <v>2459</v>
       </c>
       <c r="B591" t="s">
-        <v>33</v>
+        <v>341</v>
       </c>
       <c r="C591" t="s">
         <v>2482</v>
@@ -21042,16 +21111,19 @@
       <c r="D591" t="s">
         <v>2745</v>
       </c>
+      <c r="E591" t="s">
+        <v>2932</v>
+      </c>
       <c r="F591" t="s">
-        <v>3407</v>
-      </c>
-    </row>
-    <row r="592" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>2969</v>
+        <v>2978</v>
       </c>
       <c r="B592" t="s">
-        <v>33</v>
+        <v>341</v>
       </c>
       <c r="C592" t="s">
         <v>2482</v>
@@ -21063,15 +21135,15 @@
         <v>2932</v>
       </c>
       <c r="F592" t="s">
-        <v>2902</v>
-      </c>
-    </row>
-    <row r="593" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>3029</v>
+        <v>340</v>
       </c>
       <c r="B593" t="s">
-        <v>1351</v>
+        <v>341</v>
       </c>
       <c r="C593" t="s">
         <v>2482</v>
@@ -21079,17 +21151,19 @@
       <c r="D593" t="s">
         <v>2745</v>
       </c>
-      <c r="E593"/>
+      <c r="E593" t="s">
+        <v>2932</v>
+      </c>
       <c r="F593" t="s">
-        <v>3030</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>2640</v>
+        <v>437</v>
       </c>
       <c r="B594" t="s">
-        <v>1351</v>
+        <v>341</v>
       </c>
       <c r="C594" t="s">
         <v>2482</v>
@@ -21101,15 +21175,15 @@
         <v>2932</v>
       </c>
       <c r="F594" t="s">
-        <v>2910</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>2642</v>
+        <v>437</v>
       </c>
       <c r="B595" t="s">
-        <v>1351</v>
+        <v>341</v>
       </c>
       <c r="C595" t="s">
         <v>2482</v>
@@ -21117,19 +21191,16 @@
       <c r="D595" t="s">
         <v>2745</v>
       </c>
-      <c r="E595" t="s">
-        <v>2932</v>
-      </c>
       <c r="F595" t="s">
-        <v>2875</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>3315</v>
+        <v>2744</v>
       </c>
       <c r="B596" t="s">
-        <v>1351</v>
+        <v>1323</v>
       </c>
       <c r="C596" t="s">
         <v>2482</v>
@@ -21138,15 +21209,15 @@
         <v>2745</v>
       </c>
       <c r="F596" t="s">
-        <v>3316</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>2974</v>
+        <v>2782</v>
       </c>
       <c r="B597" t="s">
-        <v>1363</v>
+        <v>1323</v>
       </c>
       <c r="C597" t="s">
         <v>2482</v>
@@ -21154,19 +21225,16 @@
       <c r="D597" t="s">
         <v>2745</v>
       </c>
-      <c r="E597" t="s">
-        <v>2932</v>
-      </c>
       <c r="F597" t="s">
-        <v>2917</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>2971</v>
+        <v>2605</v>
       </c>
       <c r="B598" t="s">
-        <v>1363</v>
+        <v>1323</v>
       </c>
       <c r="C598" t="s">
         <v>2482</v>
@@ -21178,15 +21246,15 @@
         <v>2932</v>
       </c>
       <c r="F598" t="s">
-        <v>2906</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>2453</v>
+        <v>2605</v>
       </c>
       <c r="B599" t="s">
-        <v>1363</v>
+        <v>1323</v>
       </c>
       <c r="C599" t="s">
         <v>2482</v>
@@ -21198,15 +21266,15 @@
         <v>2932</v>
       </c>
       <c r="F599" t="s">
-        <v>2853</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>2599</v>
+        <v>2605</v>
       </c>
       <c r="B600" t="s">
-        <v>2600</v>
+        <v>1323</v>
       </c>
       <c r="C600" t="s">
         <v>2482</v>
@@ -21218,15 +21286,15 @@
         <v>2932</v>
       </c>
       <c r="F600" t="s">
-        <v>2855</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>2589</v>
+        <v>2976</v>
       </c>
       <c r="B601" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="C601" t="s">
         <v>2482</v>
@@ -21238,15 +21306,15 @@
         <v>2932</v>
       </c>
       <c r="F601" t="s">
-        <v>2885</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>2589</v>
+        <v>2548</v>
       </c>
       <c r="B602" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="C602" t="s">
         <v>2482</v>
@@ -21258,15 +21326,15 @@
         <v>2932</v>
       </c>
       <c r="F602" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>2947</v>
+        <v>2548</v>
       </c>
       <c r="B603" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="C603" t="s">
         <v>2482</v>
@@ -21278,15 +21346,15 @@
         <v>2932</v>
       </c>
       <c r="F603" t="s">
-        <v>2866</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>2631</v>
+        <v>2950</v>
       </c>
       <c r="B604" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="C604" t="s">
         <v>2482</v>
@@ -21298,15 +21366,15 @@
         <v>2932</v>
       </c>
       <c r="F604" t="s">
-        <v>2867</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>2609</v>
+        <v>3260</v>
       </c>
       <c r="B605" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="C605" t="s">
         <v>2482</v>
@@ -21314,39 +21382,36 @@
       <c r="D605" t="s">
         <v>2745</v>
       </c>
-      <c r="E605" t="s">
+      <c r="F605" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B606" t="s">
+        <v>33</v>
+      </c>
+      <c r="C606" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D606" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E606" t="s">
         <v>2932</v>
       </c>
-      <c r="F605" t="s">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A606" s="3" t="s">
-        <v>2983</v>
-      </c>
-      <c r="B606" s="3" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C606" s="3" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D606" s="3" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E606" s="3" t="s">
-        <v>2932</v>
-      </c>
-      <c r="F606" s="3" t="s">
-        <v>2981</v>
+      <c r="F606" t="s">
+        <v>2926</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>2463</v>
+        <v>2084</v>
       </c>
       <c r="B607" t="s">
-        <v>574</v>
+        <v>33</v>
       </c>
       <c r="C607" t="s">
         <v>2482</v>
@@ -21354,19 +21419,16 @@
       <c r="D607" t="s">
         <v>2745</v>
       </c>
-      <c r="E607" t="s">
-        <v>2932</v>
-      </c>
       <c r="F607" t="s">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>2463</v>
+        <v>2969</v>
       </c>
       <c r="B608" t="s">
-        <v>574</v>
+        <v>33</v>
       </c>
       <c r="C608" t="s">
         <v>2482</v>
@@ -21378,15 +21440,15 @@
         <v>2932</v>
       </c>
       <c r="F608" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>2463</v>
+        <v>3029</v>
       </c>
       <c r="B609" t="s">
-        <v>574</v>
+        <v>1351</v>
       </c>
       <c r="C609" t="s">
         <v>2482</v>
@@ -21394,19 +21456,17 @@
       <c r="D609" t="s">
         <v>2745</v>
       </c>
-      <c r="E609" t="s">
-        <v>2932</v>
-      </c>
+      <c r="E609"/>
       <c r="F609" t="s">
-        <v>2930</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>2933</v>
+        <v>2640</v>
       </c>
       <c r="B610" t="s">
-        <v>574</v>
+        <v>1351</v>
       </c>
       <c r="C610" t="s">
         <v>2482</v>
@@ -21417,16 +21477,16 @@
       <c r="E610" t="s">
         <v>2932</v>
       </c>
-      <c r="F610" s="2" t="s">
-        <v>2848</v>
+      <c r="F610" t="s">
+        <v>2910</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>2951</v>
+        <v>2642</v>
       </c>
       <c r="B611" t="s">
-        <v>574</v>
+        <v>1351</v>
       </c>
       <c r="C611" t="s">
         <v>2482</v>
@@ -21438,15 +21498,15 @@
         <v>2932</v>
       </c>
       <c r="F611" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>3068</v>
+        <v>3315</v>
       </c>
       <c r="B612" t="s">
-        <v>574</v>
+        <v>1351</v>
       </c>
       <c r="C612" t="s">
         <v>2482</v>
@@ -21455,15 +21515,15 @@
         <v>2745</v>
       </c>
       <c r="F612" t="s">
-        <v>3069</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>573</v>
+        <v>2974</v>
       </c>
       <c r="B613" t="s">
-        <v>574</v>
+        <v>1363</v>
       </c>
       <c r="C613" t="s">
         <v>2482</v>
@@ -21475,15 +21535,15 @@
         <v>2932</v>
       </c>
       <c r="F613" t="s">
-        <v>2901</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>3076</v>
+        <v>2971</v>
       </c>
       <c r="B614" t="s">
-        <v>1373</v>
+        <v>1363</v>
       </c>
       <c r="C614" t="s">
         <v>2482</v>
@@ -21491,16 +21551,19 @@
       <c r="D614" t="s">
         <v>2745</v>
       </c>
+      <c r="E614" t="s">
+        <v>2932</v>
+      </c>
       <c r="F614" t="s">
-        <v>3077</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>3076</v>
+        <v>2453</v>
       </c>
       <c r="B615" t="s">
-        <v>1373</v>
+        <v>1363</v>
       </c>
       <c r="C615" t="s">
         <v>2482</v>
@@ -21508,16 +21571,19 @@
       <c r="D615" t="s">
         <v>2745</v>
       </c>
+      <c r="E615" t="s">
+        <v>2932</v>
+      </c>
       <c r="F615" t="s">
-        <v>3160</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>2957</v>
+        <v>2599</v>
       </c>
       <c r="B616" t="s">
-        <v>1373</v>
+        <v>2600</v>
       </c>
       <c r="C616" t="s">
         <v>2482</v>
@@ -21529,15 +21595,15 @@
         <v>2932</v>
       </c>
       <c r="F616" t="s">
-        <v>2884</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>2938</v>
+        <v>2589</v>
       </c>
       <c r="B617" t="s">
-        <v>1373</v>
+        <v>1320</v>
       </c>
       <c r="C617" t="s">
         <v>2482</v>
@@ -21549,15 +21615,15 @@
         <v>2932</v>
       </c>
       <c r="F617" t="s">
-        <v>2857</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>2958</v>
+        <v>2589</v>
       </c>
       <c r="B618" t="s">
-        <v>2959</v>
+        <v>1320</v>
       </c>
       <c r="C618" t="s">
         <v>2482</v>
@@ -21569,15 +21635,15 @@
         <v>2932</v>
       </c>
       <c r="F618" t="s">
-        <v>2886</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>3332</v>
+        <v>2947</v>
       </c>
       <c r="B619" t="s">
-        <v>1401</v>
+        <v>1320</v>
       </c>
       <c r="C619" t="s">
         <v>2482</v>
@@ -21585,16 +21651,19 @@
       <c r="D619" t="s">
         <v>2745</v>
       </c>
+      <c r="E619" t="s">
+        <v>2932</v>
+      </c>
       <c r="F619" t="s">
-        <v>3333</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>2940</v>
+        <v>2631</v>
       </c>
       <c r="B620" t="s">
-        <v>1401</v>
+        <v>1320</v>
       </c>
       <c r="C620" t="s">
         <v>2482</v>
@@ -21606,15 +21675,15 @@
         <v>2932</v>
       </c>
       <c r="F620" t="s">
-        <v>2859</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>2940</v>
+        <v>2609</v>
       </c>
       <c r="B621" t="s">
-        <v>1401</v>
+        <v>1320</v>
       </c>
       <c r="C621" t="s">
         <v>2482</v>
@@ -21626,32 +21695,35 @@
         <v>2932</v>
       </c>
       <c r="F621" t="s">
-        <v>2922</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
-        <v>3547</v>
-      </c>
-      <c r="B622" t="s">
-        <v>703</v>
-      </c>
-      <c r="C622" t="s">
+      <c r="A622" s="3" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C622" s="3" t="s">
         <v>2482</v>
       </c>
-      <c r="D622" t="s">
+      <c r="D622" s="3" t="s">
         <v>2745</v>
       </c>
-      <c r="F622" t="s">
-        <v>3548</v>
+      <c r="E622" s="3" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F622" s="3" t="s">
+        <v>2981</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>2979</v>
+        <v>2463</v>
       </c>
       <c r="B623" t="s">
-        <v>703</v>
+        <v>574</v>
       </c>
       <c r="C623" t="s">
         <v>2482</v>
@@ -21663,35 +21735,35 @@
         <v>2932</v>
       </c>
       <c r="F623" t="s">
-        <v>2928</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A624" s="3" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B624" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="C624" s="3" t="s">
+      <c r="A624" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B624" t="s">
+        <v>574</v>
+      </c>
+      <c r="C624" t="s">
         <v>2482</v>
       </c>
-      <c r="D624" s="3" t="s">
+      <c r="D624" t="s">
         <v>2745</v>
       </c>
-      <c r="E624" s="3" t="s">
+      <c r="E624" t="s">
         <v>2932</v>
       </c>
-      <c r="F624" s="3" t="s">
-        <v>2980</v>
+      <c r="F624" t="s">
+        <v>2869</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>2619</v>
+        <v>2463</v>
       </c>
       <c r="B625" t="s">
-        <v>703</v>
+        <v>574</v>
       </c>
       <c r="C625" t="s">
         <v>2482</v>
@@ -21703,15 +21775,15 @@
         <v>2932</v>
       </c>
       <c r="F625" t="s">
-        <v>2907</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>2593</v>
+        <v>2933</v>
       </c>
       <c r="B626" t="s">
-        <v>1442</v>
+        <v>574</v>
       </c>
       <c r="C626" t="s">
         <v>2482</v>
@@ -21722,16 +21794,16 @@
       <c r="E626" t="s">
         <v>2932</v>
       </c>
-      <c r="F626" t="s">
-        <v>2870</v>
+      <c r="F626" s="2" t="s">
+        <v>2848</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="B627" t="s">
-        <v>1442</v>
+        <v>574</v>
       </c>
       <c r="C627" t="s">
         <v>2482</v>
@@ -21743,15 +21815,15 @@
         <v>2932</v>
       </c>
       <c r="F627" t="s">
-        <v>2881</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>2964</v>
+        <v>3068</v>
       </c>
       <c r="B628" t="s">
-        <v>1442</v>
+        <v>574</v>
       </c>
       <c r="C628" t="s">
         <v>2482</v>
@@ -21759,19 +21831,16 @@
       <c r="D628" t="s">
         <v>2745</v>
       </c>
-      <c r="E628" t="s">
-        <v>2932</v>
-      </c>
       <c r="F628" t="s">
-        <v>2893</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>2945</v>
+        <v>573</v>
       </c>
       <c r="B629" t="s">
-        <v>1326</v>
+        <v>574</v>
       </c>
       <c r="C629" t="s">
         <v>2482</v>
@@ -21783,15 +21852,15 @@
         <v>2932</v>
       </c>
       <c r="F629" t="s">
-        <v>2863</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>2968</v>
+        <v>3076</v>
       </c>
       <c r="B630" t="s">
-        <v>1326</v>
+        <v>1373</v>
       </c>
       <c r="C630" t="s">
         <v>2482</v>
@@ -21799,19 +21868,16 @@
       <c r="D630" t="s">
         <v>2745</v>
       </c>
-      <c r="E630" t="s">
-        <v>2932</v>
-      </c>
       <c r="F630" t="s">
-        <v>2899</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>2968</v>
+        <v>3076</v>
       </c>
       <c r="B631" t="s">
-        <v>1326</v>
+        <v>1373</v>
       </c>
       <c r="C631" t="s">
         <v>2482</v>
@@ -21819,19 +21885,16 @@
       <c r="D631" t="s">
         <v>2745</v>
       </c>
-      <c r="E631" t="s">
-        <v>2932</v>
-      </c>
       <c r="F631" t="s">
-        <v>2915</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>3426</v>
+        <v>2957</v>
       </c>
       <c r="B632" t="s">
-        <v>1326</v>
+        <v>1373</v>
       </c>
       <c r="C632" t="s">
         <v>2482</v>
@@ -21839,16 +21902,19 @@
       <c r="D632" t="s">
         <v>2745</v>
       </c>
+      <c r="E632" t="s">
+        <v>2932</v>
+      </c>
       <c r="F632" t="s">
-        <v>3427</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>3325</v>
+        <v>2938</v>
       </c>
       <c r="B633" t="s">
-        <v>1326</v>
+        <v>1373</v>
       </c>
       <c r="C633" t="s">
         <v>2482</v>
@@ -21856,16 +21922,19 @@
       <c r="D633" t="s">
         <v>2745</v>
       </c>
+      <c r="E633" t="s">
+        <v>2932</v>
+      </c>
       <c r="F633" t="s">
-        <v>3326</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>2941</v>
+        <v>2958</v>
       </c>
       <c r="B634" t="s">
-        <v>2942</v>
+        <v>2959</v>
       </c>
       <c r="C634" t="s">
         <v>2482</v>
@@ -21877,15 +21946,15 @@
         <v>2932</v>
       </c>
       <c r="F634" t="s">
-        <v>2860</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>2984</v>
+        <v>3332</v>
       </c>
       <c r="B635" t="s">
-        <v>1366</v>
+        <v>1401</v>
       </c>
       <c r="C635" t="s">
         <v>2482</v>
@@ -21893,19 +21962,16 @@
       <c r="D635" t="s">
         <v>2745</v>
       </c>
-      <c r="E635" t="s">
-        <v>2932</v>
-      </c>
       <c r="F635" t="s">
-        <v>2982</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>2577</v>
+        <v>2940</v>
       </c>
       <c r="B636" t="s">
-        <v>1366</v>
+        <v>1401</v>
       </c>
       <c r="C636" t="s">
         <v>2482</v>
@@ -21917,15 +21983,15 @@
         <v>2932</v>
       </c>
       <c r="F636" t="s">
-        <v>2888</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>2577</v>
+        <v>2940</v>
       </c>
       <c r="B637" t="s">
-        <v>1366</v>
+        <v>1401</v>
       </c>
       <c r="C637" t="s">
         <v>2482</v>
@@ -21937,15 +22003,15 @@
         <v>2932</v>
       </c>
       <c r="F637" t="s">
-        <v>2894</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>2577</v>
+        <v>3547</v>
       </c>
       <c r="B638" t="s">
-        <v>1366</v>
+        <v>703</v>
       </c>
       <c r="C638" t="s">
         <v>2482</v>
@@ -21953,19 +22019,16 @@
       <c r="D638" t="s">
         <v>2745</v>
       </c>
-      <c r="E638" t="s">
-        <v>2932</v>
-      </c>
       <c r="F638" t="s">
-        <v>2929</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>2970</v>
+        <v>2979</v>
       </c>
       <c r="B639" t="s">
-        <v>1366</v>
+        <v>703</v>
       </c>
       <c r="C639" t="s">
         <v>2482</v>
@@ -21977,35 +22040,35 @@
         <v>2932</v>
       </c>
       <c r="F639" t="s">
-        <v>2904</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A640" t="s">
-        <v>2943</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C640" t="s">
+      <c r="A640" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C640" s="3" t="s">
         <v>2482</v>
       </c>
-      <c r="D640" t="s">
+      <c r="D640" s="3" t="s">
         <v>2745</v>
       </c>
-      <c r="E640" t="s">
+      <c r="E640" s="3" t="s">
         <v>2932</v>
       </c>
-      <c r="F640" t="s">
-        <v>2861</v>
+      <c r="F640" s="3" t="s">
+        <v>2980</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>3235</v>
+        <v>2619</v>
       </c>
       <c r="B641" t="s">
-        <v>1366</v>
+        <v>703</v>
       </c>
       <c r="C641" t="s">
         <v>2482</v>
@@ -22013,16 +22076,19 @@
       <c r="D641" t="s">
         <v>2745</v>
       </c>
+      <c r="E641" t="s">
+        <v>2932</v>
+      </c>
       <c r="F641" t="s">
-        <v>3236</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>2948</v>
+        <v>2593</v>
       </c>
       <c r="B642" t="s">
-        <v>1358</v>
+        <v>1442</v>
       </c>
       <c r="C642" t="s">
         <v>2482</v>
@@ -22034,15 +22100,15 @@
         <v>2932</v>
       </c>
       <c r="F642" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>2965</v>
+        <v>2953</v>
       </c>
       <c r="B643" t="s">
-        <v>472</v>
+        <v>1442</v>
       </c>
       <c r="C643" t="s">
         <v>2482</v>
@@ -22054,15 +22120,15 @@
         <v>2932</v>
       </c>
       <c r="F643" t="s">
-        <v>2895</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>3554</v>
+        <v>2964</v>
       </c>
       <c r="B644" t="s">
-        <v>472</v>
+        <v>1442</v>
       </c>
       <c r="C644" t="s">
         <v>2482</v>
@@ -22070,16 +22136,19 @@
       <c r="D644" t="s">
         <v>2745</v>
       </c>
+      <c r="E644" t="s">
+        <v>2932</v>
+      </c>
       <c r="F644" t="s">
-        <v>3555</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>471</v>
+        <v>2945</v>
       </c>
       <c r="B645" t="s">
-        <v>472</v>
+        <v>1326</v>
       </c>
       <c r="C645" t="s">
         <v>2482</v>
@@ -22091,15 +22160,15 @@
         <v>2932</v>
       </c>
       <c r="F645" t="s">
-        <v>2854</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>2445</v>
+        <v>2968</v>
       </c>
       <c r="B646" t="s">
-        <v>472</v>
+        <v>1326</v>
       </c>
       <c r="C646" t="s">
         <v>2482</v>
@@ -22111,15 +22180,15 @@
         <v>2932</v>
       </c>
       <c r="F646" t="s">
-        <v>2852</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>2445</v>
+        <v>2968</v>
       </c>
       <c r="B647" t="s">
-        <v>472</v>
+        <v>1326</v>
       </c>
       <c r="C647" t="s">
         <v>2482</v>
@@ -22131,15 +22200,15 @@
         <v>2932</v>
       </c>
       <c r="F647" t="s">
-        <v>2889</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>2445</v>
+        <v>3426</v>
       </c>
       <c r="B648" t="s">
-        <v>472</v>
+        <v>1326</v>
       </c>
       <c r="C648" t="s">
         <v>2482</v>
@@ -22147,19 +22216,16 @@
       <c r="D648" t="s">
         <v>2745</v>
       </c>
-      <c r="E648" t="s">
-        <v>2932</v>
-      </c>
       <c r="F648" t="s">
-        <v>2908</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>2445</v>
+        <v>3325</v>
       </c>
       <c r="B649" t="s">
-        <v>472</v>
+        <v>1326</v>
       </c>
       <c r="C649" t="s">
         <v>2482</v>
@@ -22167,19 +22233,16 @@
       <c r="D649" t="s">
         <v>2745</v>
       </c>
-      <c r="E649" t="s">
-        <v>2932</v>
-      </c>
       <c r="F649" t="s">
-        <v>2920</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>2975</v>
+        <v>2941</v>
       </c>
       <c r="B650" t="s">
-        <v>1316</v>
+        <v>2942</v>
       </c>
       <c r="C650" t="s">
         <v>2482</v>
@@ -22191,15 +22254,15 @@
         <v>2932</v>
       </c>
       <c r="F650" t="s">
-        <v>2918</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>2967</v>
+        <v>2984</v>
       </c>
       <c r="B651" t="s">
-        <v>1316</v>
+        <v>1366</v>
       </c>
       <c r="C651" t="s">
         <v>2482</v>
@@ -22211,15 +22274,15 @@
         <v>2932</v>
       </c>
       <c r="F651" t="s">
-        <v>2897</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>2939</v>
+        <v>2577</v>
       </c>
       <c r="B652" t="s">
-        <v>1316</v>
+        <v>1366</v>
       </c>
       <c r="C652" t="s">
         <v>2482</v>
@@ -22231,15 +22294,15 @@
         <v>2932</v>
       </c>
       <c r="F652" t="s">
-        <v>2858</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>2939</v>
+        <v>2577</v>
       </c>
       <c r="B653" t="s">
-        <v>1316</v>
+        <v>1366</v>
       </c>
       <c r="C653" t="s">
         <v>2482</v>
@@ -22251,15 +22314,15 @@
         <v>2932</v>
       </c>
       <c r="F653" t="s">
-        <v>2911</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>3143</v>
+        <v>2577</v>
       </c>
       <c r="B654" t="s">
-        <v>1316</v>
+        <v>1366</v>
       </c>
       <c r="C654" t="s">
         <v>2482</v>
@@ -22267,16 +22330,19 @@
       <c r="D654" t="s">
         <v>2745</v>
       </c>
+      <c r="E654" t="s">
+        <v>2932</v>
+      </c>
       <c r="F654" t="s">
-        <v>3144</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="B655" t="s">
-        <v>1476</v>
+        <v>1366</v>
       </c>
       <c r="C655" t="s">
         <v>2482</v>
@@ -22288,15 +22354,15 @@
         <v>2932</v>
       </c>
       <c r="F655" t="s">
-        <v>2916</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>3309</v>
+        <v>2943</v>
       </c>
       <c r="B656" t="s">
-        <v>1476</v>
+        <v>1366</v>
       </c>
       <c r="C656" t="s">
         <v>2482</v>
@@ -22304,16 +22370,19 @@
       <c r="D656" t="s">
         <v>2745</v>
       </c>
+      <c r="E656" t="s">
+        <v>2932</v>
+      </c>
       <c r="F656" t="s">
-        <v>3310</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>3033</v>
+        <v>3235</v>
       </c>
       <c r="B657" t="s">
-        <v>3034</v>
+        <v>1366</v>
       </c>
       <c r="C657" t="s">
         <v>2482</v>
@@ -22322,15 +22391,15 @@
         <v>2745</v>
       </c>
       <c r="F657" t="s">
-        <v>3035</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>2966</v>
+        <v>2948</v>
       </c>
       <c r="B658" t="s">
-        <v>1343</v>
+        <v>1358</v>
       </c>
       <c r="C658" t="s">
         <v>2482</v>
@@ -22342,15 +22411,15 @@
         <v>2932</v>
       </c>
       <c r="F658" t="s">
-        <v>2896</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>2573</v>
+        <v>2965</v>
       </c>
       <c r="B659" t="s">
-        <v>1343</v>
+        <v>472</v>
       </c>
       <c r="C659" t="s">
         <v>2482</v>
@@ -22362,15 +22431,15 @@
         <v>2932</v>
       </c>
       <c r="F659" t="s">
-        <v>2874</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>2573</v>
+        <v>3554</v>
       </c>
       <c r="B660" t="s">
-        <v>1343</v>
+        <v>472</v>
       </c>
       <c r="C660" t="s">
         <v>2482</v>
@@ -22378,19 +22447,16 @@
       <c r="D660" t="s">
         <v>2745</v>
       </c>
-      <c r="E660" t="s">
-        <v>2932</v>
-      </c>
       <c r="F660" t="s">
-        <v>2905</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>2935</v>
+        <v>471</v>
       </c>
       <c r="B661" t="s">
-        <v>1343</v>
+        <v>472</v>
       </c>
       <c r="C661" t="s">
         <v>2482</v>
@@ -22402,15 +22468,15 @@
         <v>2932</v>
       </c>
       <c r="F661" t="s">
-        <v>2850</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>2934</v>
+        <v>2445</v>
       </c>
       <c r="B662" t="s">
-        <v>52</v>
+        <v>472</v>
       </c>
       <c r="C662" t="s">
         <v>2482</v>
@@ -22422,15 +22488,15 @@
         <v>2932</v>
       </c>
       <c r="F662" t="s">
-        <v>2849</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>2960</v>
+        <v>2445</v>
       </c>
       <c r="B663" t="s">
-        <v>52</v>
+        <v>472</v>
       </c>
       <c r="C663" t="s">
         <v>2482</v>
@@ -22442,15 +22508,15 @@
         <v>2932</v>
       </c>
       <c r="F663" t="s">
-        <v>2887</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>3170</v>
+        <v>2445</v>
       </c>
       <c r="B664" t="s">
-        <v>52</v>
+        <v>472</v>
       </c>
       <c r="C664" t="s">
         <v>2482</v>
@@ -22458,16 +22524,19 @@
       <c r="D664" t="s">
         <v>2745</v>
       </c>
+      <c r="E664" t="s">
+        <v>2932</v>
+      </c>
       <c r="F664" t="s">
-        <v>3171</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>2949</v>
+        <v>2445</v>
       </c>
       <c r="B665" t="s">
-        <v>52</v>
+        <v>472</v>
       </c>
       <c r="C665" t="s">
         <v>2482</v>
@@ -22479,15 +22548,15 @@
         <v>2932</v>
       </c>
       <c r="F665" t="s">
-        <v>2872</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>2936</v>
+        <v>2975</v>
       </c>
       <c r="B666" t="s">
-        <v>2937</v>
+        <v>1316</v>
       </c>
       <c r="C666" t="s">
         <v>2482</v>
@@ -22499,12 +22568,320 @@
         <v>2932</v>
       </c>
       <c r="F666" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C667" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D667" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E667" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F667" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C668" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D668" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E668" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F668" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C669" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D669" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E669" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F669" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C670" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D670" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F670" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C671" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D671" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E671" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F671" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C672" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D672" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F672" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B673" t="s">
+        <v>3034</v>
+      </c>
+      <c r="C673" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D673" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F673" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C674" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D674" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E674" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F674" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C675" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D675" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E675" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F675" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C676" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D676" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E676" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F676" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C677" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D677" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E677" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F677" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B678" t="s">
+        <v>52</v>
+      </c>
+      <c r="C678" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D678" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E678" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F678" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B679" t="s">
+        <v>52</v>
+      </c>
+      <c r="C679" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D679" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E679" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F679" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B680" t="s">
+        <v>52</v>
+      </c>
+      <c r="C680" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D680" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F680" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B681" t="s">
+        <v>52</v>
+      </c>
+      <c r="C681" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D681" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E681" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F681" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B682" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C682" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D682" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E682" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F682" t="s">
         <v>2851</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A477:F512">
-    <sortCondition ref="A477:A512"/>
+  <sortState ref="A451:F461">
+    <sortCondition ref="A451:A461"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22520,7 +22897,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="28.42578125" customWidth="1"/>
+    <col min="1" max="9" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -33021,15 +33398,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F787"/>
+  <dimension ref="A1:F804"/>
   <sheetViews>
-    <sheetView topLeftCell="A763" workbookViewId="0">
-      <selection activeCell="B772" sqref="B772"/>
+    <sheetView tabSelected="1" topLeftCell="A786" workbookViewId="0">
+      <selection activeCell="A795" sqref="A795:XFD795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="28.42578125" customWidth="1"/>
+    <col min="1" max="9" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -45950,7 +46327,7 @@
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>3187</v>
+        <v>1119</v>
       </c>
       <c r="B709" t="s">
         <v>49</v>
@@ -45959,27 +46336,21 @@
         <v>2530</v>
       </c>
       <c r="F709" t="s">
-        <v>3188</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>935</v>
+        <v>3187</v>
       </c>
       <c r="B710" t="s">
         <v>49</v>
       </c>
       <c r="C710" t="s">
-        <v>8</v>
-      </c>
-      <c r="D710" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E710" t="s">
-        <v>10</v>
+        <v>2530</v>
       </c>
       <c r="F710" t="s">
-        <v>1104</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.25">
@@ -45993,13 +46364,13 @@
         <v>8</v>
       </c>
       <c r="D711" t="s">
-        <v>936</v>
+        <v>1103</v>
       </c>
       <c r="E711" t="s">
         <v>10</v>
       </c>
       <c r="F711" t="s">
-        <v>937</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.25">
@@ -46010,10 +46381,16 @@
         <v>49</v>
       </c>
       <c r="C712" t="s">
-        <v>2530</v>
+        <v>8</v>
+      </c>
+      <c r="D712" t="s">
+        <v>936</v>
+      </c>
+      <c r="E712" t="s">
+        <v>10</v>
       </c>
       <c r="F712" t="s">
-        <v>2781</v>
+        <v>937</v>
       </c>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.25">
@@ -46024,32 +46401,32 @@
         <v>49</v>
       </c>
       <c r="C713" t="s">
-        <v>8</v>
-      </c>
-      <c r="D713" t="s">
-        <v>3423</v>
+        <v>2530</v>
       </c>
       <c r="F713" t="s">
-        <v>3424</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>3585</v>
+        <v>935</v>
       </c>
       <c r="B714" t="s">
         <v>49</v>
       </c>
       <c r="C714" t="s">
-        <v>2530</v>
+        <v>8</v>
+      </c>
+      <c r="D714" t="s">
+        <v>3423</v>
       </c>
       <c r="F714" t="s">
-        <v>3586</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>3229</v>
+        <v>3585</v>
       </c>
       <c r="B715" t="s">
         <v>49</v>
@@ -46058,32 +46435,26 @@
         <v>2530</v>
       </c>
       <c r="F715" t="s">
-        <v>3230</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>564</v>
+        <v>3634</v>
       </c>
       <c r="B716" t="s">
         <v>49</v>
       </c>
       <c r="C716" t="s">
-        <v>8</v>
-      </c>
-      <c r="D716" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E716" t="s">
-        <v>10</v>
+        <v>2530</v>
       </c>
       <c r="F716" t="s">
-        <v>1180</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>518</v>
+        <v>3229</v>
       </c>
       <c r="B717" t="s">
         <v>49</v>
@@ -46092,26 +46463,32 @@
         <v>2530</v>
       </c>
       <c r="F717" t="s">
-        <v>3592</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
       <c r="B718" t="s">
         <v>49</v>
       </c>
       <c r="C718" t="s">
-        <v>2530</v>
+        <v>8</v>
+      </c>
+      <c r="D718" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E718" t="s">
+        <v>10</v>
       </c>
       <c r="F718" t="s">
-        <v>3595</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>3139</v>
+        <v>564</v>
       </c>
       <c r="B719" t="s">
         <v>49</v>
@@ -46120,12 +46497,12 @@
         <v>2530</v>
       </c>
       <c r="F719" t="s">
-        <v>3140</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>1014</v>
+        <v>518</v>
       </c>
       <c r="B720" t="s">
         <v>49</v>
@@ -46134,12 +46511,12 @@
         <v>2530</v>
       </c>
       <c r="F720" t="s">
-        <v>2770</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>1014</v>
+        <v>518</v>
       </c>
       <c r="B721" t="s">
         <v>49</v>
@@ -46148,12 +46525,12 @@
         <v>2530</v>
       </c>
       <c r="F721" t="s">
-        <v>3569</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>1014</v>
+        <v>3139</v>
       </c>
       <c r="B722" t="s">
         <v>49</v>
@@ -46162,12 +46539,12 @@
         <v>2530</v>
       </c>
       <c r="F722" t="s">
-        <v>2761</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>2775</v>
+        <v>1014</v>
       </c>
       <c r="B723" t="s">
         <v>49</v>
@@ -46176,64 +46553,49 @@
         <v>2530</v>
       </c>
       <c r="F723" t="s">
-        <v>2776</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>889</v>
+        <v>1014</v>
       </c>
       <c r="B724" t="s">
         <v>49</v>
       </c>
       <c r="C724" t="s">
-        <v>8</v>
-      </c>
-      <c r="D724" t="s">
-        <v>890</v>
-      </c>
-      <c r="E724" t="s">
-        <v>10</v>
+        <v>2530</v>
       </c>
       <c r="F724" t="s">
-        <v>891</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>889</v>
+        <v>1014</v>
       </c>
       <c r="B725" t="s">
         <v>49</v>
       </c>
       <c r="C725" t="s">
-        <v>8</v>
-      </c>
-      <c r="D725" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E725" t="s">
-        <v>10</v>
+        <v>2530</v>
       </c>
       <c r="F725" t="s">
-        <v>1038</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>889</v>
+        <v>2775</v>
       </c>
       <c r="B726" t="s">
         <v>49</v>
       </c>
       <c r="C726" t="s">
-        <v>8</v>
-      </c>
-      <c r="D726" t="s">
-        <v>3130</v>
+        <v>2530</v>
       </c>
       <c r="F726" t="s">
-        <v>3131</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
@@ -46244,29 +46606,41 @@
         <v>49</v>
       </c>
       <c r="C727" t="s">
-        <v>2530</v>
+        <v>8</v>
+      </c>
+      <c r="D727" t="s">
+        <v>890</v>
+      </c>
+      <c r="E727" t="s">
+        <v>10</v>
       </c>
       <c r="F727" t="s">
-        <v>3408</v>
+        <v>891</v>
       </c>
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>3579</v>
+        <v>889</v>
       </c>
       <c r="B728" t="s">
         <v>49</v>
       </c>
       <c r="C728" t="s">
-        <v>2530</v>
+        <v>8</v>
+      </c>
+      <c r="D728" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E728" t="s">
+        <v>10</v>
       </c>
       <c r="F728" t="s">
-        <v>3580</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>405</v>
+        <v>889</v>
       </c>
       <c r="B729" t="s">
         <v>49</v>
@@ -46275,18 +46649,15 @@
         <v>8</v>
       </c>
       <c r="D729" t="s">
-        <v>722</v>
-      </c>
-      <c r="E729" t="s">
-        <v>10</v>
+        <v>3130</v>
       </c>
       <c r="F729" t="s">
-        <v>723</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>1231</v>
+        <v>889</v>
       </c>
       <c r="B730" t="s">
         <v>49</v>
@@ -46295,12 +46666,12 @@
         <v>2530</v>
       </c>
       <c r="F730" t="s">
-        <v>3596</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>3543</v>
+        <v>889</v>
       </c>
       <c r="B731" t="s">
         <v>49</v>
@@ -46308,16 +46679,13 @@
       <c r="C731" t="s">
         <v>2530</v>
       </c>
-      <c r="E731" t="s">
-        <v>3539</v>
-      </c>
       <c r="F731" t="s">
-        <v>3544</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>3598</v>
+        <v>3579</v>
       </c>
       <c r="B732" t="s">
         <v>49</v>
@@ -46326,26 +46694,32 @@
         <v>2530</v>
       </c>
       <c r="F732" t="s">
-        <v>3599</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>2670</v>
+        <v>405</v>
       </c>
       <c r="B733" t="s">
         <v>49</v>
       </c>
       <c r="C733" t="s">
-        <v>2530</v>
+        <v>8</v>
+      </c>
+      <c r="D733" t="s">
+        <v>722</v>
+      </c>
+      <c r="E733" t="s">
+        <v>10</v>
       </c>
       <c r="F733" t="s">
-        <v>3368</v>
+        <v>723</v>
       </c>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>3538</v>
+        <v>1231</v>
       </c>
       <c r="B734" t="s">
         <v>49</v>
@@ -46353,36 +46727,30 @@
       <c r="C734" t="s">
         <v>2530</v>
       </c>
-      <c r="E734" t="s">
-        <v>3539</v>
-      </c>
       <c r="F734" t="s">
-        <v>3540</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>352</v>
+        <v>3543</v>
       </c>
       <c r="B735" t="s">
         <v>49</v>
       </c>
       <c r="C735" t="s">
-        <v>8</v>
-      </c>
-      <c r="D735" t="s">
-        <v>423</v>
+        <v>2530</v>
       </c>
       <c r="E735" t="s">
-        <v>10</v>
+        <v>3539</v>
       </c>
       <c r="F735" t="s">
-        <v>424</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>2843</v>
+        <v>3543</v>
       </c>
       <c r="B736" t="s">
         <v>49</v>
@@ -46391,12 +46759,12 @@
         <v>2530</v>
       </c>
       <c r="F736" t="s">
-        <v>2844</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>2843</v>
+        <v>3598</v>
       </c>
       <c r="B737" t="s">
         <v>49</v>
@@ -46404,16 +46772,13 @@
       <c r="C737" t="s">
         <v>2530</v>
       </c>
-      <c r="D737" t="s">
-        <v>3488</v>
-      </c>
       <c r="F737" t="s">
-        <v>3489</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="B738" t="s">
         <v>49</v>
@@ -46421,16 +46786,13 @@
       <c r="C738" t="s">
         <v>2530</v>
       </c>
-      <c r="E738" t="s">
-        <v>3539</v>
-      </c>
       <c r="F738" t="s">
-        <v>3541</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>189</v>
+        <v>2670</v>
       </c>
       <c r="B739" t="s">
         <v>49</v>
@@ -46438,110 +46800,98 @@
       <c r="C739" t="s">
         <v>2530</v>
       </c>
-      <c r="E739" t="s">
-        <v>3539</v>
-      </c>
       <c r="F739" t="s">
-        <v>3542</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>1078</v>
+        <v>3538</v>
       </c>
       <c r="B740" t="s">
         <v>49</v>
       </c>
       <c r="C740" t="s">
-        <v>8</v>
-      </c>
-      <c r="D740" t="s">
-        <v>1151</v>
+        <v>2530</v>
       </c>
       <c r="E740" t="s">
-        <v>10</v>
+        <v>3539</v>
       </c>
       <c r="F740" t="s">
-        <v>1152</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>441</v>
+        <v>352</v>
       </c>
       <c r="B741" t="s">
         <v>49</v>
       </c>
       <c r="C741" t="s">
-        <v>2530</v>
+        <v>8</v>
+      </c>
+      <c r="D741" t="s">
+        <v>423</v>
+      </c>
+      <c r="E741" t="s">
+        <v>10</v>
       </c>
       <c r="F741" t="s">
-        <v>3584</v>
+        <v>424</v>
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>669</v>
+        <v>2843</v>
       </c>
       <c r="B742" t="s">
         <v>49</v>
       </c>
       <c r="C742" t="s">
-        <v>8</v>
-      </c>
-      <c r="D742" t="s">
-        <v>670</v>
-      </c>
-      <c r="E742" t="s">
-        <v>10</v>
+        <v>2530</v>
       </c>
       <c r="F742" t="s">
-        <v>671</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>1034</v>
+        <v>2843</v>
       </c>
       <c r="B743" t="s">
         <v>49</v>
       </c>
       <c r="C743" t="s">
-        <v>8</v>
+        <v>2530</v>
       </c>
       <c r="D743" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E743" t="s">
-        <v>10</v>
+        <v>3488</v>
       </c>
       <c r="F743" t="s">
-        <v>1036</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>299</v>
+        <v>189</v>
       </c>
       <c r="B744" t="s">
         <v>49</v>
       </c>
       <c r="C744" t="s">
-        <v>8</v>
-      </c>
-      <c r="D744" t="s">
-        <v>712</v>
+        <v>2530</v>
       </c>
       <c r="E744" t="s">
-        <v>10</v>
+        <v>3539</v>
       </c>
       <c r="F744" t="s">
-        <v>713</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>299</v>
+        <v>189</v>
       </c>
       <c r="B745" t="s">
         <v>49</v>
@@ -46549,61 +46899,101 @@
       <c r="C745" t="s">
         <v>2530</v>
       </c>
+      <c r="E745" t="s">
+        <v>3539</v>
+      </c>
       <c r="F745" t="s">
-        <v>2985</v>
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B746" t="s">
+        <v>49</v>
+      </c>
+      <c r="C746" t="s">
+        <v>8</v>
+      </c>
+      <c r="D746" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E746" t="s">
+        <v>10</v>
+      </c>
+      <c r="F746" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B747" t="s">
+        <v>49</v>
+      </c>
+      <c r="C747" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F747" t="s">
+        <v>3644</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>3574</v>
+        <v>441</v>
+      </c>
+      <c r="B748" t="s">
+        <v>49</v>
+      </c>
+      <c r="C748" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F748" t="s">
+        <v>3584</v>
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>942</v>
+        <v>441</v>
       </c>
       <c r="B749" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C749" t="s">
-        <v>8</v>
-      </c>
-      <c r="D749" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E749" t="s">
-        <v>10</v>
+        <v>2530</v>
       </c>
       <c r="F749" t="s">
-        <v>1122</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>320</v>
+        <v>669</v>
       </c>
       <c r="B750" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C750" t="s">
         <v>8</v>
       </c>
       <c r="D750" t="s">
-        <v>1063</v>
+        <v>670</v>
       </c>
       <c r="E750" t="s">
         <v>10</v>
       </c>
       <c r="F750" t="s">
-        <v>1064</v>
+        <v>671</v>
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>518</v>
+        <v>1034</v>
       </c>
       <c r="B751" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C751" t="s">
         <v>8</v>
@@ -46615,237 +47005,224 @@
         <v>10</v>
       </c>
       <c r="F751" t="s">
-        <v>1258</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>630</v>
+        <v>299</v>
       </c>
       <c r="B752" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C752" t="s">
         <v>8</v>
       </c>
       <c r="D752" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
       <c r="E752" t="s">
         <v>10</v>
       </c>
       <c r="F752" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>1276</v>
+        <v>299</v>
       </c>
       <c r="B753" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C753" t="s">
-        <v>8</v>
-      </c>
-      <c r="D753" t="s">
-        <v>2813</v>
+        <v>2530</v>
       </c>
       <c r="F753" t="s">
-        <v>2814</v>
-      </c>
-    </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A754" t="s">
-        <v>546</v>
-      </c>
-      <c r="B754" t="s">
-        <v>33</v>
-      </c>
-      <c r="C754" t="s">
-        <v>8</v>
-      </c>
-      <c r="D754" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E754" t="s">
-        <v>10</v>
-      </c>
-      <c r="F754" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A755" t="s">
-        <v>732</v>
-      </c>
-      <c r="B755" t="s">
-        <v>276</v>
-      </c>
-      <c r="C755" t="s">
-        <v>8</v>
-      </c>
-      <c r="D755" t="s">
-        <v>733</v>
-      </c>
-      <c r="E755" t="s">
-        <v>10</v>
-      </c>
-      <c r="F755" t="s">
-        <v>734</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>3070</v>
-      </c>
-      <c r="B756" t="s">
-        <v>13</v>
-      </c>
-      <c r="C756" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F756" t="s">
-        <v>3071</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>665</v>
+        <v>942</v>
       </c>
       <c r="B757" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C757" t="s">
         <v>8</v>
       </c>
       <c r="D757" t="s">
-        <v>2789</v>
+        <v>1121</v>
+      </c>
+      <c r="E757" t="s">
+        <v>10</v>
       </c>
       <c r="F757" t="s">
-        <v>2790</v>
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>320</v>
+      </c>
+      <c r="B758" t="s">
+        <v>13</v>
+      </c>
+      <c r="C758" t="s">
+        <v>8</v>
+      </c>
+      <c r="D758" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E758" t="s">
+        <v>10</v>
+      </c>
+      <c r="F758" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>518</v>
+      </c>
+      <c r="B759" t="s">
+        <v>19</v>
+      </c>
+      <c r="C759" t="s">
+        <v>8</v>
+      </c>
+      <c r="D759" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E759" t="s">
+        <v>10</v>
+      </c>
+      <c r="F759" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>630</v>
+      </c>
+      <c r="B760" t="s">
+        <v>38</v>
+      </c>
+      <c r="C760" t="s">
+        <v>8</v>
+      </c>
+      <c r="D760" t="s">
+        <v>631</v>
+      </c>
+      <c r="E760" t="s">
+        <v>10</v>
+      </c>
+      <c r="F760" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B761" t="s">
+        <v>44</v>
+      </c>
+      <c r="C761" t="s">
+        <v>8</v>
+      </c>
+      <c r="D761" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F761" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>546</v>
+      </c>
+      <c r="B762" t="s">
+        <v>33</v>
+      </c>
+      <c r="C762" t="s">
+        <v>8</v>
+      </c>
+      <c r="D762" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E762" t="s">
+        <v>10</v>
+      </c>
+      <c r="F762" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>732</v>
+      </c>
+      <c r="B763" t="s">
+        <v>276</v>
+      </c>
+      <c r="C763" t="s">
+        <v>8</v>
+      </c>
+      <c r="D763" t="s">
+        <v>733</v>
+      </c>
+      <c r="E763" t="s">
+        <v>10</v>
+      </c>
+      <c r="F763" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>2846</v>
+        <v>3070</v>
+      </c>
+      <c r="B764" t="s">
+        <v>13</v>
+      </c>
+      <c r="C764" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F764" t="s">
+        <v>3071</v>
       </c>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>3413</v>
+        <v>665</v>
       </c>
       <c r="B765" t="s">
-        <v>2785</v>
+        <v>117</v>
       </c>
       <c r="C765" t="s">
-        <v>2530</v>
+        <v>8</v>
+      </c>
+      <c r="D765" t="s">
+        <v>2789</v>
       </c>
       <c r="F765" t="s">
-        <v>3414</v>
-      </c>
-    </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A766" t="s">
-        <v>3208</v>
-      </c>
-      <c r="B766" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C766" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F766" t="s">
-        <v>3209</v>
-      </c>
-    </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A767" t="s">
-        <v>2784</v>
-      </c>
-      <c r="B767" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C767" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F767" t="s">
-        <v>2786</v>
-      </c>
-    </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A768" t="s">
-        <v>3114</v>
-      </c>
-      <c r="B768" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C768" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F768" t="s">
-        <v>3115</v>
-      </c>
-    </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A769" t="s">
-        <v>3283</v>
-      </c>
-      <c r="B769" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C769" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F769" t="s">
-        <v>3284</v>
-      </c>
-    </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A770" t="s">
-        <v>3321</v>
-      </c>
-      <c r="B770" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C770" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F770" t="s">
-        <v>3322</v>
-      </c>
-    </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A771" t="s">
-        <v>2986</v>
-      </c>
-      <c r="B771" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C771" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F771" t="s">
-        <v>2987</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>2986</v>
-      </c>
-      <c r="B772" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C772" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F772" t="s">
-        <v>3112</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>2986</v>
+        <v>3622</v>
       </c>
       <c r="B773" t="s">
         <v>2785</v>
@@ -46854,12 +47231,12 @@
         <v>2530</v>
       </c>
       <c r="F773" t="s">
-        <v>3148</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>3549</v>
+        <v>3413</v>
       </c>
       <c r="B774" t="s">
         <v>2785</v>
@@ -46868,12 +47245,12 @@
         <v>2530</v>
       </c>
       <c r="F774" t="s">
-        <v>3550</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>3587</v>
+        <v>3208</v>
       </c>
       <c r="B775" t="s">
         <v>2785</v>
@@ -46882,12 +47259,12 @@
         <v>2530</v>
       </c>
       <c r="F775" t="s">
-        <v>3588</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>3601</v>
+        <v>2784</v>
       </c>
       <c r="B776" t="s">
         <v>2785</v>
@@ -46896,90 +47273,324 @@
         <v>2530</v>
       </c>
       <c r="F776" t="s">
-        <v>3602</v>
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B777" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C777" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F777" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B778" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C778" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F778" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B779" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C779" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F779" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B780" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C780" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F780" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B781" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C781" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F781" t="s">
+        <v>3322</v>
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>2847</v>
+        <v>2986</v>
+      </c>
+      <c r="B782" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C782" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F782" t="s">
+        <v>2987</v>
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>2815</v>
+        <v>2986</v>
       </c>
       <c r="B783" t="s">
-        <v>2816</v>
+        <v>2785</v>
       </c>
       <c r="C783" t="s">
         <v>2530</v>
       </c>
-      <c r="D783" t="s">
-        <v>2817</v>
-      </c>
       <c r="F783" t="s">
-        <v>2818</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>3085</v>
+        <v>2986</v>
       </c>
       <c r="B784" t="s">
-        <v>3086</v>
+        <v>2785</v>
       </c>
       <c r="C784" t="s">
-        <v>3087</v>
+        <v>2530</v>
       </c>
       <c r="F784" t="s">
-        <v>3088</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>3105</v>
+        <v>3549</v>
       </c>
       <c r="B785" t="s">
-        <v>3106</v>
+        <v>2785</v>
+      </c>
+      <c r="C785" t="s">
+        <v>2530</v>
       </c>
       <c r="F785" t="s">
-        <v>3107</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>2821</v>
+        <v>3549</v>
       </c>
       <c r="B786" t="s">
-        <v>2822</v>
+        <v>2785</v>
       </c>
       <c r="C786" t="s">
         <v>2530</v>
       </c>
-      <c r="D786" t="s">
-        <v>2823</v>
-      </c>
       <c r="F786" t="s">
-        <v>2824</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B787" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C787" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F787" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B788" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C788" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F788" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B789" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C789" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F789" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B792" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C792" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F792" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>3624</v>
+      </c>
+      <c r="B795" t="s">
+        <v>3625</v>
+      </c>
+      <c r="C795" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F795" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B799" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C799" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D799" t="s">
+        <v>2817</v>
+      </c>
+      <c r="F799" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B800" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C800" t="s">
+        <v>3087</v>
+      </c>
+      <c r="F800" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B801" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F801" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B802" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C802" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D802" t="s">
+        <v>2823</v>
+      </c>
+      <c r="F802" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
         <v>2791</v>
       </c>
-      <c r="B787" t="s">
+      <c r="B803" t="s">
         <v>2792</v>
       </c>
-      <c r="C787" t="s">
+      <c r="C803" t="s">
         <v>2793</v>
       </c>
-      <c r="F787" t="s">
+      <c r="F803" t="s">
         <v>2794</v>
       </c>
     </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B804" t="s">
+        <v>3642</v>
+      </c>
+      <c r="C804" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F804" t="s">
+        <v>3643</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A708:F745">
-    <sortCondition ref="A708:A745"/>
+  <sortState ref="A773:F789">
+    <sortCondition ref="A773:A789"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/newCards.xlsx
+++ b/newCards.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Stuff" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12729" uniqueCount="4544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12817" uniqueCount="4577">
   <si>
     <t>Name</t>
   </si>
@@ -13654,6 +13654,105 @@
   </si>
   <si>
     <t>161012_MBKC_080.jpg</t>
+  </si>
+  <si>
+    <t>Jimmy Foxx</t>
+  </si>
+  <si>
+    <t>Screenshot_20170211-093359.png</t>
+  </si>
+  <si>
+    <t>Screenshot_20170218-124932.png</t>
+  </si>
+  <si>
+    <t>Screenshot_20170219-171757.png</t>
+  </si>
+  <si>
+    <t>Screenshot_20170206-213235.png</t>
+  </si>
+  <si>
+    <t>Jason Hammell</t>
+  </si>
+  <si>
+    <t>IMG_20170211_175036.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_20170211-093601.png</t>
+  </si>
+  <si>
+    <t>Screenshot_20170217-203108.png</t>
+  </si>
+  <si>
+    <t>Screenshot_20170218-172712.png</t>
+  </si>
+  <si>
+    <t>John Wooden</t>
+  </si>
+  <si>
+    <t>Screenshot_20170209-223003.png</t>
+  </si>
+  <si>
+    <t>Screenshot_20170219-172028.png</t>
+  </si>
+  <si>
+    <t>Draymon Greene</t>
+  </si>
+  <si>
+    <t>Warriors</t>
+  </si>
+  <si>
+    <t>Screenshot_20170211-092937.png</t>
+  </si>
+  <si>
+    <t>Screenshot_20170211-093734.png</t>
+  </si>
+  <si>
+    <t>Fred McGriff</t>
+  </si>
+  <si>
+    <t>Screenshot_20170209-191856.png</t>
+  </si>
+  <si>
+    <t>Christopher Eccleston</t>
+  </si>
+  <si>
+    <t>Screenshot_20170217-203004.png</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Bulls</t>
+  </si>
+  <si>
+    <t>Screenshot_20170217-203532.png</t>
+  </si>
+  <si>
+    <t>Screenshot_20170218-125115.png</t>
+  </si>
+  <si>
+    <t>Screenshot_20170209-182115.png</t>
+  </si>
+  <si>
+    <t>Screenshot_20170206-213404.png</t>
+  </si>
+  <si>
+    <t>Glenn Robinson III</t>
+  </si>
+  <si>
+    <t>Pacers</t>
+  </si>
+  <si>
+    <t>Dunk Contest</t>
+  </si>
+  <si>
+    <t>Screenshot_20170219-172238.png</t>
+  </si>
+  <si>
+    <t>Meteoric</t>
+  </si>
+  <si>
+    <t>Screenshot_20170208-194102.png</t>
   </si>
 </sst>
 </file>
@@ -14506,10 +14605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14538,6 +14637,313 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4544</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3508</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3508</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4520</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4475</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3508</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4554</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4557</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4558</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C15" t="s">
+        <v>434</v>
+      </c>
+      <c r="D15">
+        <v>2016</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4563</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4412</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3508</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>703</v>
+      </c>
+      <c r="C19" t="s">
+        <v>434</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4571</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4573</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B22" t="s">
+        <v>703</v>
+      </c>
+      <c r="C22" t="s">
+        <v>434</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4575</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4576</v>
       </c>
     </row>
   </sheetData>
@@ -45667,7 +46073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F890"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A829" workbookViewId="0">
+    <sheetView topLeftCell="A829" workbookViewId="0">
       <selection activeCell="A831" sqref="A831"/>
     </sheetView>
   </sheetViews>

--- a/newCards.xlsx
+++ b/newCards.xlsx
@@ -14247,7 +14247,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -14255,6 +14255,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -14648,8 +14649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A638" workbookViewId="0">
-      <selection activeCell="A657" sqref="A657:XFD657"/>
+    <sheetView tabSelected="1" topLeftCell="A527" workbookViewId="0">
+      <selection activeCell="C645" sqref="C645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24649,7 +24650,7 @@
       <c r="B645" t="s">
         <v>1335</v>
       </c>
-      <c r="C645" t="s">
+      <c r="C645" s="5" t="s">
         <v>2530</v>
       </c>
       <c r="D645" t="s">
